--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2459EAC5-F537-42F4-A499-4E7173955F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF4B30D-E993-4638-B6DF-C9327914F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSTimportantdata" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -50,15 +50,6 @@
   </si>
   <si>
     <t>Technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Future fuel prices and demand are estimated with a triangular regression </t>
-  </si>
-  <si>
-    <t>The user can also define the simulation year at which fuel prices and demand are no longer interpolated, but found through a triangular trend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuel prices and the demand increase are interpolated according to an input. </t>
   </si>
   <si>
     <t xml:space="preserve">Candidate power plants </t>
@@ -212,9 +203,6 @@
     <t>WTG_onshore</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>fom_cost</t>
   </si>
   <si>
@@ -246,6 +234,15 @@
   </si>
   <si>
     <t>Eur/MW</t>
+  </si>
+  <si>
+    <t>2030 in gray, 2050 in blue</t>
+  </si>
+  <si>
+    <t>investment costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; if there is no data for 2050, data is extrapolated </t>
   </si>
 </sst>
 </file>
@@ -293,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,7 +305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -364,10 +367,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -375,6 +374,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,16 +431,10 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>WTG_offshore</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
@@ -523,9 +517,6 @@
           <cell r="F1" t="str">
             <v>lifetime_technical</v>
           </cell>
-          <cell r="G1" t="str">
-            <v>Intermittent</v>
-          </cell>
           <cell r="H1" t="str">
             <v>MaximumLifeExtension</v>
           </cell>
@@ -549,9 +540,6 @@
           <cell r="F2">
             <v>30</v>
           </cell>
-          <cell r="G2" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H2">
             <v>0</v>
           </cell>
@@ -575,9 +563,6 @@
           <cell r="F3">
             <v>20</v>
           </cell>
-          <cell r="G3" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H3">
             <v>0</v>
           </cell>
@@ -601,9 +586,6 @@
           <cell r="F4">
             <v>30</v>
           </cell>
-          <cell r="G4" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H4">
             <v>0</v>
           </cell>
@@ -627,9 +609,6 @@
           <cell r="F5">
             <v>30</v>
           </cell>
-          <cell r="G5" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H5">
             <v>0</v>
           </cell>
@@ -653,9 +632,6 @@
           <cell r="F6">
             <v>20</v>
           </cell>
-          <cell r="G6" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H6">
             <v>0</v>
           </cell>
@@ -679,9 +655,6 @@
           <cell r="F7">
             <v>20</v>
           </cell>
-          <cell r="G7" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H7">
             <v>0</v>
           </cell>
@@ -705,9 +678,6 @@
           <cell r="F8">
             <v>45</v>
           </cell>
-          <cell r="G8" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H8">
             <v>0</v>
           </cell>
@@ -731,9 +701,6 @@
           <cell r="F9">
             <v>30</v>
           </cell>
-          <cell r="G9" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H9">
             <v>0</v>
           </cell>
@@ -757,9 +724,6 @@
           <cell r="F10">
             <v>40</v>
           </cell>
-          <cell r="G10" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H10">
             <v>0</v>
           </cell>
@@ -783,9 +747,6 @@
           <cell r="F11">
             <v>40</v>
           </cell>
-          <cell r="G11" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H11">
             <v>0</v>
           </cell>
@@ -809,9 +770,6 @@
           <cell r="F12">
             <v>25</v>
           </cell>
-          <cell r="G12" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H12">
             <v>0</v>
           </cell>
@@ -835,9 +793,6 @@
           <cell r="F13">
             <v>20</v>
           </cell>
-          <cell r="G13" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H13">
             <v>0</v>
           </cell>
@@ -861,9 +816,6 @@
           <cell r="F14">
             <v>100</v>
           </cell>
-          <cell r="G14" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H14">
             <v>0</v>
           </cell>
@@ -887,9 +839,6 @@
           <cell r="F15">
             <v>30</v>
           </cell>
-          <cell r="G15" t="b">
-            <v>1</v>
-          </cell>
           <cell r="H15">
             <v>0</v>
           </cell>
@@ -913,9 +862,6 @@
           <cell r="F16">
             <v>25</v>
           </cell>
-          <cell r="G16" t="b">
-            <v>1</v>
-          </cell>
           <cell r="H16">
             <v>0</v>
           </cell>
@@ -939,9 +885,6 @@
           <cell r="F17">
             <v>25</v>
           </cell>
-          <cell r="G17" t="b">
-            <v>1</v>
-          </cell>
           <cell r="H17">
             <v>0</v>
           </cell>
@@ -965,9 +908,6 @@
           <cell r="F18">
             <v>60</v>
           </cell>
-          <cell r="G18" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H18">
             <v>0</v>
           </cell>
@@ -991,9 +931,6 @@
           <cell r="F19">
             <v>30</v>
           </cell>
-          <cell r="G19" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H19">
             <v>0</v>
           </cell>
@@ -1017,9 +954,6 @@
           <cell r="F20">
             <v>30</v>
           </cell>
-          <cell r="G20" t="b">
-            <v>0</v>
-          </cell>
           <cell r="H20">
             <v>0</v>
           </cell>
@@ -1042,9 +976,6 @@
           </cell>
           <cell r="F21">
             <v>30</v>
-          </cell>
-          <cell r="G21" t="b">
-            <v>0</v>
           </cell>
           <cell r="H21">
             <v>0</v>
@@ -1074,9 +1005,6 @@
           <cell r="F1" t="str">
             <v>dismantlingRequiredOperatingProfit</v>
           </cell>
-          <cell r="G1" t="str">
-            <v>debtRatioOfInvestments</v>
-          </cell>
           <cell r="H1" t="str">
             <v>loanInterestRate</v>
           </cell>
@@ -1108,9 +1036,6 @@
           </cell>
           <cell r="F3">
             <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0.7</v>
           </cell>
           <cell r="H3">
             <v>0.1</v>
@@ -1459,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBFB2D1-923B-4526-A34E-3773942F3DC1}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1470,15 +1395,16 @@
     <col min="1" max="1" width="24.90625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
     <col min="10" max="10" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" t="str">
         <f>[1]CandidatePowerPlants!B1</f>
         <v>Technology</v>
@@ -1488,7 +1414,7 @@
         <v>Realistic_capacity</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="B3" t="str">
         <f>[1]CandidatePowerPlants!B2</f>
         <v>PV_utility_systems</v>
@@ -1498,7 +1424,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="B4" t="str">
         <f>[1]CandidatePowerPlants!B3</f>
         <v>WTG_onshore</v>
@@ -1508,7 +1434,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="B5" t="str">
         <f>[1]CandidatePowerPlants!B4</f>
         <v>hydrogen_turbine</v>
@@ -1518,7 +1444,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="B6" t="str">
         <f>[1]CandidatePowerPlants!B5</f>
         <v>Biomass_CHP_wood_pellets_DH</v>
@@ -1528,7 +1454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="B7" t="str">
         <f>[1]CandidatePowerPlants!B6</f>
         <v>WTG_offshore</v>
@@ -1538,7 +1464,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="B8" t="str">
         <f>[1]CandidatePowerPlants!B7</f>
         <v>Lithium_ion_battery</v>
@@ -1548,16 +1474,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="B11" t="str">
         <f>[1]TechnologiesEmlab!A1</f>
         <v>traderes technology</v>
@@ -1583,18 +1509,11 @@
         <v>lifetime_technical</v>
       </c>
       <c r="H11" t="str">
-        <f>[1]TechnologiesEmlab!G1</f>
-        <v>Intermittent</v>
-      </c>
-      <c r="I11" t="str">
         <f>[1]TechnologiesEmlab!H1</f>
         <v>MaximumLifeExtension</v>
       </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" t="str">
         <f>[1]TechnologiesEmlab!A2</f>
         <v>Biomass_CHP_wood_pellets_DH</v>
@@ -1619,19 +1538,12 @@
         <f>[1]TechnologiesEmlab!F2</f>
         <v>30</v>
       </c>
-      <c r="H12" t="b">
-        <f>[1]TechnologiesEmlab!G2</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <f>[1]TechnologiesEmlab!H2</f>
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" t="str">
         <f>[1]TechnologiesEmlab!A3</f>
         <v>Biomass_CHP_wood_pellets_PH</v>
@@ -1656,19 +1568,12 @@
         <f>[1]TechnologiesEmlab!F3</f>
         <v>20</v>
       </c>
-      <c r="H13" t="b">
-        <f>[1]TechnologiesEmlab!G3</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
         <f>[1]TechnologiesEmlab!H3</f>
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" t="str">
         <f>[1]TechnologiesEmlab!A4</f>
         <v>CCGT</v>
@@ -1693,17 +1598,13 @@
         <f>[1]TechnologiesEmlab!F4</f>
         <v>30</v>
       </c>
-      <c r="H14" t="b">
-        <f>[1]TechnologiesEmlab!G4</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
         <f>[1]TechnologiesEmlab!H4</f>
         <v>0</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="B15" t="str">
         <f>[1]TechnologiesEmlab!A5</f>
         <v>CCGT_CHP_backpressure_DH</v>
@@ -1728,16 +1629,12 @@
         <f>[1]TechnologiesEmlab!F5</f>
         <v>30</v>
       </c>
-      <c r="H15" t="b">
-        <f>[1]TechnologiesEmlab!G5</f>
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
         <f>[1]TechnologiesEmlab!H5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="B16" t="str">
         <f>[1]TechnologiesEmlab!A6</f>
         <v>CCGT_CHP_backpressure_PH</v>
@@ -1762,16 +1659,12 @@
         <f>[1]TechnologiesEmlab!F6</f>
         <v>20</v>
       </c>
-      <c r="H16" t="b">
-        <f>[1]TechnologiesEmlab!G6</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <f>[1]TechnologiesEmlab!H6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:8">
       <c r="B17" t="str">
         <f>[1]TechnologiesEmlab!A7</f>
         <v>CCS</v>
@@ -1796,16 +1689,12 @@
         <f>[1]TechnologiesEmlab!F7</f>
         <v>20</v>
       </c>
-      <c r="H17" t="b">
-        <f>[1]TechnologiesEmlab!G7</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
         <f>[1]TechnologiesEmlab!H7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:8">
       <c r="B18" t="str">
         <f>[1]TechnologiesEmlab!A8</f>
         <v>Nuclear</v>
@@ -1830,16 +1719,12 @@
         <f>[1]TechnologiesEmlab!F8</f>
         <v>45</v>
       </c>
-      <c r="H18" t="b">
-        <f>[1]TechnologiesEmlab!G8</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
         <f>[1]TechnologiesEmlab!H8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:8">
       <c r="B19" t="str">
         <f>[1]TechnologiesEmlab!A9</f>
         <v>OCGT</v>
@@ -1864,16 +1749,12 @@
         <f>[1]TechnologiesEmlab!F9</f>
         <v>30</v>
       </c>
-      <c r="H19" t="b">
-        <f>[1]TechnologiesEmlab!G9</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <f>[1]TechnologiesEmlab!H9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:8">
       <c r="B20" t="str">
         <f>[1]TechnologiesEmlab!A10</f>
         <v>Coal PSC</v>
@@ -1898,16 +1779,12 @@
         <f>[1]TechnologiesEmlab!F10</f>
         <v>40</v>
       </c>
-      <c r="H20" t="b">
-        <f>[1]TechnologiesEmlab!G10</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
         <f>[1]TechnologiesEmlab!H10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:8">
       <c r="B21" t="str">
         <f>[1]TechnologiesEmlab!A11</f>
         <v>Lignite PSC</v>
@@ -1932,16 +1809,12 @@
         <f>[1]TechnologiesEmlab!F11</f>
         <v>40</v>
       </c>
-      <c r="H21" t="b">
-        <f>[1]TechnologiesEmlab!G11</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <f>[1]TechnologiesEmlab!H11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:8">
       <c r="B22" t="str">
         <f>[1]TechnologiesEmlab!A12</f>
         <v>Fuel oil PGT</v>
@@ -1966,16 +1839,12 @@
         <f>[1]TechnologiesEmlab!F12</f>
         <v>25</v>
       </c>
-      <c r="H22" t="b">
-        <f>[1]TechnologiesEmlab!G12</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <f>[1]TechnologiesEmlab!H12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:8">
       <c r="B23" t="str">
         <f>[1]TechnologiesEmlab!A13</f>
         <v>Lithium_ion_battery</v>
@@ -2000,16 +1869,12 @@
         <f>[1]TechnologiesEmlab!F13</f>
         <v>20</v>
       </c>
-      <c r="H23" t="b">
-        <f>[1]TechnologiesEmlab!G13</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <f>[1]TechnologiesEmlab!H13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:8">
       <c r="B24" t="str">
         <f>[1]TechnologiesEmlab!A14</f>
         <v>Pumped_hydro</v>
@@ -2034,16 +1899,12 @@
         <f>[1]TechnologiesEmlab!F14</f>
         <v>100</v>
       </c>
-      <c r="H24" t="b">
-        <f>[1]TechnologiesEmlab!G14</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <f>[1]TechnologiesEmlab!H14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:8">
       <c r="B25" t="str">
         <f>[1]TechnologiesEmlab!A15</f>
         <v>WTG_offshore</v>
@@ -2068,16 +1929,12 @@
         <f>[1]TechnologiesEmlab!F15</f>
         <v>30</v>
       </c>
-      <c r="H25" t="b">
-        <f>[1]TechnologiesEmlab!G15</f>
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <f>[1]TechnologiesEmlab!H15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:8">
       <c r="B26" t="str">
         <f>[1]TechnologiesEmlab!A16</f>
         <v>WTG_onshore</v>
@@ -2102,16 +1959,12 @@
         <f>[1]TechnologiesEmlab!F16</f>
         <v>25</v>
       </c>
-      <c r="H26" t="b">
-        <f>[1]TechnologiesEmlab!G16</f>
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <f>[1]TechnologiesEmlab!H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:8">
       <c r="B27" t="str">
         <f>[1]TechnologiesEmlab!A17</f>
         <v>PV_utility_systems</v>
@@ -2136,16 +1989,12 @@
         <f>[1]TechnologiesEmlab!F17</f>
         <v>25</v>
       </c>
-      <c r="H27" t="b">
-        <f>[1]TechnologiesEmlab!G17</f>
-        <v>1</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <f>[1]TechnologiesEmlab!H17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:8">
       <c r="B28" t="str">
         <f>[1]TechnologiesEmlab!A18</f>
         <v>Hydropower_reservoir_medium</v>
@@ -2170,16 +2019,12 @@
         <f>[1]TechnologiesEmlab!F18</f>
         <v>60</v>
       </c>
-      <c r="H28" t="b">
-        <f>[1]TechnologiesEmlab!G18</f>
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
         <f>[1]TechnologiesEmlab!H18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:8">
       <c r="B29" t="str">
         <f>[1]TechnologiesEmlab!A19</f>
         <v>hydrogen_turbine</v>
@@ -2204,16 +2049,12 @@
         <f>[1]TechnologiesEmlab!F19</f>
         <v>30</v>
       </c>
-      <c r="H29" t="b">
-        <f>[1]TechnologiesEmlab!G19</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
         <f>[1]TechnologiesEmlab!H19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:8">
       <c r="B30" t="str">
         <f>[1]TechnologiesEmlab!A20</f>
         <v>hydrogen_CHP</v>
@@ -2238,16 +2079,12 @@
         <f>[1]TechnologiesEmlab!F20</f>
         <v>30</v>
       </c>
-      <c r="H30" t="b">
-        <f>[1]TechnologiesEmlab!G20</f>
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="H30">
         <f>[1]TechnologiesEmlab!H20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:8">
       <c r="B31" t="str">
         <f>[1]TechnologiesEmlab!A21</f>
         <v>hydrogen_combined_cycle</v>
@@ -2272,50 +2109,46 @@
         <f>[1]TechnologiesEmlab!F21</f>
         <v>30</v>
       </c>
-      <c r="H31" t="b">
-        <f>[1]TechnologiesEmlab!G21</f>
-        <v>0</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
         <f>[1]TechnologiesEmlab!H21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="B35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:11">
       <c r="C36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:11">
       <c r="B40" t="str">
         <f>[1]EnergyProducers!A1</f>
         <v>Name</v>
@@ -2341,27 +2174,23 @@
         <v>dismantlingRequiredOperatingProfit</v>
       </c>
       <c r="H40" t="str">
-        <f>[1]EnergyProducers!G1</f>
-        <v>debtRatioOfInvestments</v>
-      </c>
-      <c r="I40" t="str">
         <f>[1]EnergyProducers!H1</f>
         <v>loanInterestRate</v>
       </c>
-      <c r="J40" t="str">
+      <c r="I40" t="str">
         <f>[1]EnergyProducers!I1</f>
         <v>equityInterestRate</v>
       </c>
-      <c r="K40" t="str">
+      <c r="J40" t="str">
         <f>[1]EnergyProducers!J1</f>
         <v>longTermContractPastTimeHorizon</v>
       </c>
-      <c r="L40" t="str">
+      <c r="K40" t="str">
         <f>[1]EnergyProducers!K1</f>
         <v>longTermContractMargin</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="B41" t="str">
         <f>[1]EnergyProducers!A3</f>
         <v>ProducerNL</v>
@@ -2387,32 +2216,28 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <f>[1]EnergyProducers!G3</f>
-        <v>0.7</v>
-      </c>
-      <c r="I41">
         <f>[1]EnergyProducers!H3</f>
         <v>0.1</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <f>[1]EnergyProducers!I3</f>
         <v>0.1</v>
       </c>
-      <c r="K41">
+      <c r="J41">
         <f>[1]EnergyProducers!J3</f>
         <v>3</v>
       </c>
-      <c r="L41">
+      <c r="K41">
         <f>[1]EnergyProducers!K3</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="B45" t="str">
         <f>[1]ElectricitySpotMarkets!A1</f>
         <v>Name</v>
@@ -2422,7 +2247,7 @@
         <v>valueOfLostLoad</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="B46" t="str">
         <f>[1]ElectricitySpotMarkets!A3</f>
         <v>DutchElectricitySpotMarket</v>
@@ -2719,7 +2544,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>82.5</v>
@@ -2733,7 +2558,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>86.844999999999999</v>
@@ -2747,7 +2572,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2758,7 +2583,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -2772,7 +2597,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2783,7 +2608,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>10.8</v>
@@ -2797,7 +2622,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>21.175000000000001</v>
@@ -2811,7 +2636,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>74.965000000000003</v>
@@ -2825,7 +2650,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>46.44</v>
@@ -2839,7 +2664,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>6.48</v>
@@ -2853,7 +2678,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>16.716999999999999</v>
@@ -2867,7 +2692,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>13.4</v>
@@ -2881,7 +2706,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1.69</v>
@@ -2895,7 +2720,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>4.5360000000000005</v>
@@ -2909,7 +2734,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>7.5</v>
@@ -2923,7 +2748,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -2942,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2953,8 +2778,10 @@
     <col min="1" max="1" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B1" s="6">
         <v>2020</v>
       </c>
@@ -2964,10 +2791,13 @@
       <c r="D1" s="6">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
-        <v>29</v>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="6">
         <v>2040000</v>
@@ -2977,9 +2807,9 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6">
@@ -2987,9 +2817,9 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6">
@@ -2997,9 +2827,9 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="11" t="s">
-        <v>32</v>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3007,9 +2837,9 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>33</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3017,9 +2847,9 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
+    <row r="7" spans="1:6">
+      <c r="A7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="B7" s="6">
         <v>3845510</v>
@@ -3027,9 +2857,9 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>35</v>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3037,9 +2867,9 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>36</v>
+    <row r="9" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="6">
         <v>343000</v>
@@ -3047,9 +2877,9 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3057,9 +2887,9 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>38</v>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3067,9 +2897,9 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11" t="s">
-        <v>39</v>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3077,9 +2907,9 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="11" t="s">
-        <v>40</v>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3087,9 +2917,9 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="11" t="s">
-        <v>41</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="6">
         <v>8000000</v>
@@ -3099,9 +2929,9 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="11" t="s">
-        <v>42</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="6">
         <v>8000000</v>
@@ -3109,9 +2939,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
-        <v>43</v>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B16" s="6">
         <v>3845510</v>
@@ -3119,9 +2949,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="11" t="s">
-        <v>44</v>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="6">
         <v>321000</v>
@@ -3131,9 +2961,9 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="11" t="s">
-        <v>45</v>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B18" s="6">
         <v>7940450</v>
@@ -3143,9 +2973,9 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="11" t="s">
-        <v>46</v>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -3153,9 +2983,9 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>47</v>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="6">
         <v>2000000</v>
@@ -3163,9 +2993,9 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="11" t="s">
-        <v>48</v>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="6">
         <v>587000</v>
@@ -3177,9 +3007,9 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>49</v>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B22" s="6">
         <v>2270000</v>
@@ -3191,9 +3021,9 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>50</v>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="6">
         <v>1150000</v>
@@ -3205,168 +3035,179 @@
         <v>1040000</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>2050</v>
-      </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="C28" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.309</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="14">
-        <f>F27*0.05</f>
+      <c r="B29" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="6">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0.85</v>
-      </c>
-      <c r="D28" s="14">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="14">
-        <f>B28</f>
-        <v>2.7</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0.61</v>
-      </c>
-      <c r="D29" s="14">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="6">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="D31" s="6">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="C33" s="6">
+        <v>13450</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6">
-        <v>1.9</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="6">
-        <v>50000</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0.309</v>
-      </c>
+        <v>33550</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6" t="s">
-        <v>31</v>
+      <c r="A35" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="6">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="C35" s="6">
-        <v>27800</v>
+        <v>14950</v>
       </c>
       <c r="D35" s="6">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -3374,17 +3215,17 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6" t="s">
-        <v>32</v>
+      <c r="A36" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="6">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="6">
-        <v>27800</v>
+        <v>100000</v>
       </c>
       <c r="D36" s="6">
-        <v>0.53</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3392,17 +3233,17 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6" t="s">
-        <v>33</v>
+      <c r="A37" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="C37" s="6">
-        <v>27800</v>
+        <v>7745</v>
       </c>
       <c r="D37" s="6">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3410,28 +3251,32 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6" t="s">
-        <v>59</v>
+      <c r="A38" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B38" s="6">
-        <v>21</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>7250</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="6" t="s">
-        <v>41</v>
+      <c r="A39" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6">
-        <v>13450</v>
+        <v>36053</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -3442,291 +3287,114 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="6"/>
+      <c r="A40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1.35</v>
+      </c>
       <c r="C40" s="6">
-        <v>33550</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>12600</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="6" t="s">
-        <v>42</v>
+      <c r="A41" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B41" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7800</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="H41" s="6">
         <v>0</v>
       </c>
-      <c r="C41" s="6">
-        <v>14950</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="6">
-        <v>4</v>
-      </c>
+      <c r="A42" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6"/>
       <c r="C42" s="6">
-        <v>100000</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="6" t="s">
-        <v>46</v>
+      <c r="A43" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B43" s="6">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="C43" s="6">
-        <v>7745</v>
+        <v>0.85</v>
       </c>
       <c r="D43" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+        <v>30000</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6" t="s">
-        <v>48</v>
+      <c r="A44" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B44" s="6">
+        <f>B43</f>
+        <v>2.7</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D44" s="6">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="6">
         <v>0</v>
       </c>
-      <c r="C44" s="6">
-        <v>7250</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="6">
-        <v>3</v>
-      </c>
-      <c r="C45" s="6">
-        <v>36053</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1.35</v>
-      </c>
       <c r="C46" s="6">
-        <v>12600</v>
+        <v>0.74</v>
       </c>
       <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="C47" s="6">
-        <v>7800</v>
-      </c>
-      <c r="D47" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E47" s="6">
-        <v>5</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="G47" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="1:8" ht="43.5">
-      <c r="A50" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="10">
-        <f>J51*0.016</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D51" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="10">
-        <f>J52*0.016</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="10">
-        <f>J53*0.025</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="6">
-        <v>6</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="10">
-        <f>J54*0.014</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="6">
-        <v>3.5</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="6">
-        <v>16000</v>
-      </c>
-      <c r="C55" s="6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1</v>
-      </c>
-      <c r="E55" s="6">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="G55" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5E6190-1296-41AC-9CF1-F2642B99CCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28C481-C7F0-46FF-9F2D-103E5026093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSTimportantdata" sheetId="2" r:id="rId1"/>
     <sheet name="capacityFactors" sheetId="4" r:id="rId2"/>
     <sheet name="fuelprices" sheetId="1" r:id="rId3"/>
     <sheet name="investmentCosts" sheetId="3" r:id="rId4"/>
-    <sheet name="traderes" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="minimum NPV" sheetId="5" r:id="rId7"/>
+    <sheet name="loadshedders" sheetId="8" r:id="rId5"/>
+    <sheet name="traderes" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="minimum NPV" sheetId="5" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">traderes!$E$2:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">traderes!$E$2:$O$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -213,9 +214,6 @@
     <t>WTG_onshore</t>
   </si>
   <si>
-    <t>fom_cost</t>
-  </si>
-  <si>
     <t>vom_cost</t>
   </si>
   <si>
@@ -240,15 +238,6 @@
     <t>Hydropower_reservoir_small</t>
   </si>
   <si>
-    <t>Eur/MWh</t>
-  </si>
-  <si>
-    <t>Eur/MW</t>
-  </si>
-  <si>
-    <t>2030 in gray, 2050 in blue</t>
-  </si>
-  <si>
     <t>investment costs</t>
   </si>
   <si>
@@ -570,15 +559,6 @@
     <t>Sum of invCosts</t>
   </si>
   <si>
-    <t>dif2050</t>
-  </si>
-  <si>
-    <t>dif2030</t>
-  </si>
-  <si>
-    <t>Newtraderes</t>
-  </si>
-  <si>
     <t>future of energy storage=&gt; 2020 prices</t>
   </si>
   <si>
@@ -637,6 +617,36 @@
   </si>
   <si>
     <t>tyndp</t>
+  </si>
+  <si>
+    <t>CCS CCGT</t>
+  </si>
+  <si>
+    <t>PV_residential</t>
+  </si>
+  <si>
+    <t>new - old 2050</t>
+  </si>
+  <si>
+    <t>new - old 2030</t>
+  </si>
+  <si>
+    <t>Old prices / traderes</t>
+  </si>
+  <si>
+    <t>PV_combination 50%50%</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">industrial heat </t>
+  </si>
+  <si>
+    <t>considering hydrogen price</t>
+  </si>
+  <si>
+    <t>considering natural gas price</t>
   </si>
 </sst>
 </file>
@@ -646,12 +656,12 @@
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,12 +738,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -793,8 +797,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -835,12 +853,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -909,59 +921,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -990,22 +1003,25 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
     <cellStyle name="Comma 2 2" xfId="2" xr:uid="{2D36A77B-84A6-4F23-B407-DDCE657F2D5A}"/>
     <cellStyle name="Comma 2 2 2" xfId="3" xr:uid="{6BFF97E2-3164-4486-BE09-C1F8C1247DFA}"/>
@@ -1025,6 +1041,7 @@
     <cellStyle name="Comma 3 2 3" xfId="17" xr:uid="{D574377D-7952-40FA-B35B-5B994CF754BA}"/>
     <cellStyle name="Comma 3 2 4" xfId="18" xr:uid="{20852378-816F-4978-84F5-CFD556C2B3C9}"/>
     <cellStyle name="Comma 3 2 5" xfId="19" xr:uid="{961A0784-AFFB-440A-BD72-CE72E51F4F0D}"/>
+    <cellStyle name="Comma 3 3" xfId="46" xr:uid="{B941EA3F-8B38-4AA2-B8FB-6644CE2917AC}"/>
     <cellStyle name="Comma 3_cap" xfId="20" xr:uid="{BBAF7E36-C633-40F8-B676-3D2B564C6299}"/>
     <cellStyle name="Comma 4" xfId="21" xr:uid="{2EA54F6A-4006-487B-984B-6DCCF2254455}"/>
     <cellStyle name="Erklärender Text 2" xfId="22" xr:uid="{16B5E726-F32D-49C2-B3E2-A59856C18188}"/>
@@ -1201,16 +1218,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.04</c:v>
+                  <c:v>2040000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                  <c:v>2040000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,16 +1296,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="1">
+                  <c:v>2900000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2.7</c:v>
+                <c:pt idx="2">
+                  <c:v>2700000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,16 +1374,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="1">
+                  <c:v>830000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.8</c:v>
+                <c:pt idx="2">
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,16 +1452,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="1">
+                  <c:v>1200000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.1000000000000001</c:v>
+                <c:pt idx="2">
+                  <c:v>1100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,16 +1530,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1555,7 +1554,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Coal PSC</c:v>
+                  <c:v>CCS CCGT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1606,16 +1605,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.84551</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                  <c:v>2670000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,7 +1629,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>electrolyzer</c:v>
+                  <c:v>Coal PSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1693,16 +1686,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$9:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>3845510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +1710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fuel oil PGT</c:v>
+                  <c:v>electrolyzer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1780,16 +1767,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$10:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.34300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="2">
+                  <c:v>350000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1810,7 +1791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fuel_cell</c:v>
+                  <c:v>Fuel oil PGT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1867,16 +1848,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$11:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.8</c:v>
+                  <c:v>343000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1897,7 +1872,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hydrogen_CHP</c:v>
+                  <c:v>fuel_cell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1954,16 +1929,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$12:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.73</c:v>
+                <c:pt idx="2">
+                  <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +1953,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hydrogen_combined_cycle</c:v>
+                  <c:v>hydrogen_CHP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2041,16 +2010,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$13:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.75</c:v>
+                <c:pt idx="2">
+                  <c:v>730000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,7 +2034,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hydrogen_turbine</c:v>
+                  <c:v>hydrogen_combined_cycle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2128,16 +2091,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$14:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.435</c:v>
+                <c:pt idx="2">
+                  <c:v>750000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hydropower_reservoir_medium</c:v>
+                  <c:v>hydrogen_turbine</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2218,16 +2175,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$15:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2.6850000000000001</c:v>
+                <c:pt idx="2">
+                  <c:v>435000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2199,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hydropower_ROR</c:v>
+                  <c:v>Hydropower_reservoir_medium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2308,16 +2259,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$16:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="1">
+                  <c:v>2690000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>2.97</c:v>
+                <c:pt idx="2">
+                  <c:v>2685000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2338,7 +2286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lignite PSC</c:v>
+                  <c:v>Hydropower_ROR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2398,16 +2346,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$17:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.84551</c:v>
+                <c:pt idx="1">
+                  <c:v>2990000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="2">
+                  <c:v>2970000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2428,7 +2373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lithium_ion_battery</c:v>
+                  <c:v>Lignite PSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2488,16 +2433,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$18:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.32100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.06</c:v>
+                  <c:v>3845510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2457,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Nuclear</c:v>
+                  <c:v>Lithium_ion_battery</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2578,16 +2517,16 @@
             <c:numRef>
               <c:f>investmentCosts!$B$19:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.9404500000000002</c:v>
+                  <c:v>534000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>284000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="2">
+                  <c:v>270000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,7 +2547,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OCGT</c:v>
+                  <c:v>Nuclear</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2668,16 +2607,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$20:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>#N/A</c:v>
+                  <c:v>7940450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.435</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.41199999999999998</c:v>
+                  <c:v>6000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,7 +2634,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pumped_hydro</c:v>
+                  <c:v>OCGT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2755,16 +2691,13 @@
             <c:numRef>
               <c:f>investmentCosts!$B$21:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:pt idx="1">
+                  <c:v>435000</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>#N/A</c:v>
+                <c:pt idx="2">
+                  <c:v>412000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,7 +2718,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV_utility_systems</c:v>
+                  <c:v>Pumped_hydro</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2842,16 +2775,10 @@
             <c:numRef>
               <c:f>investmentCosts!$B$22:$D$22</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.58699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.3</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2799,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WTG_offshore</c:v>
+                  <c:v>PV_combination 50%50%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2929,16 +2856,16 @@
             <c:numRef>
               <c:f>investmentCosts!$B$23:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.27</c:v>
+                  <c:v>878000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.93</c:v>
+                  <c:v>730500</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>1.78</c:v>
+                <c:pt idx="2">
+                  <c:v>519000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,7 +2886,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WTG_onshore</c:v>
+                  <c:v>PV_residential</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3016,16 +2943,16 @@
             <c:numRef>
               <c:f>investmentCosts!$B$24:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>1169000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04</c:v>
+                  <c:v>1017000</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.96</c:v>
+                <c:pt idx="2">
+                  <c:v>688000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,7 +3099,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;€&quot;\ #,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3866,6 +3793,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513752</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE392219-6B9E-0B81-FAE5-1FBE8F27EF6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="180975"/>
+          <a:ext cx="4780952" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>589205</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -3962,7 +3938,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>120885</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>155188</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4080,13 +4056,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>107175</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4124,13 +4100,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>153707</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>54402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>578437</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>120798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4168,13 +4144,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>212535</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>172133</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>45794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4250,15 +4226,21 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>WTG_offshore</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1">
         <row r="1">
           <cell r="B1" t="str">
             <v>Technology</v>
@@ -4272,7 +4254,7 @@
             <v>Lithium_ion_battery</v>
           </cell>
           <cell r="D2">
-            <v>200</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="3">
@@ -4316,7 +4298,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
+      <sheetData sheetId="9" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>traderes technology</v>
@@ -4801,10 +4783,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4870,7 +4852,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="14" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4888,21 +4870,97 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>VOLL</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>TimeSeriesFile</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Shedder_capacity</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>base</v>
+          </cell>
+          <cell r="B2">
+            <v>4000</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>amiris-config/data/load.csv</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>high</v>
+          </cell>
+          <cell r="B3">
+            <v>2000</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>amiris-config/data/LS_high.csv</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>low</v>
+          </cell>
+          <cell r="B4">
+            <v>500</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>amiris-config/data/LS_low.csv</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>hydrogen_low</v>
+          </cell>
+          <cell r="B5">
+            <v>40</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>amiris-config/data/LS_hydrogen_low.csv</v>
+          </cell>
+          <cell r="D5">
+            <v>251847372</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>hydrogen_high</v>
+          </cell>
+          <cell r="B6">
+            <v>60</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>amiris-config/data/LS_hydrogen_high.csv</v>
+          </cell>
+          <cell r="D6">
+            <v>107934587</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5409,7 +5467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5849,7 +5907,7 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5883,7 +5941,7 @@
       </c>
       <c r="C3">
         <f>[1]CandidatePowerPlants!D2</f>
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6998,21 +7056,21 @@
     <row r="1" spans="1:5">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="E1" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="9">
         <v>16.7</v>
@@ -7021,12 +7079,12 @@
         <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="9">
         <v>45</v>
@@ -7035,12 +7093,12 @@
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="9">
         <v>53</v>
@@ -7049,7 +7107,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="15">
         <v>0.6</v>
@@ -7072,10 +7130,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91ADA03-C099-48D6-AB3F-B988B7AFF0A3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7083,7 +7141,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="7"/>
       <c r="B1" s="7">
         <v>2020</v>
@@ -7094,9 +7152,15 @@
       <c r="D1" s="7">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
@@ -7108,13 +7172,25 @@
       <c r="D2">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="F2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="25">
+        <v>82.5</v>
+      </c>
+      <c r="H2" s="25">
+        <v>82.5</v>
+      </c>
+      <c r="I2" s="25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>86.844999999999999</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>74.66</v>
@@ -7122,20 +7198,42 @@
       <c r="D3">
         <v>50.29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="25">
+        <v>86.844999999999999</v>
+      </c>
+      <c r="H3" s="25">
+        <v>74.66</v>
+      </c>
+      <c r="I3" s="25">
+        <v>50.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4">
+        <v>163</v>
+      </c>
+      <c r="D4">
+        <v>168</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="25">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
@@ -7147,34 +7245,65 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="F5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="25">
+        <v>15</v>
+      </c>
+      <c r="H5" s="25">
+        <v>15</v>
+      </c>
+      <c r="I5" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="F6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C7">
+        <v>7.09</v>
+      </c>
+      <c r="D7">
+        <v>6.73</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="25">
         <v>10.8</v>
       </c>
-      <c r="C7">
+      <c r="H7" s="25">
         <v>7.0919999999999996</v>
       </c>
-      <c r="D7">
+      <c r="I7" s="25">
         <v>6.7320000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -7186,37 +7315,73 @@
       <c r="D8">
         <v>79.69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="25">
+        <v>21.175000000000001</v>
+      </c>
+      <c r="H8" s="25">
+        <v>40.68</v>
+      </c>
+      <c r="I8" s="25">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
+        <v>68.58</v>
+      </c>
+      <c r="C9">
+        <v>61.6</v>
+      </c>
+      <c r="D9">
+        <v>64.48</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="25">
         <v>74.965000000000003</v>
       </c>
-      <c r="C9">
+      <c r="H9" s="25">
         <v>65</v>
       </c>
-      <c r="D9">
+      <c r="I9" s="25">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
+        <v>46.33</v>
+      </c>
+      <c r="C10">
+        <v>36.32</v>
+      </c>
+      <c r="D10">
+        <v>32.83</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="25">
         <v>46.44</v>
       </c>
-      <c r="C10">
+      <c r="H10" s="25">
         <v>36.323999999999998</v>
       </c>
-      <c r="D10">
+      <c r="I10" s="25">
         <v>32.832000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -7228,9 +7393,21 @@
       <c r="D11">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25">
+        <v>6.48</v>
+      </c>
+      <c r="H11" s="25">
+        <v>6.48</v>
+      </c>
+      <c r="I11" s="25">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
@@ -7242,23 +7419,47 @@
       <c r="D12">
         <v>46.996000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="25">
+        <v>16.716999999999999</v>
+      </c>
+      <c r="H12" s="25">
+        <v>26.81</v>
+      </c>
+      <c r="I12" s="25">
+        <v>46.996000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
+        <v>20.05</v>
+      </c>
+      <c r="C13">
+        <v>14.47</v>
+      </c>
+      <c r="D13">
+        <v>14.65</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="25">
         <v>13.4</v>
       </c>
-      <c r="C13">
+      <c r="H13" s="25">
         <v>14.65</v>
       </c>
-      <c r="D13">
+      <c r="I13" s="25">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
@@ -7270,9 +7471,21 @@
       <c r="D14">
         <v>1.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="F14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1.69</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -7284,9 +7497,21 @@
       <c r="D15">
         <v>14.148000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="F15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="25">
+        <v>4.5360000000000005</v>
+      </c>
+      <c r="H15" s="25">
+        <v>6.6960000000000006</v>
+      </c>
+      <c r="I15" s="25">
+        <v>14.148000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
@@ -7298,9 +7523,21 @@
       <c r="D16">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="I16" s="25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -7312,25 +7549,49 @@
       <c r="D17">
         <v>35</v>
       </c>
+      <c r="F17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="25">
+        <v>45</v>
+      </c>
+      <c r="H17" s="25">
+        <v>45</v>
+      </c>
+      <c r="I17" s="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR21" sqref="AR21"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="5" max="10" width="11.90625" customWidth="1"/>
+    <col min="2" max="4" width="10.36328125" customWidth="1"/>
+    <col min="5" max="8" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.6328125" customWidth="1"/>
     <col min="14" max="14" width="1.7265625" customWidth="1"/>
     <col min="19" max="19" width="21.36328125" customWidth="1"/>
@@ -7338,22 +7599,19 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -7376,1067 +7634,1073 @@
       <c r="G2" s="6">
         <v>2050</v>
       </c>
-      <c r="H2" s="6">
-        <v>2020</v>
-      </c>
-      <c r="I2" s="6">
-        <v>2030</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2050</v>
-      </c>
-      <c r="K2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" t="s">
-        <v>167</v>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="18">
-        <f>IF(ISBLANK(E3),#N/A,E3/1000000)</f>
-        <v>2.04</v>
-      </c>
-      <c r="C3" s="18">
-        <f t="shared" ref="C3:D18" si="0">IF(ISBLANK(F3),#N/A,F3/1000000)</f>
-        <v>2.04</v>
-      </c>
-      <c r="D3" s="6" t="e">
+      <c r="B3" s="26">
+        <v>2040000</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2040000</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27">
+        <v>2040000</v>
+      </c>
+      <c r="F3" s="27">
+        <v>2040000</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="19">
+        <f>B3-E3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" ref="I3:J3" si="0">C3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="19">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E3" s="20">
-        <v>2040000</v>
-      </c>
-      <c r="F3" s="20">
-        <v>2040000</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+        <v>0</v>
+      </c>
       <c r="Q3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="e">
-        <f t="shared" ref="B4:B24" si="1">IF(ISBLANK(E4),#N/A,E4/1000000)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C4" s="18">
-        <f t="shared" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26">
         <v>2900000</v>
       </c>
-      <c r="G4" s="20">
+      <c r="D4" s="26">
         <v>2700000</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27">
+        <v>2900000</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2700000</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" ref="H4:H21" si="1">B4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" ref="I4:I21" si="2">C4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" ref="J4:J21" si="3">D4-G4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="18" t="e">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26">
+        <v>830000</v>
+      </c>
+      <c r="D5" s="26">
+        <v>800000</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27">
+        <v>830000</v>
+      </c>
+      <c r="G5" s="27">
+        <v>800000</v>
+      </c>
+      <c r="H5" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>0.83</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>830000</v>
-      </c>
-      <c r="G5" s="20">
-        <v>800000</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="18" t="e">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1100000</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
+        <v>1200000</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1100000</v>
+      </c>
+      <c r="H6" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20">
-        <v>1200000</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1100000</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="18" t="e">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26">
+        <v>1200000</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
+        <v>1200000</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="18">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
-        <v>1200000</v>
-      </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="18">
+        <v>183</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26">
+        <v>2670000</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
-        <v>3.84551</v>
-      </c>
-      <c r="C8" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E8" s="20">
-        <v>3845510</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="2"/>
+        <v>2670000</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="18" t="e">
+        <v>31</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3845510</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27">
+        <v>3845510</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C9" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
-        <v>350000</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="18">
+        <v>32</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26">
+        <v>350000</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27">
+        <v>350000</v>
+      </c>
+      <c r="H10" s="19">
         <f t="shared" si="1"/>
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="C10" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E10" s="20">
-        <v>343000</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="18" t="e">
+        <v>33</v>
+      </c>
+      <c r="B11" s="26">
+        <v>343000</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27">
+        <v>343000</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C11" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
-        <v>800000</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="18" t="e">
+        <v>34</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26">
+        <v>800000</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27">
+        <v>800000</v>
+      </c>
+      <c r="H12" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C12" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20">
-        <v>730000</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="18" t="e">
+        <v>35</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26">
+        <v>730000</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27">
+        <v>730000</v>
+      </c>
+      <c r="H13" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
-        <v>750000</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="18" t="e">
+        <v>36</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26">
+        <v>750000</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27">
+        <v>750000</v>
+      </c>
+      <c r="H14" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
-        <v>0.435</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
-        <v>435000</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="18" t="e">
+        <v>37</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26">
+        <v>435000</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27">
+        <v>435000</v>
+      </c>
+      <c r="H15" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="18">
-        <f t="shared" si="0"/>
-        <v>2.69</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6850000000000001</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20">
-        <v>2690000</v>
-      </c>
-      <c r="G15" s="20">
-        <v>2685000</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="18" t="e">
+        <v>38</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26">
+        <v>2690000</v>
+      </c>
+      <c r="D16" s="26">
+        <v>2685000</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27">
+        <v>2690000</v>
+      </c>
+      <c r="G16" s="27">
+        <v>2685000</v>
+      </c>
+      <c r="H16" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" si="0"/>
-        <v>2.99</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" si="0"/>
-        <v>2.97</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20">
-        <v>2990000</v>
-      </c>
-      <c r="G16" s="20">
-        <v>2970000</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="18">
+        <v>39</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26">
+        <v>2990000</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2970000</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27">
+        <v>2990000</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2970000</v>
+      </c>
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
-        <v>3.84551</v>
-      </c>
-      <c r="C17" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="6" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="20">
-        <v>3845510</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="18">
+        <v>40</v>
+      </c>
+      <c r="B18" s="26">
+        <v>3845510</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27">
+        <v>3845510</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="19">
         <f t="shared" si="1"/>
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="E18" s="20">
-        <v>321000</v>
-      </c>
-      <c r="F18" s="20">
-        <v>160000</v>
-      </c>
-      <c r="G18" s="20">
-        <v>60000</v>
-      </c>
-      <c r="H18" s="27">
-        <v>534000</v>
-      </c>
-      <c r="I18" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A18,traderes!$A$77:$A$99,0),2)</f>
-        <v>284000</v>
-      </c>
-      <c r="J18" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A18,traderes!$A$77:$A$99,0),3)</f>
-        <v>270000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ref="K18:K23" si="2">I18-F18</f>
-        <v>124000</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ref="L18:L23" si="3">J18-G18</f>
-        <v>210000</v>
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="18">
+        <v>41</v>
+      </c>
+      <c r="B19" s="26">
+        <v>534000</v>
+      </c>
+      <c r="C19" s="26">
+        <v>284000</v>
+      </c>
+      <c r="D19" s="26">
+        <v>270000</v>
+      </c>
+      <c r="E19" s="27">
+        <v>321000</v>
+      </c>
+      <c r="F19" s="27">
+        <v>160000</v>
+      </c>
+      <c r="G19" s="27">
+        <v>60000</v>
+      </c>
+      <c r="H19" s="19">
         <f t="shared" si="1"/>
-        <v>7.9404500000000002</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" ref="C19:C24" si="4">IF(ISBLANK(F19),#N/A,F19/1000000)</f>
-        <v>4</v>
-      </c>
-      <c r="D19" s="6" t="e">
-        <f t="shared" ref="D19:D24" si="5">IF(ISBLANK(G19),#N/A,G19/1000000)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="20">
-        <v>7940450</v>
-      </c>
-      <c r="F19" s="20">
-        <v>4000000</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A19,traderes!$A$77:$A$99,0),2)</f>
-        <v>7940450</v>
-      </c>
-      <c r="J19" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A19,traderes!$A$77:$A$99,0),3)</f>
-        <v>6000000</v>
-      </c>
-      <c r="K19">
+        <v>213000</v>
+      </c>
+      <c r="I19" s="19">
         <f t="shared" si="2"/>
-        <v>3940450</v>
-      </c>
-      <c r="L19">
+        <v>124000</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" si="3"/>
-        <v>6000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="18" t="e">
+        <v>42</v>
+      </c>
+      <c r="B20" s="26">
+        <v>7940450</v>
+      </c>
+      <c r="C20" s="26">
+        <v>6000000</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27">
+        <v>7940450</v>
+      </c>
+      <c r="F20" s="27">
+        <v>4000000</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="19">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" si="4"/>
-        <v>0.435</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" si="5"/>
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20">
-        <v>435000</v>
-      </c>
-      <c r="G20" s="20">
-        <v>412000</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" si="2"/>
+        <v>2000000</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="18">
+        <v>43</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26">
+        <v>435000</v>
+      </c>
+      <c r="D21" s="26">
+        <v>412000</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27">
+        <v>435000</v>
+      </c>
+      <c r="G21" s="27">
+        <v>412000</v>
+      </c>
+      <c r="H21" s="19">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="C21" s="18" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="6" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="20">
-        <v>2000000</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="18">
-        <f t="shared" si="1"/>
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" si="4"/>
-        <v>0.38</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" si="5"/>
-        <v>0.3</v>
-      </c>
-      <c r="E22" s="20">
-        <v>587000</v>
-      </c>
-      <c r="F22" s="20">
-        <v>380000</v>
-      </c>
-      <c r="G22" s="20">
-        <v>300000</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A22,traderes!$A$77:$A$99,0),2)</f>
-        <v>380000</v>
-      </c>
-      <c r="J22" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A22,traderes!$A$77:$A$99,0),3)</f>
-        <v>290000</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="B22" s="26">
+        <v>2000000</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27">
+        <v>2000000</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="19">
+        <f t="shared" ref="H22" si="4">B22-E22</f>
         <v>0</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="3"/>
-        <v>-10000</v>
+      <c r="I22" s="19">
+        <f t="shared" ref="I22" si="5">C22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" ref="J22" si="6">D22-G22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="18">
-        <f t="shared" si="1"/>
-        <v>2.27</v>
-      </c>
-      <c r="C23" s="18">
-        <f t="shared" si="4"/>
-        <v>1.93</v>
-      </c>
-      <c r="D23" s="6">
-        <f t="shared" si="5"/>
-        <v>1.78</v>
-      </c>
-      <c r="E23" s="20">
-        <v>2270000</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1930000</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1780000</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A23,traderes!$A$77:$A$99,0),2)</f>
-        <v>1800000</v>
-      </c>
-      <c r="J23" s="22">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A23,traderes!$A$77:$A$99,0),3)</f>
-        <v>1640000</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>-130000</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="3"/>
-        <v>-140000</v>
+        <v>188</v>
+      </c>
+      <c r="B23" s="26">
+        <v>878000</v>
+      </c>
+      <c r="C23" s="26">
+        <v>730500</v>
+      </c>
+      <c r="D23" s="26">
+        <v>519000</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="19">
+        <f>B23-E25</f>
+        <v>291000</v>
+      </c>
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:J23" si="7">C23-F25</f>
+        <v>350500</v>
+      </c>
+      <c r="J23" s="19">
+        <f t="shared" si="7"/>
+        <v>219000</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1169000</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1017000</v>
+      </c>
+      <c r="D24" s="26">
+        <v>688000</v>
+      </c>
+      <c r="E24" s="27">
+        <v>2000000</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="26">
+        <v>587000</v>
+      </c>
+      <c r="C25" s="26">
+        <v>444000</v>
+      </c>
+      <c r="D25" s="26">
+        <v>350000</v>
+      </c>
+      <c r="E25" s="27">
+        <v>587000</v>
+      </c>
+      <c r="F25" s="27">
+        <v>380000</v>
+      </c>
+      <c r="G25" s="27">
+        <v>300000</v>
+      </c>
+      <c r="H25" s="19">
+        <f>B25-E25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" ref="I25:J27" si="8">C25-F25</f>
+        <v>64000</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="8"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="26">
+        <v>2270000</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1620000</v>
+      </c>
+      <c r="D26" s="26">
+        <v>1444000</v>
+      </c>
+      <c r="E26" s="27">
+        <v>2270000</v>
+      </c>
+      <c r="F26" s="27">
+        <v>1930000</v>
+      </c>
+      <c r="G26" s="27">
+        <v>1780000</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" ref="H26:H27" si="9">B26-E26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <f t="shared" si="8"/>
+        <v>-310000</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="8"/>
+        <v>-336000</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="18">
-        <f t="shared" si="1"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C24" s="18">
-        <f t="shared" si="4"/>
-        <v>1.04</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" si="5"/>
-        <v>0.96</v>
-      </c>
-      <c r="E24" s="20">
+      <c r="B27" s="26">
         <v>1150000</v>
       </c>
-      <c r="F24" s="20">
+      <c r="C27" s="26">
+        <v>1220000</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1127000</v>
+      </c>
+      <c r="E27" s="27">
+        <v>1150000</v>
+      </c>
+      <c r="F27" s="27">
         <v>1040000</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G27" s="27">
         <v>960000</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A24,traderes!$A$77:$A$99,0),2)</f>
-        <v>1040000</v>
-      </c>
-      <c r="J24" s="20">
-        <f>INDEX(traderes!$A$77:$C$99,MATCH(investmentCosts!A24,traderes!$A$77:$A$99,0),3)</f>
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="AH26" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="6" t="s">
+      <c r="H27" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <f t="shared" si="8"/>
+        <v>180000</v>
+      </c>
+      <c r="J27" s="19">
+        <f t="shared" si="8"/>
+        <v>167000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="C29" s="6">
-        <v>50000</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0.309</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="6">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="C30" s="6">
-        <v>27800</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0.61</v>
-      </c>
+        <v>0.309</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="K30">
-        <f>8760</f>
-        <v>8760</v>
-      </c>
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="6">
         <v>4.2</v>
       </c>
       <c r="C31" s="6">
-        <v>27800</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0.53</v>
-      </c>
+        <v>0.61</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="J31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" t="s">
-        <v>72</v>
+      <c r="K31">
+        <f>8760</f>
+        <v>8760</v>
       </c>
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="6">
         <v>4.2</v>
       </c>
       <c r="C32" s="6">
-        <v>27800</v>
-      </c>
-      <c r="D32" s="6">
         <v>0.53</v>
       </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="J32">
-        <f>0.17*K30</f>
-        <v>1489.2</v>
-      </c>
-      <c r="K32">
-        <f>G22/J32</f>
-        <v>201.45044319097502</v>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B33" s="6">
-        <v>21</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>4.2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.53</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
       <c r="J33">
-        <f>0.5*K30</f>
-        <v>4380</v>
+        <f>0.17*K31</f>
+        <v>1489.2</v>
       </c>
       <c r="K33">
-        <f>G23/J33</f>
-        <v>406.39269406392697</v>
+        <f>G25/J33</f>
+        <v>201.45044319097502</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6">
-        <v>13450</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
       <c r="J34">
-        <f>0.4*K30</f>
-        <v>3504</v>
+        <f>0.5*K31</f>
+        <v>4380</v>
       </c>
       <c r="K34">
-        <f>G24/J34</f>
-        <v>273.97260273972603</v>
+        <f>G26/J34</f>
+        <v>406.39269406392697</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
       <c r="C35" s="6">
-        <v>33550</v>
+        <v>1</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="J35">
+        <f>0.4*K31</f>
+        <v>3504</v>
+      </c>
+      <c r="K35">
+        <f>G27/J35</f>
+        <v>273.97260273972603</v>
+      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>14950</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37" s="6">
-        <v>100000</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0.28499999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="6">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="6">
-        <v>7745</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.43</v>
-      </c>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="C39" s="6">
-        <v>7250</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6">
-        <v>36053</v>
-      </c>
-      <c r="D40" s="6">
         <v>1</v>
       </c>
+      <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6">
-        <v>1.35</v>
+        <v>3</v>
       </c>
       <c r="C41" s="6">
-        <v>12600</v>
-      </c>
-      <c r="D41" s="6">
         <v>1</v>
       </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B43" s="6">
         <v>1.8</v>
       </c>
-      <c r="C42" s="6">
-        <v>7800</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C43" s="6">
         <v>0.9</v>
       </c>
-      <c r="E42" s="6">
+      <c r="D43" s="6">
         <v>5</v>
       </c>
-      <c r="F42" s="6">
+      <c r="E43" s="6">
         <v>0.92</v>
       </c>
-      <c r="G42" s="6">
+      <c r="F43" s="6">
         <v>0.92</v>
       </c>
-      <c r="H42" s="6">
+      <c r="G43" s="6">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6">
-        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="6">
-        <v>2.7</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B44" s="6"/>
       <c r="C44" s="6">
-        <v>30000</v>
-      </c>
-      <c r="D44" s="6">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="6">
-        <f>B44</f>
         <v>2.7</v>
       </c>
       <c r="C45" s="6">
-        <v>11250</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="6">
-        <v>1.5</v>
+        <f>B45</f>
+        <v>2.7</v>
       </c>
       <c r="C46" s="6">
-        <v>8700</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B48" s="6">
         <v>0</v>
       </c>
-      <c r="C47" s="6">
-        <v>7000</v>
-      </c>
-      <c r="D47" s="6">
+      <c r="C48" s="6">
         <v>0.74</v>
       </c>
     </row>
@@ -8447,6 +8711,197 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="str">
+        <f>[1]LoadShedders!A1</f>
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
+        <f>[1]LoadShedders!B1</f>
+        <v>VOLL</v>
+      </c>
+      <c r="C1" t="str">
+        <f>[1]LoadShedders!C1</f>
+        <v>TimeSeriesFile</v>
+      </c>
+      <c r="D1" t="str">
+        <f>[1]LoadShedders!D1</f>
+        <v>Shedder_capacity</v>
+      </c>
+      <c r="F1" t="e">
+        <f>[1]LoadShedders!F1</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="str">
+        <f>[1]LoadShedders!A2</f>
+        <v>base</v>
+      </c>
+      <c r="B2">
+        <f>[1]LoadShedders!B2</f>
+        <v>4000</v>
+      </c>
+      <c r="C2" t="str">
+        <f>[1]LoadShedders!C2</f>
+        <v>amiris-config/data/load.csv</v>
+      </c>
+      <c r="D2" t="e">
+        <f>[1]LoadShedders!D2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>[1]LoadShedders!E2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" t="e">
+        <f>[1]LoadShedders!F2</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="str">
+        <f>[1]LoadShedders!A3</f>
+        <v>high</v>
+      </c>
+      <c r="B3">
+        <f>[1]LoadShedders!B3</f>
+        <v>2000</v>
+      </c>
+      <c r="C3" t="str">
+        <f>[1]LoadShedders!C3</f>
+        <v>amiris-config/data/LS_high.csv</v>
+      </c>
+      <c r="D3" t="e">
+        <f>[1]LoadShedders!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" t="e">
+        <f>[1]LoadShedders!E3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" t="e">
+        <f>[1]LoadShedders!F3</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="str">
+        <f>[1]LoadShedders!A4</f>
+        <v>low</v>
+      </c>
+      <c r="B4">
+        <f>[1]LoadShedders!B4</f>
+        <v>500</v>
+      </c>
+      <c r="C4" t="str">
+        <f>[1]LoadShedders!C4</f>
+        <v>amiris-config/data/LS_low.csv</v>
+      </c>
+      <c r="D4" t="e">
+        <f>[1]LoadShedders!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>[1]LoadShedders!E4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" t="e">
+        <f>[1]LoadShedders!F4</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="str">
+        <f>[1]LoadShedders!A5</f>
+        <v>hydrogen_low</v>
+      </c>
+      <c r="B5">
+        <f>[1]LoadShedders!B5</f>
+        <v>40</v>
+      </c>
+      <c r="C5" t="str">
+        <f>[1]LoadShedders!C5</f>
+        <v>amiris-config/data/LS_hydrogen_low.csv</v>
+      </c>
+      <c r="D5">
+        <f>[1]LoadShedders!D5</f>
+        <v>251847372</v>
+      </c>
+      <c r="E5" t="e">
+        <f>[1]LoadShedders!E5</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" t="e">
+        <f>[1]LoadShedders!F5</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="str">
+        <f>[1]LoadShedders!A6</f>
+        <v>hydrogen_high</v>
+      </c>
+      <c r="B6">
+        <f>[1]LoadShedders!B6</f>
+        <v>60</v>
+      </c>
+      <c r="C6" t="str">
+        <f>[1]LoadShedders!C6</f>
+        <v>amiris-config/data/LS_hydrogen_high.csv</v>
+      </c>
+      <c r="D6">
+        <f>[1]LoadShedders!D6</f>
+        <v>107934587</v>
+      </c>
+      <c r="E6" t="e">
+        <f>[1]LoadShedders!E6</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" t="e">
+        <f>[1]LoadShedders!F6</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EFBB4-B33A-4767-8E25-52F1EB2A92EE}">
   <dimension ref="A1:X100"/>
   <sheetViews>
@@ -8469,178 +8924,178 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
-      </c>
-      <c r="N1" s="25">
+        <v>182</v>
+      </c>
+      <c r="N1" s="22">
         <v>3.6</v>
       </c>
       <c r="O1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>26.81</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>26.81</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="26">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="23">
         <v>2025</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="23">
         <v>2030</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="23">
         <v>2040</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="23">
         <v>2050</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="23">
         <v>2025</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="23">
         <v>2030</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="23">
         <v>2040</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="23">
         <v>2050</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>74.27</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>45.07</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="F3" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="23">
         <v>40</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <v>78</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="23">
         <v>123</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="23">
         <v>168</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="26">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q3" s="23">
         <v>40</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="23">
         <v>70</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="23">
         <v>90</v>
       </c>
-      <c r="T3" s="26" t="s">
-        <v>174</v>
+      <c r="T3" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>8.93</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>8.93</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="H4" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>1.97</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>1.92</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="23">
         <v>1.87</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="21">
         <f>H4*traderes!$N$1</f>
         <v>8.2799999999999994</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="21">
         <f>I4*traderes!$N$1</f>
         <v>7.0919999999999996</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="21">
         <f>J4*traderes!$N$1</f>
         <v>6.9119999999999999</v>
       </c>
-      <c r="O4" s="24">
+      <c r="O4" s="21">
         <f>K4*traderes!$N$1</f>
         <v>6.7320000000000002</v>
       </c>
-      <c r="P4" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q4" s="26">
+      <c r="P4" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="23">
         <v>2.48</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="23">
         <v>2.41</v>
       </c>
-      <c r="T4" s="26" t="s">
-        <v>174</v>
+      <c r="T4" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U4">
         <f>Q4*traderes!$N$1</f>
@@ -8661,7 +9116,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>6.48</v>
@@ -8669,55 +9124,55 @@
       <c r="C5">
         <v>6.48</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="E5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="23">
         <v>12.87</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>10.09</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>9.61</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="23">
         <v>9.1199999999999992</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="21">
         <f>H5*traderes!$N$1</f>
         <v>46.332000000000001</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <f>I5*traderes!$N$1</f>
         <v>36.323999999999998</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="21">
         <f>J5*traderes!$N$1</f>
         <v>34.595999999999997</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="21">
         <f>K5*traderes!$N$1</f>
         <v>32.832000000000001</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q5" s="26">
+      <c r="P5" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q5" s="23">
         <v>12.87</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="23">
         <v>13.78</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="23">
         <v>15.41</v>
       </c>
-      <c r="T5" s="26" t="s">
-        <v>174</v>
+      <c r="T5" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U5">
         <f>Q5*traderes!$N$1</f>
@@ -8746,55 +9201,55 @@
       <c r="C6">
         <v>1.69</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="E6" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="23">
         <v>5.57</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>4.0199999999999996</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="23">
         <v>4.07</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="23">
         <v>4.07</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="21">
         <f>H6*traderes!$N$1</f>
         <v>20.052000000000003</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <f>I6*traderes!$N$1</f>
         <v>14.472</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="21">
         <f>J6*traderes!$N$1</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="21">
         <f>K6*traderes!$N$1</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="P6" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q6" s="26">
+      <c r="P6" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="23">
         <v>5.57</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="23">
         <v>6.23</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="23">
         <v>6.9</v>
       </c>
-      <c r="T6" s="26" t="s">
-        <v>174</v>
+      <c r="T6" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U6">
         <f>Q6*traderes!$N$1</f>
@@ -8805,7 +9260,7 @@
         <v>22.428000000000001</v>
       </c>
       <c r="W6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="X6" t="e">
         <f>T6*traderes!$N$1</f>
@@ -8814,63 +9269,63 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>40.68</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>40.68</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="E7" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="23">
         <v>23.89</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>20.74</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="23">
         <v>16.940000000000001</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="23">
         <v>13.97</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="21">
         <f>H7*traderes!$N$1</f>
         <v>86.004000000000005</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <f>I7*traderes!$N$1</f>
         <v>74.664000000000001</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="21">
         <f>J7*traderes!$N$1</f>
         <v>60.984000000000009</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="21">
         <f>K7*traderes!$N$1</f>
         <v>50.292000000000002</v>
       </c>
-      <c r="P7" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q7" s="26">
+      <c r="P7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q7" s="23">
         <v>23.89</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="23">
         <v>20.74</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="23">
         <v>16.940000000000001</v>
       </c>
-      <c r="T7" s="26" t="s">
-        <v>174</v>
+      <c r="T7" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U7">
         <f>Q7*traderes!$N$1</f>
@@ -8891,7 +9346,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>74.66</v>
@@ -8899,55 +9354,55 @@
       <c r="C8">
         <v>50.29</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="E8" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="23">
         <v>26.97</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>28.96</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="23">
         <v>23.35</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="23">
         <v>18.09</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <f>H8*traderes!$N$1</f>
         <v>97.091999999999999</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f>I8*traderes!$N$1</f>
         <v>104.256</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="21">
         <f>J8*traderes!$N$1</f>
         <v>84.06</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="21">
         <f>K8*traderes!$N$1</f>
         <v>65.123999999999995</v>
       </c>
-      <c r="P8" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q8" s="26">
+      <c r="P8" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" s="23">
         <v>26.97</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="23">
         <v>28.09</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="23">
         <v>23.35</v>
       </c>
-      <c r="T8" s="26" t="s">
-        <v>174</v>
+      <c r="T8" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U8">
         <f>Q8*traderes!$N$1</f>
@@ -8968,7 +9423,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -8976,55 +9431,55 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="26">
+      <c r="E9" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" s="23">
         <v>20.63</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="23">
         <v>16.079999999999998</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="23">
         <v>12.52</v>
       </c>
-      <c r="L9" s="24" t="e">
+      <c r="L9" s="21" t="e">
         <f>H9*traderes!$N$1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <f>I9*traderes!$N$1</f>
         <v>74.268000000000001</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="21">
         <f>J9*traderes!$N$1</f>
         <v>57.887999999999998</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="21">
         <f>K9*traderes!$N$1</f>
         <v>45.072000000000003</v>
       </c>
-      <c r="P9" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q9" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="26">
+      <c r="P9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="R9" s="23">
         <v>20.25</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="23">
         <v>16.079999999999998</v>
       </c>
-      <c r="T9" s="26" t="s">
-        <v>174</v>
+      <c r="T9" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U9" t="e">
         <f>Q9*traderes!$N$1</f>
@@ -9045,57 +9500,57 @@
     </row>
     <row r="10" spans="1:24">
       <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="26">
+        <v>109</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="23">
         <v>19.05</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>17.11</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="23">
         <v>17.55</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="23">
         <v>17.91</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="21">
         <f>H10*traderes!$N$1</f>
         <v>68.58</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <f>I10*traderes!$N$1</f>
         <v>61.595999999999997</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="21">
         <f>J10*traderes!$N$1</f>
         <v>63.180000000000007</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="21">
         <f>K10*traderes!$N$1</f>
         <v>64.475999999999999</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q10" s="26">
+      <c r="P10" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="23">
         <v>19.05</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="23">
         <v>20.25</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="23">
         <v>16.079999999999998</v>
       </c>
-      <c r="T10" s="26" t="s">
-        <v>174</v>
+      <c r="T10" s="23" t="s">
+        <v>167</v>
       </c>
       <c r="U10">
         <f>Q10*traderes!$N$1</f>
@@ -9116,7 +9571,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>0.9</v>
@@ -9124,7 +9579,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -9132,7 +9587,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13">
         <v>0.9</v>
@@ -9140,7 +9595,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -9148,7 +9603,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15">
         <v>0.309</v>
@@ -9156,7 +9611,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0.309</v>
@@ -9164,7 +9619,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -9172,7 +9627,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -9180,7 +9635,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -9188,7 +9643,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>0.4</v>
@@ -9196,7 +9651,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>0.35</v>
@@ -9204,7 +9659,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>0.33700000000000002</v>
@@ -9212,7 +9667,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -9220,7 +9675,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -9228,7 +9683,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -9236,7 +9691,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -9244,7 +9699,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -9252,7 +9707,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -9260,7 +9715,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -9268,7 +9723,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -9276,7 +9731,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -9284,7 +9739,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -9292,7 +9747,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C33">
         <v>0.7</v>
@@ -9300,51 +9755,51 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" t="s">
         <v>114</v>
       </c>
-      <c r="B35" t="s">
+      <c r="I35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="J35" t="s">
         <v>116</v>
       </c>
-      <c r="E35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="K35" t="s">
         <v>117</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>118</v>
       </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
         <v>119</v>
-      </c>
-      <c r="J35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" t="s">
-        <v>122</v>
-      </c>
-      <c r="M35" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D36" t="str">
         <f>RIGHT(C36,LEN(C36)-3)</f>
@@ -9359,7 +9814,7 @@
         <v>2030</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J36">
         <v>20000</v>
@@ -9373,13 +9828,13 @@
     </row>
     <row r="37" spans="1:13" ht="15">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ref="D37:D74" si="0">RIGHT(C37,LEN(C37)-3)</f>
@@ -9394,7 +9849,7 @@
         <v>2030</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -9402,13 +9857,13 @@
     </row>
     <row r="38" spans="1:13" ht="15">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -9423,7 +9878,7 @@
         <v>2030</v>
       </c>
       <c r="G38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J38">
         <v>7000</v>
@@ -9437,13 +9892,13 @@
     </row>
     <row r="39" spans="1:13" ht="15">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -9458,7 +9913,7 @@
         <v>2030</v>
       </c>
       <c r="G39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I39">
         <v>15430</v>
@@ -9469,13 +9924,13 @@
     </row>
     <row r="40" spans="1:13" ht="15">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D40" t="str">
         <f>RIGHT(C40,LEN(C40)-3)</f>
@@ -9490,7 +9945,7 @@
         <v>2050</v>
       </c>
       <c r="G40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -9498,13 +9953,13 @@
     </row>
     <row r="41" spans="1:13" ht="15">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -9519,7 +9974,7 @@
         <v>2030</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -9527,13 +9982,13 @@
     </row>
     <row r="42" spans="1:13" ht="15">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -9548,7 +10003,7 @@
         <v>2050</v>
       </c>
       <c r="G42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -9556,13 +10011,13 @@
     </row>
     <row r="43" spans="1:13" ht="15">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -9577,7 +10032,7 @@
         <v>2030</v>
       </c>
       <c r="G43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I43">
         <v>2294.0239999999999</v>
@@ -9588,13 +10043,13 @@
     </row>
     <row r="44" spans="1:13" ht="15">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -9609,7 +10064,7 @@
         <v>2030</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I44">
         <v>2294.0239999999999</v>
@@ -9620,13 +10075,13 @@
     </row>
     <row r="45" spans="1:13" ht="15">
       <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" t="s">
-        <v>134</v>
-      </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -9641,7 +10096,7 @@
         <v>2030</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I45">
         <v>22940.240000000002</v>
@@ -9652,13 +10107,13 @@
     </row>
     <row r="46" spans="1:13" ht="15">
       <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" t="s">
         <v>130</v>
       </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -9673,7 +10128,7 @@
         <v>2030</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I46">
         <v>22940.240000000002</v>
@@ -9684,13 +10139,13 @@
     </row>
     <row r="47" spans="1:13" ht="15">
       <c r="A47" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="B47" t="s">
-        <v>134</v>
-      </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -9705,7 +10160,7 @@
         <v>2030</v>
       </c>
       <c r="G47" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I47">
         <v>6882.0720000000001</v>
@@ -9716,13 +10171,13 @@
     </row>
     <row r="48" spans="1:13" ht="15">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -9737,7 +10192,7 @@
         <v>2030</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -9748,13 +10203,13 @@
     </row>
     <row r="49" spans="1:13" ht="15">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D49" t="str">
         <f>RIGHT(C49,LEN(C49)-3)</f>
@@ -9769,7 +10224,7 @@
         <v>2050</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -9780,13 +10235,13 @@
     </row>
     <row r="50" spans="1:13" ht="15">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -9801,7 +10256,7 @@
         <v>2030</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H50">
         <v>8.5810999999999998E-2</v>
@@ -9824,13 +10279,13 @@
     </row>
     <row r="51" spans="1:13" ht="15">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -9845,7 +10300,7 @@
         <v>2050</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H51">
         <v>8.0586000000000005E-2</v>
@@ -9865,13 +10320,13 @@
     </row>
     <row r="52" spans="1:13" ht="15">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -9886,7 +10341,7 @@
         <v>2030</v>
       </c>
       <c r="G52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>8.5810999999999998E-2</v>
@@ -9909,13 +10364,13 @@
     </row>
     <row r="53" spans="1:13" ht="15">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -9930,7 +10385,7 @@
         <v>2050</v>
       </c>
       <c r="G53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H53">
         <v>8.5810999999999998E-2</v>
@@ -9950,13 +10405,13 @@
     </row>
     <row r="54" spans="1:13" ht="15">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -9971,7 +10426,7 @@
         <v>2030</v>
       </c>
       <c r="G54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I54">
         <v>460</v>
@@ -9985,13 +10440,13 @@
     </row>
     <row r="55" spans="1:13" ht="15">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -10006,7 +10461,7 @@
         <v>2030</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J55">
         <v>8700</v>
@@ -10020,13 +10475,13 @@
     </row>
     <row r="56" spans="1:13" ht="15">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -10041,7 +10496,7 @@
         <v>2030</v>
       </c>
       <c r="G56" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H56">
         <v>8.5810999999999998E-2</v>
@@ -10064,13 +10519,13 @@
     </row>
     <row r="57" spans="1:13" ht="15">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -10085,7 +10540,7 @@
         <v>2050</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H57">
         <v>7.3499999999999996E-2</v>
@@ -10105,13 +10560,13 @@
     </row>
     <row r="58" spans="1:13" ht="15">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -10126,7 +10581,7 @@
         <v>2030</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H58">
         <v>8.5810999999999998E-2</v>
@@ -10149,13 +10604,13 @@
     </row>
     <row r="59" spans="1:13" ht="15">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -10170,7 +10625,7 @@
         <v>2050</v>
       </c>
       <c r="G59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H59">
         <v>8.5810999999999998E-2</v>
@@ -10190,13 +10645,13 @@
     </row>
     <row r="60" spans="1:13" ht="15">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -10211,7 +10666,7 @@
         <v>2030</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H60">
         <v>7.5009000000000006E-2</v>
@@ -10234,13 +10689,13 @@
     </row>
     <row r="61" spans="1:13" ht="15">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -10255,7 +10710,7 @@
         <v>2050</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H61">
         <v>7.5009000000000006E-2</v>
@@ -10275,13 +10730,13 @@
     </row>
     <row r="62" spans="1:13" ht="15">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -10296,7 +10751,7 @@
         <v>2030</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H62">
         <v>7.5009000000000006E-2</v>
@@ -10316,13 +10771,13 @@
     </row>
     <row r="63" spans="1:13" ht="15">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -10337,7 +10792,7 @@
         <v>2050</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H63">
         <v>7.5009000000000006E-2</v>
@@ -10357,13 +10812,13 @@
     </row>
     <row r="64" spans="1:13" ht="15">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -10378,7 +10833,7 @@
         <v>2030</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H64">
         <v>8.0586000000000005E-2</v>
@@ -10401,13 +10856,13 @@
     </row>
     <row r="65" spans="1:13" ht="15">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -10422,7 +10877,7 @@
         <v>2050</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H65">
         <v>8.0586000000000005E-2</v>
@@ -10442,13 +10897,13 @@
     </row>
     <row r="66" spans="1:13" ht="15">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -10463,7 +10918,7 @@
         <v>2030</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H66">
         <v>8.0586000000000005E-2</v>
@@ -10486,13 +10941,13 @@
     </row>
     <row r="67" spans="1:13" ht="15">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="0"/>
@@ -10507,7 +10962,7 @@
         <v>2050</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H67">
         <v>8.0586000000000005E-2</v>
@@ -10527,13 +10982,13 @@
     </row>
     <row r="68" spans="1:13" ht="15">
       <c r="A68" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="0"/>
@@ -10548,7 +11003,7 @@
         <v>2030</v>
       </c>
       <c r="G68" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -10556,13 +11011,13 @@
     </row>
     <row r="69" spans="1:13" ht="15">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="0"/>
@@ -10577,7 +11032,7 @@
         <v>2030</v>
       </c>
       <c r="G69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I69">
         <v>35174.368000000002</v>
@@ -10588,13 +11043,13 @@
     </row>
     <row r="70" spans="1:13" ht="15">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="0"/>
@@ -10609,7 +11064,7 @@
         <v>2030</v>
       </c>
       <c r="G70" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I70">
         <v>1773.915272638189</v>
@@ -10620,13 +11075,13 @@
     </row>
     <row r="71" spans="1:13" ht="15">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="0"/>
@@ -10641,7 +11096,7 @@
         <v>2030</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I71">
         <v>17739.15272638189</v>
@@ -10652,13 +11107,13 @@
     </row>
     <row r="72" spans="1:13" ht="15">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="0"/>
@@ -10673,7 +11128,7 @@
         <v>2030</v>
       </c>
       <c r="G72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I72">
         <v>5321.745817914566</v>
@@ -10684,13 +11139,13 @@
     </row>
     <row r="73" spans="1:13" ht="15">
       <c r="A73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>138</v>
-      </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>142</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="0"/>
@@ -10705,7 +11160,7 @@
         <v>2030</v>
       </c>
       <c r="G73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H73">
         <v>8.5810999999999998E-2</v>
@@ -10728,13 +11183,13 @@
     </row>
     <row r="74" spans="1:13" ht="15">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="0"/>
@@ -10749,7 +11204,7 @@
         <v>2030</v>
       </c>
       <c r="G74" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -10768,7 +11223,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -10784,7 +11239,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B80">
         <v>2400000</v>
@@ -10795,7 +11250,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10808,12 +11263,12 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B84">
         <v>835000</v>
@@ -10821,7 +11276,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B85">
         <v>1000000</v>
@@ -10848,7 +11303,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B88">
         <v>8600000</v>
@@ -10859,27 +11314,27 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10895,7 +11350,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B95">
         <v>840000</v>
@@ -10941,7 +11396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
   <dimension ref="A3:D25"/>
   <sheetViews>
@@ -10959,10 +11414,10 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10976,17 +11431,17 @@
         <v>2050</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>284000</v>
@@ -11000,7 +11455,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>2400000</v>
@@ -11014,12 +11469,12 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>350000</v>
@@ -11030,12 +11485,12 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>835000</v>
@@ -11046,7 +11501,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12">
         <v>1000000</v>
@@ -11057,7 +11512,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B13">
         <v>435000</v>
@@ -11082,7 +11537,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>8600000</v>
@@ -11096,32 +11551,32 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21">
         <v>380000</v>
@@ -11135,7 +11590,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B22">
         <v>840000</v>
@@ -11149,7 +11604,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B23">
         <v>1800000</v>
@@ -11163,7 +11618,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B24">
         <v>1040000</v>
@@ -11177,7 +11632,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>25904450</v>
@@ -11194,7 +11649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12919C5-07FE-4AE2-AA9E-FE62D2303B6B}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
@@ -11217,13 +11672,13 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -11238,13 +11693,13 @@
         <v>2050</v>
       </c>
       <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>74</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12201,7 +12656,7 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="L28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="11:11">

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A28C481-C7F0-46FF-9F2D-103E5026093D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A94BE25-2B93-411A-91DE-DC29E820A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSTimportantdata" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="195">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -648,6 +648,12 @@
   <si>
     <t>considering natural gas price</t>
   </si>
+  <si>
+    <t>Fixed costs</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -659,9 +665,9 @@
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;€&quot;\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,6 +813,13 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -974,7 +987,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1017,9 +1030,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -4226,21 +4244,15 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>WTG_offshore</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="B1" t="str">
             <v>Technology</v>
@@ -4298,7 +4310,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1">
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
             <v>traderes technology</v>
@@ -4783,10 +4795,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1">
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4852,7 +4864,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14" refreshError="1">
+      <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4870,8 +4882,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1">
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4902,65 +4914,76 @@
             <v>high</v>
           </cell>
           <cell r="B3">
-            <v>2000</v>
+            <v>1500</v>
           </cell>
           <cell r="C3" t="str">
             <v>amiris-config/data/LS_high.csv</v>
           </cell>
+          <cell r="F3" t="str">
+            <v>industrial</v>
+          </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>low</v>
-          </cell>
           <cell r="B4">
             <v>500</v>
           </cell>
-          <cell r="C4" t="str">
-            <v>amiris-config/data/LS_low.csv</v>
+          <cell r="F4" t="str">
+            <v>household</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>hydrogen_low</v>
-          </cell>
-          <cell r="B5">
-            <v>40</v>
+            <v>low</v>
           </cell>
           <cell r="C5" t="str">
-            <v>amiris-config/data/LS_hydrogen_low.csv</v>
-          </cell>
-          <cell r="D5">
-            <v>251847372</v>
+            <v>amiris-config/data/LS_low.csv</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>commerce</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
+            <v>hydrogen_low</v>
+          </cell>
+          <cell r="B6">
+            <v>40</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>amiris-config/data/LS_hydrogen_low.csv</v>
+          </cell>
+          <cell r="D6">
+            <v>251847372</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
             <v>hydrogen_high</v>
           </cell>
-          <cell r="B6">
+          <cell r="B7">
             <v>60</v>
           </cell>
-          <cell r="C6" t="str">
+          <cell r="C7" t="str">
             <v>amiris-config/data/LS_hydrogen_high.csv</v>
           </cell>
-          <cell r="D6">
+          <cell r="D7">
             <v>107934587</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5467,7 +5490,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -7576,11 +7599,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8223,16 +8246,16 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="30">
         <v>878000</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="30">
         <v>730500</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="30">
         <v>519000</v>
       </c>
       <c r="E23" s="28"/>
@@ -8382,9 +8405,7 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>48</v>
       </c>
@@ -8702,6 +8723,307 @@
       </c>
       <c r="C48" s="6">
         <v>0.74</v>
+      </c>
+      <c r="D48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2030</v>
+      </c>
+      <c r="D50" s="6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D53" s="6">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D54" s="6">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6">
+        <v>27800</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6">
+        <v>32000</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D57" s="6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6">
+        <v>13450</v>
+      </c>
+      <c r="D58" s="6">
+        <v>13425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6">
+        <v>14950</v>
+      </c>
+      <c r="D59" s="6">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6">
+        <v>7745</v>
+      </c>
+      <c r="D61" s="6">
+        <v>7423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="31">
+        <v>61528.160000000003</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="31">
+        <v>61528.160000000003</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="31">
+        <v>8575</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="31">
+        <v>111166.3</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="6">
+        <v>16000</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6">
+        <f>(C74+C73)/2</f>
+        <v>10300</v>
+      </c>
+      <c r="D72" s="6">
+        <f>(D74+D73)/2</f>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6">
+        <v>12300</v>
+      </c>
+      <c r="D73" s="6">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6">
+        <v>8300</v>
+      </c>
+      <c r="D74" s="6">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6">
+        <v>30500</v>
+      </c>
+      <c r="D75" s="6">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6">
+        <v>14700</v>
+      </c>
+      <c r="D76" s="6">
+        <v>12900</v>
       </c>
     </row>
   </sheetData>
@@ -8715,14 +9037,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33.453125" customWidth="1"/>
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -8742,9 +9065,9 @@
         <f>[1]LoadShedders!D1</f>
         <v>Shedder_capacity</v>
       </c>
-      <c r="F1" t="e">
+      <c r="F1">
         <f>[1]LoadShedders!F1</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8760,16 +9083,16 @@
         <f>[1]LoadShedders!C2</f>
         <v>amiris-config/data/load.csv</v>
       </c>
-      <c r="D2" t="e">
+      <c r="D2">
         <f>[1]LoadShedders!D2</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" t="e">
-        <f>[1]LoadShedders!E2</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>[1]LoadShedders!F2</f>
+        <v>0</v>
       </c>
       <c r="F2" t="e">
-        <f>[1]LoadShedders!F2</f>
+        <f>[1]LoadShedders!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -8780,28 +9103,28 @@
       </c>
       <c r="B3">
         <f>[1]LoadShedders!B3</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C3" t="str">
         <f>[1]LoadShedders!C3</f>
         <v>amiris-config/data/LS_high.csv</v>
       </c>
-      <c r="D3" t="e">
+      <c r="D3">
         <f>[1]LoadShedders!D3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E3" t="e">
-        <f>[1]LoadShedders!E3</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>[1]LoadShedders!F3</f>
+        <v>industrial</v>
       </c>
       <c r="F3" t="e">
-        <f>[1]LoadShedders!F3</f>
+        <f>[1]LoadShedders!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="str">
-        <f>[1]LoadShedders!A4</f>
+        <f>[1]LoadShedders!A5</f>
         <v>low</v>
       </c>
       <c r="B4">
@@ -8809,71 +9132,71 @@
         <v>500</v>
       </c>
       <c r="C4" t="str">
-        <f>[1]LoadShedders!C4</f>
+        <f>[1]LoadShedders!C5</f>
         <v>amiris-config/data/LS_low.csv</v>
       </c>
-      <c r="D4" t="e">
-        <f>[1]LoadShedders!D4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>[1]LoadShedders!E4</f>
-        <v>#REF!</v>
+      <c r="D4">
+        <f>[1]LoadShedders!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f>[1]LoadShedders!F4</f>
+        <v>household</v>
       </c>
       <c r="F4" t="e">
-        <f>[1]LoadShedders!F4</f>
+        <f>[1]LoadShedders!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="str">
-        <f>[1]LoadShedders!A5</f>
+        <f>[1]LoadShedders!A6</f>
         <v>hydrogen_low</v>
       </c>
       <c r="B5">
-        <f>[1]LoadShedders!B5</f>
+        <f>[1]LoadShedders!B6</f>
         <v>40</v>
       </c>
       <c r="C5" t="str">
-        <f>[1]LoadShedders!C5</f>
+        <f>[1]LoadShedders!C6</f>
         <v>amiris-config/data/LS_hydrogen_low.csv</v>
       </c>
       <c r="D5">
-        <f>[1]LoadShedders!D5</f>
+        <f>[1]LoadShedders!D6</f>
         <v>251847372</v>
       </c>
-      <c r="E5" t="e">
-        <f>[1]LoadShedders!E5</f>
-        <v>#REF!</v>
+      <c r="E5" t="str">
+        <f>[1]LoadShedders!F5</f>
+        <v>commerce</v>
       </c>
       <c r="F5" t="e">
-        <f>[1]LoadShedders!F5</f>
+        <f>[1]LoadShedders!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="str">
-        <f>[1]LoadShedders!A6</f>
+        <f>[1]LoadShedders!A7</f>
         <v>hydrogen_high</v>
       </c>
       <c r="B6">
-        <f>[1]LoadShedders!B6</f>
+        <f>[1]LoadShedders!B7</f>
         <v>60</v>
       </c>
       <c r="C6" t="str">
-        <f>[1]LoadShedders!C6</f>
+        <f>[1]LoadShedders!C7</f>
         <v>amiris-config/data/LS_hydrogen_high.csv</v>
       </c>
       <c r="D6">
-        <f>[1]LoadShedders!D6</f>
+        <f>[1]LoadShedders!D7</f>
         <v>107934587</v>
       </c>
-      <c r="E6" t="e">
+      <c r="E6">
         <f>[1]LoadShedders!E6</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F6" t="e">
-        <f>[1]LoadShedders!F6</f>
+        <f>[1]LoadShedders!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A94BE25-2B93-411A-91DE-DC29E820A2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C582F-4E5C-41C0-A19C-6B6CC458F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
-    <sheet name="MOSTimportantdata" sheetId="2" r:id="rId1"/>
-    <sheet name="capacityFactors" sheetId="4" r:id="rId2"/>
-    <sheet name="fuelprices" sheetId="1" r:id="rId3"/>
-    <sheet name="investmentCosts" sheetId="3" r:id="rId4"/>
-    <sheet name="loadshedders" sheetId="8" r:id="rId5"/>
+    <sheet name="Technology" sheetId="2" r:id="rId1"/>
+    <sheet name="fuelprices" sheetId="1" r:id="rId2"/>
+    <sheet name="investmentCosts" sheetId="3" r:id="rId3"/>
+    <sheet name="loadshedders" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
     <sheet name="traderes" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
-    <sheet name="minimum NPV" sheetId="5" r:id="rId8"/>
+    <sheet name="minimum NPV" sheetId="5" r:id="rId7"/>
+    <sheet name="capacityFactors" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="196">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -652,7 +652,10 @@
     <t>Fixed costs</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Large capacity</t>
+  </si>
+  <si>
+    <t>new - old 2020</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +823,12 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -987,7 +996,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1017,7 +1026,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1031,13 +1039,13 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -4924,8 +4932,14 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4" t="str">
+            <v>mid</v>
+          </cell>
           <cell r="B4">
             <v>500</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>amiris-config/data/LS_mid.csv</v>
           </cell>
           <cell r="F4" t="str">
             <v>household</v>
@@ -4934,6 +4948,9 @@
         <row r="5">
           <cell r="A5" t="str">
             <v>low</v>
+          </cell>
+          <cell r="B5">
+            <v>250</v>
           </cell>
           <cell r="C5" t="str">
             <v>amiris-config/data/LS_low.csv</v>
@@ -5490,7 +5507,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5927,10 +5944,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBFB2D1-923B-4526-A34E-3773942F3DC1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5956,6 +5976,9 @@
         <f>[1]CandidatePowerPlants!D1</f>
         <v>Realistic_capacity</v>
       </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="str">
@@ -5966,6 +5989,9 @@
         <f>[1]CandidatePowerPlants!D2</f>
         <v>100</v>
       </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="str">
@@ -5976,6 +6002,9 @@
         <f>[1]CandidatePowerPlants!D3</f>
         <v>500</v>
       </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" t="str">
@@ -5986,6 +6015,9 @@
         <f>[1]CandidatePowerPlants!D4</f>
         <v>500</v>
       </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="str">
@@ -5996,6 +6028,9 @@
         <f>[1]CandidatePowerPlants!D5</f>
         <v>350</v>
       </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="str">
@@ -6006,6 +6041,9 @@
         <f>[1]CandidatePowerPlants!D6</f>
         <v>250</v>
       </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="str">
@@ -6016,6 +6054,9 @@
         <f>[1]CandidatePowerPlants!D7</f>
         <v>300</v>
       </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="J9" s="5"/>
@@ -6675,7 +6716,7 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6683,7 +6724,7 @@
         <v>7</v>
       </c>
       <c r="D36">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -7061,98 +7102,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="9">
-        <v>16.7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="9">
-        <v>45</v>
-      </c>
-      <c r="C3" s="9">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9">
-        <v>53</v>
-      </c>
-      <c r="C4" s="9">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91ADA03-C099-48D6-AB3F-B988B7AFF0A3}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7175,12 +7128,12 @@
       <c r="D1" s="7">
         <v>2050</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -7195,16 +7148,16 @@
       <c r="D2">
         <v>82.5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>82.5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>82.5</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>82.5</v>
       </c>
     </row>
@@ -7221,16 +7174,16 @@
       <c r="D3">
         <v>50.29</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>86.844999999999999</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>74.66</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>50.29</v>
       </c>
     </row>
@@ -7244,14 +7197,14 @@
       <c r="D4">
         <v>168</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>0</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24">
         <v>200</v>
       </c>
     </row>
@@ -7268,16 +7221,16 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>15</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>15</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>15</v>
       </c>
     </row>
@@ -7288,14 +7241,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25">
+      <c r="H6" s="24"/>
+      <c r="I6" s="24">
         <v>1</v>
       </c>
     </row>
@@ -7312,16 +7265,16 @@
       <c r="D7">
         <v>6.73</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>10.8</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>7.0919999999999996</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>6.7320000000000002</v>
       </c>
     </row>
@@ -7338,16 +7291,16 @@
       <c r="D8">
         <v>79.69</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>21.175000000000001</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>40.68</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>79.69</v>
       </c>
     </row>
@@ -7364,16 +7317,16 @@
       <c r="D9">
         <v>64.48</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>74.965000000000003</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>65</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>80</v>
       </c>
     </row>
@@ -7390,16 +7343,16 @@
       <c r="D10">
         <v>32.83</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>46.44</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>36.323999999999998</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>32.832000000000001</v>
       </c>
     </row>
@@ -7416,16 +7369,16 @@
       <c r="D11">
         <v>6.48</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>6.48</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>6.48</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>6.48</v>
       </c>
     </row>
@@ -7442,16 +7395,16 @@
       <c r="D12">
         <v>46.996000000000002</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>16.716999999999999</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>26.81</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>46.996000000000002</v>
       </c>
     </row>
@@ -7468,16 +7421,16 @@
       <c r="D13">
         <v>14.65</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>13.4</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>14.65</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>42</v>
       </c>
     </row>
@@ -7494,16 +7447,16 @@
       <c r="D14">
         <v>1.69</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>1.69</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>1.69</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <v>1.69</v>
       </c>
     </row>
@@ -7520,16 +7473,16 @@
       <c r="D15">
         <v>14.148000000000001</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>4.5360000000000005</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>6.6960000000000006</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>14.148000000000001</v>
       </c>
     </row>
@@ -7546,16 +7499,16 @@
       <c r="D16">
         <v>7.5</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>7.5</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>7.5</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>7.5</v>
       </c>
     </row>
@@ -7572,24 +7525,24 @@
       <c r="D17">
         <v>35</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>45</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>45</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7597,20 +7550,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D48" sqref="D48"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.90625" customWidth="1"/>
     <col min="2" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="8" width="11.90625" customWidth="1"/>
+    <col min="5" max="7" width="11.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" customWidth="1"/>
     <col min="10" max="10" width="11.90625" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
@@ -7627,9 +7584,14 @@
       <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="29" t="s">
         <v>187</v>
       </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="O1" t="s">
         <v>57</v>
       </c>
@@ -7648,19 +7610,22 @@
       <c r="D2" s="6">
         <v>2050</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="29">
         <v>2020</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="29">
         <v>2030</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="29">
         <v>2050</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="29" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7668,29 +7633,29 @@
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>2040000</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>2040000</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27">
+      <c r="D3" s="25"/>
+      <c r="E3" s="30">
         <v>2040000</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="30">
         <v>2040000</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="19">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30">
         <f>B3-E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:J3" si="0">C3-F3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7702,29 +7667,29 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25">
         <v>2900000</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>2700000</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30">
         <v>2900000</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="30">
         <v>2700000</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="30">
         <f t="shared" ref="H4:H21" si="1">B4-E4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="30">
         <f t="shared" ref="I4:I21" si="2">C4-F4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="30">
         <f t="shared" ref="J4:J21" si="3">D4-G4</f>
         <v>0</v>
       </c>
@@ -7733,29 +7698,29 @@
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25">
         <v>830000</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>800000</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <v>830000</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="30">
         <v>800000</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7764,29 +7729,29 @@
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
         <v>1200000</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>1100000</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30">
         <v>1200000</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="30">
         <v>1100000</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7795,25 +7760,25 @@
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25">
         <v>1200000</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27">
+      <c r="D7" s="25"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30">
         <v>1200000</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="19">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7822,23 +7787,23 @@
       <c r="A8" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25">
         <v>2670000</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="19">
+      <c r="D8" s="25"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="30">
         <f t="shared" si="2"/>
         <v>2670000</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7847,25 +7812,25 @@
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>3845510</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="30">
         <v>3845510</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="19">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7874,25 +7839,25 @@
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25">
         <v>350000</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30">
         <v>350000</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7901,25 +7866,25 @@
       <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>343000</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="30">
         <v>343000</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="19">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7928,25 +7893,25 @@
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25">
         <v>800000</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30">
         <v>800000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7955,25 +7920,25 @@
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25">
         <v>730000</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30">
         <v>730000</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7982,25 +7947,25 @@
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25">
         <v>750000</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30">
         <v>750000</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8009,25 +7974,25 @@
       <c r="A15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25">
         <v>435000</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30">
         <v>435000</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8036,29 +8001,29 @@
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <v>2690000</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>2685000</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30">
         <v>2690000</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="30">
         <v>2685000</v>
       </c>
-      <c r="H16" s="19">
-        <f t="shared" si="1"/>
+      <c r="H16" s="30">
+        <f>B16-E16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8067,29 +8032,29 @@
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
         <v>2990000</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>2970000</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30">
         <v>2990000</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="30">
         <v>2970000</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8098,25 +8063,25 @@
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>3845510</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="30">
         <v>3845510</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="19">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8125,33 +8090,33 @@
       <c r="A19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>534000</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="25">
         <v>284000</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="25">
         <v>270000</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="30">
         <v>321000</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="30">
         <v>160000</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="30">
         <v>60000</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="30">
         <f t="shared" si="1"/>
         <v>213000</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="30">
         <f t="shared" si="2"/>
         <v>124000</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="30">
         <f t="shared" si="3"/>
         <v>210000</v>
       </c>
@@ -8160,29 +8125,29 @@
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>7940450</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <v>6000000</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27">
+      <c r="D20" s="25"/>
+      <c r="E20" s="30">
         <v>7940450</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="30">
         <v>4000000</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="19">
+      <c r="G20" s="30"/>
+      <c r="H20" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="30">
         <f t="shared" si="2"/>
         <v>2000000</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8191,29 +8156,29 @@
       <c r="A21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25">
         <v>435000</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>412000</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30">
         <v>435000</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="30">
         <v>412000</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8222,54 +8187,54 @@
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>2000000</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="30">
         <v>2000000</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="19">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30">
         <f t="shared" ref="H22" si="4">B22-E22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="30">
         <f t="shared" ref="I22" si="5">C22-F22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="30">
         <f t="shared" ref="J22" si="6">D22-G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="27">
         <v>878000</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="27">
         <v>730500</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="27">
         <v>519000</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="19">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30">
         <f>B23-E25</f>
         <v>291000</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="30">
         <f t="shared" ref="I23:J23" si="7">C23-F25</f>
         <v>350500</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="30">
         <f t="shared" si="7"/>
         <v>219000</v>
       </c>
@@ -8278,55 +8243,55 @@
       <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>1169000</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <v>1017000</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <v>688000</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="30">
         <v>2000000</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>587000</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <v>444000</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>350000</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="30">
         <v>587000</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="30">
         <v>380000</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="30">
         <v>300000</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="30">
         <f>B25-E25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="30">
         <f t="shared" ref="I25:J27" si="8">C25-F25</f>
         <v>64000</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="30">
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
@@ -8335,33 +8300,33 @@
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>2270000</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <v>1620000</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>1444000</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="30">
         <v>2270000</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="30">
         <v>1930000</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="30">
         <v>1780000</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="30">
         <f t="shared" ref="H26:H27" si="9">B26-E26</f>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="30">
         <f t="shared" si="8"/>
         <v>-310000</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="30">
         <f t="shared" si="8"/>
         <v>-336000</v>
       </c>
@@ -8373,33 +8338,33 @@
       <c r="A27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>1150000</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <v>1220000</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <v>1127000</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="30">
         <v>1150000</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="30">
         <v>1040000</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="30">
         <v>960000</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="30">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="30">
         <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="30">
         <f t="shared" si="8"/>
         <v>167000</v>
       </c>
@@ -8724,9 +8689,6 @@
       <c r="C48" s="6">
         <v>0.74</v>
       </c>
-      <c r="D48" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
@@ -8918,7 +8880,7 @@
       <c r="A67" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="28">
         <v>61528.160000000003</v>
       </c>
       <c r="C67" s="6"/>
@@ -8928,7 +8890,7 @@
       <c r="A68" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="28">
         <v>61528.160000000003</v>
       </c>
       <c r="C68" s="6"/>
@@ -8938,7 +8900,7 @@
       <c r="A69" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="28">
         <v>8575</v>
       </c>
       <c r="C69" s="6"/>
@@ -8948,7 +8910,7 @@
       <c r="A70" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="28">
         <v>111166.3</v>
       </c>
       <c r="C70" s="6"/>
@@ -9027,17 +8989,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
-  <dimension ref="A1:F9"/>
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9046,9 +9012,10 @@
     <col min="2" max="2" width="14.6328125" customWidth="1"/>
     <col min="3" max="3" width="53.08984375" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="str">
         <f>[1]LoadShedders!A1</f>
         <v>Name</v>
@@ -9065,12 +9032,8 @@
         <f>[1]LoadShedders!D1</f>
         <v>Shedder_capacity</v>
       </c>
-      <c r="F1">
-        <f>[1]LoadShedders!F1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>[1]LoadShedders!A2</f>
         <v>base</v>
@@ -9083,20 +9046,8 @@
         <f>[1]LoadShedders!C2</f>
         <v>amiris-config/data/load.csv</v>
       </c>
-      <c r="D2">
-        <f>[1]LoadShedders!D2</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>[1]LoadShedders!F2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" t="e">
-        <f>[1]LoadShedders!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>[1]LoadShedders!A3</f>
         <v>high</v>
@@ -9109,98 +9060,90 @@
         <f>[1]LoadShedders!C3</f>
         <v>amiris-config/data/LS_high.csv</v>
       </c>
-      <c r="D3">
-        <f>[1]LoadShedders!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <f>[1]LoadShedders!F3</f>
         <v>industrial</v>
       </c>
-      <c r="F3" t="e">
-        <f>[1]LoadShedders!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
-        <f>[1]LoadShedders!A5</f>
-        <v>low</v>
+        <f>[1]LoadShedders!A4</f>
+        <v>mid</v>
       </c>
       <c r="B4">
         <f>[1]LoadShedders!B4</f>
         <v>500</v>
       </c>
       <c r="C4" t="str">
+        <f>[1]LoadShedders!C4</f>
+        <v>amiris-config/data/LS_mid.csv</v>
+      </c>
+      <c r="F4" t="str">
+        <f>[1]LoadShedders!F4</f>
+        <v>household</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="str">
+        <f>[1]LoadShedders!A5</f>
+        <v>low</v>
+      </c>
+      <c r="B5">
+        <f>[1]LoadShedders!B5</f>
+        <v>250</v>
+      </c>
+      <c r="C5" t="str">
         <f>[1]LoadShedders!C5</f>
         <v>amiris-config/data/LS_low.csv</v>
       </c>
-      <c r="D4">
-        <f>[1]LoadShedders!D5</f>
-        <v>0</v>
-      </c>
-      <c r="E4" t="str">
-        <f>[1]LoadShedders!F4</f>
-        <v>household</v>
-      </c>
-      <c r="F4" t="e">
-        <f>[1]LoadShedders!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="str">
+      <c r="F5" t="str">
+        <f>[1]LoadShedders!F5</f>
+        <v>commerce</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="str">
         <f>[1]LoadShedders!A6</f>
         <v>hydrogen_low</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f>[1]LoadShedders!B6</f>
         <v>40</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C6" t="str">
         <f>[1]LoadShedders!C6</f>
         <v>amiris-config/data/LS_hydrogen_low.csv</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f>[1]LoadShedders!D6</f>
         <v>251847372</v>
       </c>
-      <c r="E5" t="str">
-        <f>[1]LoadShedders!F5</f>
-        <v>commerce</v>
-      </c>
-      <c r="F5" t="e">
-        <f>[1]LoadShedders!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="str">
+      <c r="E6" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="str">
         <f>[1]LoadShedders!A7</f>
         <v>hydrogen_high</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f>[1]LoadShedders!B7</f>
         <v>60</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C7" t="str">
         <f>[1]LoadShedders!C7</f>
         <v>amiris-config/data/LS_hydrogen_high.csv</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f>[1]LoadShedders!D7</f>
         <v>107934587</v>
       </c>
-      <c r="E6">
-        <f>[1]LoadShedders!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="e">
-        <f>[1]LoadShedders!#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -9210,13 +9153,264 @@
       <c r="C8" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2030</v>
+      </c>
+      <c r="C4">
+        <v>2050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>284000</v>
+      </c>
+      <c r="C6">
+        <v>270000</v>
+      </c>
+      <c r="D6">
+        <v>554000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7">
+        <v>2400000</v>
+      </c>
+      <c r="C7">
+        <v>2300000</v>
+      </c>
+      <c r="D7">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>192</v>
+        <v>350000</v>
+      </c>
+      <c r="D9">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>835000</v>
+      </c>
+      <c r="D11">
+        <v>835000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>1000000</v>
+      </c>
+      <c r="D12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>435000</v>
+      </c>
+      <c r="D13">
+        <v>435000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>7940450</v>
+      </c>
+      <c r="C14">
+        <v>6000000</v>
+      </c>
+      <c r="D14">
+        <v>13940450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15">
+        <v>8600000</v>
+      </c>
+      <c r="C15">
+        <v>7670000</v>
+      </c>
+      <c r="D15">
+        <v>16270000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21">
+        <v>380000</v>
+      </c>
+      <c r="C21">
+        <v>290000</v>
+      </c>
+      <c r="D21">
+        <v>670000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>840000</v>
+      </c>
+      <c r="C22">
+        <v>640000</v>
+      </c>
+      <c r="D22">
+        <v>1480000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23">
+        <v>1800000</v>
+      </c>
+      <c r="C23">
+        <v>1640000</v>
+      </c>
+      <c r="D23">
+        <v>3440000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24">
+        <v>1040000</v>
+      </c>
+      <c r="C24">
+        <v>960000</v>
+      </c>
+      <c r="D24">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25">
+        <v>25904450</v>
+      </c>
+      <c r="C25">
+        <v>19770000</v>
+      </c>
+      <c r="D25">
+        <v>45674450</v>
       </c>
     </row>
   </sheetData>
@@ -9228,8 +9422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EFBB4-B33A-4767-8E25-52F1EB2A92EE}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9258,7 +9452,7 @@
       <c r="E1" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="22">
+      <c r="N1" s="21">
         <v>3.6</v>
       </c>
       <c r="O1" t="s">
@@ -9275,35 +9469,35 @@
       <c r="C2" s="18">
         <v>26.81</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>2025</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <v>2030</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="22">
         <v>2040</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="22">
         <v>2050</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="22">
         <v>2025</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="22">
         <v>2030</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="22">
         <v>2040</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="22">
         <v>2050</v>
       </c>
     </row>
@@ -9317,44 +9511,44 @@
       <c r="C3" s="18">
         <v>45.07</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <v>40</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <v>78</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="22">
         <v>123</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>168</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="23" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <v>40</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="22">
         <v>70</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="22">
         <v>90</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -9368,56 +9562,56 @@
       <c r="C4" s="18">
         <v>8.93</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <v>1.97</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>1.92</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>1.87</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <f>H4*traderes!$N$1</f>
         <v>8.2799999999999994</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <f>I4*traderes!$N$1</f>
         <v>7.0919999999999996</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="20">
         <f>J4*traderes!$N$1</f>
         <v>6.9119999999999999</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="20">
         <f>K4*traderes!$N$1</f>
         <v>6.7320000000000002</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="22">
         <v>2.48</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="22">
         <v>2.41</v>
       </c>
-      <c r="T4" s="23" t="s">
+      <c r="T4" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U4">
@@ -9447,54 +9641,54 @@
       <c r="C5">
         <v>6.48</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <v>12.87</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <v>10.09</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>9.61</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>9.1199999999999992</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <f>H5*traderes!$N$1</f>
         <v>46.332000000000001</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <f>I5*traderes!$N$1</f>
         <v>36.323999999999998</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="20">
         <f>J5*traderes!$N$1</f>
         <v>34.595999999999997</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="20">
         <f>K5*traderes!$N$1</f>
         <v>32.832000000000001</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="22">
         <v>12.87</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="22">
         <v>13.78</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="22">
         <v>15.41</v>
       </c>
-      <c r="T5" s="23" t="s">
+      <c r="T5" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U5">
@@ -9524,54 +9718,54 @@
       <c r="C6">
         <v>1.69</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <v>5.57</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <v>4.0199999999999996</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>4.07</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>4.07</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f>H6*traderes!$N$1</f>
         <v>20.052000000000003</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <f>I6*traderes!$N$1</f>
         <v>14.472</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <f>J6*traderes!$N$1</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="20">
         <f>K6*traderes!$N$1</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="22">
         <v>5.57</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="22">
         <v>6.23</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="22">
         <v>6.9</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U6">
@@ -9600,54 +9794,54 @@
       <c r="C7" s="18">
         <v>40.68</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <v>23.89</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <v>20.74</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>16.940000000000001</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>13.97</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f>H7*traderes!$N$1</f>
         <v>86.004000000000005</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <f>I7*traderes!$N$1</f>
         <v>74.664000000000001</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <f>J7*traderes!$N$1</f>
         <v>60.984000000000009</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <f>K7*traderes!$N$1</f>
         <v>50.292000000000002</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="22">
         <v>23.89</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="22">
         <v>20.74</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="22">
         <v>16.940000000000001</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U7">
@@ -9677,54 +9871,54 @@
       <c r="C8">
         <v>50.29</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <v>26.97</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>28.96</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>23.35</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>18.09</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f>H8*traderes!$N$1</f>
         <v>97.091999999999999</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f>I8*traderes!$N$1</f>
         <v>104.256</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="20">
         <f>J8*traderes!$N$1</f>
         <v>84.06</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="20">
         <f>K8*traderes!$N$1</f>
         <v>65.123999999999995</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="22">
         <v>26.97</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="22">
         <v>28.09</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="22">
         <v>23.35</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U8">
@@ -9754,54 +9948,54 @@
       <c r="C9">
         <v>15</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <v>20.63</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>16.079999999999998</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>12.52</v>
       </c>
-      <c r="L9" s="21" t="e">
+      <c r="L9" s="20" t="e">
         <f>H9*traderes!$N$1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <f>I9*traderes!$N$1</f>
         <v>74.268000000000001</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="20">
         <f>J9*traderes!$N$1</f>
         <v>57.887999999999998</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <f>K9*traderes!$N$1</f>
         <v>45.072000000000003</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="22">
         <v>20.25</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="22">
         <v>16.079999999999998</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U9" t="e">
@@ -9825,54 +10019,54 @@
       <c r="C10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <v>19.05</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <v>17.11</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>17.55</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>17.91</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <f>H10*traderes!$N$1</f>
         <v>68.58</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <f>I10*traderes!$N$1</f>
         <v>61.595999999999997</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="20">
         <f>J10*traderes!$N$1</f>
         <v>63.180000000000007</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="20">
         <f>K10*traderes!$N$1</f>
         <v>64.475999999999999</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="22">
         <v>19.05</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="22">
         <v>20.25</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="22">
         <v>16.079999999999998</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="22" t="s">
         <v>167</v>
       </c>
       <c r="U10">
@@ -11720,259 +11914,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
-  <dimension ref="A3:D25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4">
-      <c r="A3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>2030</v>
-      </c>
-      <c r="C4">
-        <v>2050</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6">
-        <v>284000</v>
-      </c>
-      <c r="C6">
-        <v>270000</v>
-      </c>
-      <c r="D6">
-        <v>554000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7">
-        <v>2400000</v>
-      </c>
-      <c r="C7">
-        <v>2300000</v>
-      </c>
-      <c r="D7">
-        <v>4700000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9">
-        <v>350000</v>
-      </c>
-      <c r="D9">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11">
-        <v>835000</v>
-      </c>
-      <c r="D11">
-        <v>835000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12">
-        <v>1000000</v>
-      </c>
-      <c r="D12">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13">
-        <v>435000</v>
-      </c>
-      <c r="D13">
-        <v>435000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14">
-        <v>7940450</v>
-      </c>
-      <c r="C14">
-        <v>6000000</v>
-      </c>
-      <c r="D14">
-        <v>13940450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15">
-        <v>8600000</v>
-      </c>
-      <c r="C15">
-        <v>7670000</v>
-      </c>
-      <c r="D15">
-        <v>16270000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21">
-        <v>380000</v>
-      </c>
-      <c r="C21">
-        <v>290000</v>
-      </c>
-      <c r="D21">
-        <v>670000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B22">
-        <v>840000</v>
-      </c>
-      <c r="C22">
-        <v>640000</v>
-      </c>
-      <c r="D22">
-        <v>1480000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23">
-        <v>1800000</v>
-      </c>
-      <c r="C23">
-        <v>1640000</v>
-      </c>
-      <c r="D23">
-        <v>3440000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24">
-        <v>1040000</v>
-      </c>
-      <c r="C24">
-        <v>960000</v>
-      </c>
-      <c r="D24">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25">
-        <v>25904450</v>
-      </c>
-      <c r="C25">
-        <v>19770000</v>
-      </c>
-      <c r="D25">
-        <v>45674450</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12919C5-07FE-4AE2-AA9E-FE62D2303B6B}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
@@ -12990,4 +12931,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="9">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C582F-4E5C-41C0-A19C-6B6CC458F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4D7EF-AEFE-41E8-BD14-F032CD6CA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4252,14 +4252,14 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8">
         <row r="1">
           <cell r="B1" t="str">
@@ -4362,7 +4362,7 @@
             <v>30</v>
           </cell>
           <cell r="H2">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="3">
@@ -4385,7 +4385,7 @@
             <v>20</v>
           </cell>
           <cell r="H3">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="4">
@@ -4408,7 +4408,7 @@
             <v>30</v>
           </cell>
           <cell r="H4">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="5">
@@ -4431,7 +4431,7 @@
             <v>30</v>
           </cell>
           <cell r="H5">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="6">
@@ -4454,7 +4454,7 @@
             <v>20</v>
           </cell>
           <cell r="H6">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="7">
@@ -4477,7 +4477,7 @@
             <v>20</v>
           </cell>
           <cell r="H7">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="8">
@@ -4500,7 +4500,7 @@
             <v>45</v>
           </cell>
           <cell r="H8">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="9">
@@ -4523,7 +4523,7 @@
             <v>30</v>
           </cell>
           <cell r="H9">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="10">
@@ -4546,7 +4546,7 @@
             <v>40</v>
           </cell>
           <cell r="H10">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="11">
@@ -4569,7 +4569,7 @@
             <v>40</v>
           </cell>
           <cell r="H11">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="12">
@@ -4592,7 +4592,7 @@
             <v>25</v>
           </cell>
           <cell r="H12">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="13">
@@ -4615,7 +4615,7 @@
             <v>20</v>
           </cell>
           <cell r="H13">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="14">
@@ -4638,7 +4638,7 @@
             <v>100</v>
           </cell>
           <cell r="H14">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="15">
@@ -4661,7 +4661,7 @@
             <v>30</v>
           </cell>
           <cell r="H15">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="16">
@@ -4684,7 +4684,7 @@
             <v>25</v>
           </cell>
           <cell r="H16">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="17">
@@ -4707,7 +4707,7 @@
             <v>25</v>
           </cell>
           <cell r="H17">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="18">
@@ -4730,7 +4730,7 @@
             <v>60</v>
           </cell>
           <cell r="H18">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="19">
@@ -4753,7 +4753,7 @@
             <v>30</v>
           </cell>
           <cell r="H19">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="20">
@@ -4776,7 +4776,7 @@
             <v>30</v>
           </cell>
           <cell r="H20">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="21">
@@ -4799,13 +4799,13 @@
             <v>30</v>
           </cell>
           <cell r="H21">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -4890,7 +4890,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="15" refreshError="1"/>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
@@ -4927,8 +4927,8 @@
           <cell r="C3" t="str">
             <v>amiris-config/data/LS_high.csv</v>
           </cell>
-          <cell r="F3" t="str">
-            <v>industrial</v>
+          <cell r="F3">
+            <v>0.1</v>
           </cell>
         </row>
         <row r="4">
@@ -4941,8 +4941,8 @@
           <cell r="C4" t="str">
             <v>amiris-config/data/LS_mid.csv</v>
           </cell>
-          <cell r="F4" t="str">
-            <v>household</v>
+          <cell r="F4">
+            <v>0.05</v>
           </cell>
         </row>
         <row r="5">
@@ -4955,8 +4955,8 @@
           <cell r="C5" t="str">
             <v>amiris-config/data/LS_low.csv</v>
           </cell>
-          <cell r="F5" t="str">
-            <v>commerce</v>
+          <cell r="F5">
+            <v>0.05</v>
           </cell>
         </row>
         <row r="6">
@@ -4978,7 +4978,7 @@
             <v>hydrogen_high</v>
           </cell>
           <cell r="B7">
-            <v>60</v>
+            <v>47.7</v>
           </cell>
           <cell r="C7" t="str">
             <v>amiris-config/data/LS_hydrogen_high.csv</v>
@@ -4988,19 +4988,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5507,7 +5507,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5949,8 +5949,8 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="H12">
         <f>[1]TechnologiesEmlab!H2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="H13">
         <f>[1]TechnologiesEmlab!H3</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="H14">
         <f>[1]TechnologiesEmlab!H4</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="H15">
         <f>[1]TechnologiesEmlab!H5</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="H16">
         <f>[1]TechnologiesEmlab!H6</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="H17">
         <f>[1]TechnologiesEmlab!H7</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="H18">
         <f>[1]TechnologiesEmlab!H8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="H19">
         <f>[1]TechnologiesEmlab!H9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="H20">
         <f>[1]TechnologiesEmlab!H10</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="H21">
         <f>[1]TechnologiesEmlab!H11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="H22">
         <f>[1]TechnologiesEmlab!H12</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="H23">
         <f>[1]TechnologiesEmlab!H13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="H24">
         <f>[1]TechnologiesEmlab!H14</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="H25">
         <f>[1]TechnologiesEmlab!H15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H26">
         <f>[1]TechnologiesEmlab!H16</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="H27">
         <f>[1]TechnologiesEmlab!H17</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="H28">
         <f>[1]TechnologiesEmlab!H18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H29">
         <f>[1]TechnologiesEmlab!H19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="H30">
         <f>[1]TechnologiesEmlab!H20</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H31">
         <f>[1]TechnologiesEmlab!H21</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -7557,15 +7557,16 @@
   </sheetPr>
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="4" width="10.36328125" customWidth="1"/>
+    <col min="2" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" customWidth="1"/>
     <col min="5" max="7" width="11.90625" customWidth="1"/>
     <col min="8" max="8" width="14.90625" customWidth="1"/>
     <col min="9" max="9" width="17.08984375" customWidth="1"/>
@@ -9000,10 +9001,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9015,7 +9016,7 @@
     <col min="5" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="str">
         <f>[1]LoadShedders!A1</f>
         <v>Name</v>
@@ -9033,7 +9034,7 @@
         <v>Shedder_capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>[1]LoadShedders!A2</f>
         <v>base</v>
@@ -9047,7 +9048,7 @@
         <v>amiris-config/data/load.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>[1]LoadShedders!A3</f>
         <v>high</v>
@@ -9060,12 +9061,12 @@
         <f>[1]LoadShedders!C3</f>
         <v>amiris-config/data/LS_high.csv</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3">
         <f>[1]LoadShedders!F3</f>
-        <v>industrial</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>[1]LoadShedders!A4</f>
         <v>mid</v>
@@ -9078,12 +9079,12 @@
         <f>[1]LoadShedders!C4</f>
         <v>amiris-config/data/LS_mid.csv</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4">
         <f>[1]LoadShedders!F4</f>
-        <v>household</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>[1]LoadShedders!A5</f>
         <v>low</v>
@@ -9096,12 +9097,12 @@
         <f>[1]LoadShedders!C5</f>
         <v>amiris-config/data/LS_low.csv</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5">
         <f>[1]LoadShedders!F5</f>
-        <v>commerce</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>[1]LoadShedders!A6</f>
         <v>hydrogen_low</v>
@@ -9122,14 +9123,14 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>[1]LoadShedders!A7</f>
         <v>hydrogen_high</v>
       </c>
       <c r="B7">
         <f>[1]LoadShedders!B7</f>
-        <v>60</v>
+        <v>47.7</v>
       </c>
       <c r="C7" t="str">
         <f>[1]LoadShedders!C7</f>
@@ -9143,7 +9144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>190</v>
       </c>
@@ -9153,10 +9154,12 @@
       <c r="C8" t="s">
         <v>191</v>
       </c>
-      <c r="F8">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -9423,7 +9426,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -12937,8 +12940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4D7EF-AEFE-41E8-BD14-F032CD6CA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484F988-0F51-4246-96C0-3CE236780986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="738" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="207">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -657,18 +657,52 @@
   <si>
     <t>new - old 2020</t>
   </si>
+  <si>
+    <t>1 mwh = 3.6Gj</t>
+  </si>
+  <si>
+    <t>E/gj</t>
+  </si>
+  <si>
+    <t>E/MWh</t>
+  </si>
+  <si>
+    <t>renewable H2 imports</t>
+  </si>
+  <si>
+    <t>entsoe</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>dutch renewable</t>
+  </si>
+  <si>
+    <t>eur/ton</t>
+  </si>
+  <si>
+    <t>eur/mwh</t>
+  </si>
+  <si>
+    <t>but there are imports - &gt; so shouls be cheaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decarbonize H2 imports </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;\ * #,##0_ ;_ &quot;€&quot;\ * \-#,##0_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -996,7 +1030,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1046,6 +1080,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -3821,14 +3858,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>513752</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56736</xdr:rowOff>
+      <xdr:colOff>240702</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132936</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3851,7 +3888,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="180975"/>
+          <a:off x="6810375" y="438150"/>
           <a:ext cx="4780952" cy="3314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4235,7 +4272,7 @@
       <sheetName val="weatherYears40"/>
       <sheetName val="EnergyProducers"/>
       <sheetName val="ElectricitySpotMarkets"/>
-      <sheetName val="HydrogenfromOptim"/>
+      <sheetName val="LoadShifterCap"/>
       <sheetName val="LoadShedders"/>
       <sheetName val="TechnologyTargets"/>
       <sheetName val="YearlyTargets"/>
@@ -4252,14 +4289,14 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8">
         <row r="1">
           <cell r="B1" t="str">
@@ -4362,7 +4399,7 @@
             <v>30</v>
           </cell>
           <cell r="H2">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -4385,7 +4422,7 @@
             <v>20</v>
           </cell>
           <cell r="H3">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="4">
@@ -4408,7 +4445,7 @@
             <v>30</v>
           </cell>
           <cell r="H4">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
@@ -4431,7 +4468,7 @@
             <v>30</v>
           </cell>
           <cell r="H5">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -4454,7 +4491,7 @@
             <v>20</v>
           </cell>
           <cell r="H6">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="7">
@@ -4477,7 +4514,7 @@
             <v>20</v>
           </cell>
           <cell r="H7">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="8">
@@ -4500,7 +4537,7 @@
             <v>45</v>
           </cell>
           <cell r="H8">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="9">
@@ -4523,7 +4560,7 @@
             <v>30</v>
           </cell>
           <cell r="H9">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="10">
@@ -4546,7 +4583,7 @@
             <v>40</v>
           </cell>
           <cell r="H10">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="11">
@@ -4569,7 +4606,7 @@
             <v>40</v>
           </cell>
           <cell r="H11">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
@@ -4592,7 +4629,7 @@
             <v>25</v>
           </cell>
           <cell r="H12">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -4615,7 +4652,7 @@
             <v>20</v>
           </cell>
           <cell r="H13">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
@@ -4638,7 +4675,7 @@
             <v>100</v>
           </cell>
           <cell r="H14">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="15">
@@ -4661,7 +4698,7 @@
             <v>30</v>
           </cell>
           <cell r="H15">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -4684,7 +4721,7 @@
             <v>25</v>
           </cell>
           <cell r="H16">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -4707,7 +4744,7 @@
             <v>25</v>
           </cell>
           <cell r="H17">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
@@ -4730,7 +4767,7 @@
             <v>60</v>
           </cell>
           <cell r="H18">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="19">
@@ -4753,7 +4790,7 @@
             <v>30</v>
           </cell>
           <cell r="H19">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="20">
@@ -4776,7 +4813,7 @@
             <v>30</v>
           </cell>
           <cell r="H20">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="21">
@@ -4799,13 +4836,13 @@
             <v>30</v>
           </cell>
           <cell r="H21">
-            <v>4</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13">
         <row r="1">
           <cell r="A1" t="str">
@@ -4890,7 +4927,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
@@ -4903,7 +4940,7 @@
             <v>TimeSeriesFile</v>
           </cell>
           <cell r="D1" t="str">
-            <v>Shedder_capacity</v>
+            <v>TimeSeriesFileFuture</v>
           </cell>
         </row>
         <row r="2">
@@ -4961,46 +4998,32 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>hydrogen_low</v>
+            <v>hydrogen</v>
           </cell>
           <cell r="B6">
-            <v>40</v>
+            <v>33.374000000000002</v>
           </cell>
           <cell r="C6" t="str">
-            <v>amiris-config/data/LS_hydrogen_low.csv</v>
-          </cell>
-          <cell r="D6">
-            <v>251847372</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>hydrogen_high</v>
-          </cell>
-          <cell r="B7">
-            <v>47.7</v>
-          </cell>
-          <cell r="C7" t="str">
             <v>amiris-config/data/LS_hydrogen_high.csv</v>
           </cell>
-          <cell r="D7">
-            <v>107934587</v>
+          <cell r="D6" t="str">
+            <v>amiris-config/data/LS_hydrogen.csv</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5507,7 +5530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -6124,7 +6147,7 @@
       </c>
       <c r="H12">
         <f>[1]TechnologiesEmlab!H2</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6154,7 +6177,7 @@
       </c>
       <c r="H13">
         <f>[1]TechnologiesEmlab!H3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6184,7 +6207,7 @@
       </c>
       <c r="H14">
         <f>[1]TechnologiesEmlab!H4</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -6215,7 +6238,7 @@
       </c>
       <c r="H15">
         <f>[1]TechnologiesEmlab!H5</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6245,7 +6268,7 @@
       </c>
       <c r="H16">
         <f>[1]TechnologiesEmlab!H6</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -6275,7 +6298,7 @@
       </c>
       <c r="H17">
         <f>[1]TechnologiesEmlab!H7</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -6305,7 +6328,7 @@
       </c>
       <c r="H18">
         <f>[1]TechnologiesEmlab!H8</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -6335,7 +6358,7 @@
       </c>
       <c r="H19">
         <f>[1]TechnologiesEmlab!H9</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -6365,7 +6388,7 @@
       </c>
       <c r="H20">
         <f>[1]TechnologiesEmlab!H10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -6395,7 +6418,7 @@
       </c>
       <c r="H21">
         <f>[1]TechnologiesEmlab!H11</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -6425,7 +6448,7 @@
       </c>
       <c r="H22">
         <f>[1]TechnologiesEmlab!H12</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -6455,7 +6478,7 @@
       </c>
       <c r="H23">
         <f>[1]TechnologiesEmlab!H13</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -6485,7 +6508,7 @@
       </c>
       <c r="H24">
         <f>[1]TechnologiesEmlab!H14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -6515,7 +6538,7 @@
       </c>
       <c r="H25">
         <f>[1]TechnologiesEmlab!H15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -6545,7 +6568,7 @@
       </c>
       <c r="H26">
         <f>[1]TechnologiesEmlab!H16</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -6575,7 +6598,7 @@
       </c>
       <c r="H27">
         <f>[1]TechnologiesEmlab!H17</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -6605,7 +6628,7 @@
       </c>
       <c r="H28">
         <f>[1]TechnologiesEmlab!H18</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -6635,7 +6658,7 @@
       </c>
       <c r="H29">
         <f>[1]TechnologiesEmlab!H19</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -6665,7 +6688,7 @@
       </c>
       <c r="H30">
         <f>[1]TechnologiesEmlab!H20</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -6695,7 +6718,7 @@
       </c>
       <c r="H31">
         <f>[1]TechnologiesEmlab!H21</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -7106,15 +7129,16 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7512,7 +7536,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -7538,11 +7562,161 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:15">
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="K24">
+        <v>17.91</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="K25">
+        <f>K24*3.6</f>
+        <v>64.475999999999999</v>
+      </c>
+      <c r="L25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="M27">
+        <v>2030</v>
+      </c>
+      <c r="N27">
+        <v>2040</v>
+      </c>
+      <c r="O27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="31">
+        <v>20.63</v>
+      </c>
+      <c r="N28" s="31">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="O28" s="31">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="M29" s="33">
+        <f>M28*3.6</f>
+        <v>74.268000000000001</v>
+      </c>
+      <c r="N29" s="33">
+        <f t="shared" ref="N29:O29" si="0">N28*3.6</f>
+        <v>57.887999999999998</v>
+      </c>
+      <c r="O29" s="33">
+        <f t="shared" si="0"/>
+        <v>45.072000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="J30" s="32"/>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="M30" s="31">
+        <v>17.11</v>
+      </c>
+      <c r="N30" s="31">
+        <v>17.55</v>
+      </c>
+      <c r="O30" s="31">
+        <v>17.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="J31" s="32"/>
+      <c r="M31" s="31">
+        <f>M30*3.6</f>
+        <v>61.595999999999997</v>
+      </c>
+      <c r="N31" s="31">
+        <f t="shared" ref="N31:O31" si="1">N30*3.6</f>
+        <v>63.180000000000007</v>
+      </c>
+      <c r="O31" s="31">
+        <f t="shared" si="1"/>
+        <v>64.475999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="J32" s="32"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="10:16">
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="10:16">
+      <c r="K34" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" s="31">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31">
+        <v>3.9</v>
+      </c>
+      <c r="O34" s="31">
+        <f>2.4</f>
+        <v>2.4</v>
+      </c>
+      <c r="P34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16">
+      <c r="M35" s="2">
+        <f t="shared" ref="M35:N35" si="2">M34/(33.6*0.6)*1000</f>
+        <v>248.01587301587301</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>193.45238095238096</v>
+      </c>
+      <c r="O35" s="2">
+        <f>O34/(33.6*0.6)*1000</f>
+        <v>119.04761904761904</v>
+      </c>
+      <c r="P35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="10:16">
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7557,9 +7731,9 @@
   </sheetPr>
   <dimension ref="A1:AH76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="AG64" sqref="AG64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9003,8 +9177,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9031,7 +9205,7 @@
       </c>
       <c r="D1" t="str">
         <f>[1]LoadShedders!D1</f>
-        <v>Shedder_capacity</v>
+        <v>TimeSeriesFileFuture</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9105,40 +9279,40 @@
     <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>[1]LoadShedders!A6</f>
-        <v>hydrogen_low</v>
+        <v>hydrogen</v>
       </c>
       <c r="B6">
         <f>[1]LoadShedders!B6</f>
-        <v>40</v>
+        <v>33.374000000000002</v>
       </c>
       <c r="C6" t="str">
         <f>[1]LoadShedders!C6</f>
-        <v>amiris-config/data/LS_hydrogen_low.csv</v>
-      </c>
-      <c r="D6">
+        <v>amiris-config/data/LS_hydrogen_high.csv</v>
+      </c>
+      <c r="D6" t="str">
         <f>[1]LoadShedders!D6</f>
-        <v>251847372</v>
+        <v>amiris-config/data/LS_hydrogen.csv</v>
       </c>
       <c r="E6" s="15">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="str">
+      <c r="A7">
         <f>[1]LoadShedders!A7</f>
-        <v>hydrogen_high</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <f>[1]LoadShedders!B7</f>
-        <v>47.7</v>
-      </c>
-      <c r="C7" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <f>[1]LoadShedders!C7</f>
-        <v>amiris-config/data/LS_hydrogen_high.csv</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f>[1]LoadShedders!D7</f>
-        <v>107934587</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <v>0.3</v>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484F988-0F51-4246-96C0-3CE236780986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F148502-7149-46F5-AB89-DE0022D15882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-17325" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="5280" yWindow="4510" windowWidth="9600" windowHeight="4910" tabRatio="738" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="196">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -139,9 +139,6 @@
     <t>collectable_residues</t>
   </si>
   <si>
-    <t>electricity</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -625,21 +622,6 @@
     <t>PV_residential</t>
   </si>
   <si>
-    <t>new - old 2050</t>
-  </si>
-  <si>
-    <t>new - old 2030</t>
-  </si>
-  <si>
-    <t>Old prices / traderes</t>
-  </si>
-  <si>
-    <t>PV_combination 50%50%</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t xml:space="preserve">industrial heat </t>
   </si>
   <si>
@@ -655,40 +637,25 @@
     <t>Large capacity</t>
   </si>
   <si>
-    <t>new - old 2020</t>
-  </si>
-  <si>
-    <t>1 mwh = 3.6Gj</t>
-  </si>
-  <si>
     <t>E/gj</t>
   </si>
   <si>
     <t>E/MWh</t>
   </si>
   <si>
-    <t>renewable H2 imports</t>
-  </si>
-  <si>
-    <t>entsoe</t>
-  </si>
-  <si>
-    <t>aurora</t>
-  </si>
-  <si>
-    <t>dutch renewable</t>
-  </si>
-  <si>
     <t>eur/ton</t>
   </si>
   <si>
     <t>eur/mwh</t>
   </si>
   <si>
-    <t>but there are imports - &gt; so shouls be cheaper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decarbonize H2 imports </t>
+    <t>ENTSOE</t>
+  </si>
+  <si>
+    <t>ENTSOE (renewable imports)</t>
+  </si>
+  <si>
+    <t>MW</t>
   </si>
 </sst>
 </file>
@@ -704,7 +671,7 @@
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,21 +809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="2" tint="-9.9978637043366805E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="6" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1030,7 +983,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1068,21 +1021,12 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -1133,8 +1077,32 @@
     <cellStyle name="Style 22" xfId="43" xr:uid="{09FE90BF-FF2A-477D-BD7E-FFAF812B21DE}"/>
     <cellStyle name="UserInput" xfId="44" xr:uid="{842C8621-8E31-44B3-9781-F4BACA73961F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0066"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2583,13 +2551,13 @@
                 <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>534000</c:v>
+                  <c:v>4168000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284000</c:v>
+                  <c:v>2488000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270000</c:v>
+                  <c:v>1020000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,11 +2826,11 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>investmentCosts!$A$23</c:f>
+              <c:f>investmentCosts!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PV_combination 50%50%</c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,18 +2885,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>investmentCosts!$B$23:$D$23</c:f>
+              <c:f>investmentCosts!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>"€"\ #,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>878000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>730500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>519000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2907,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>investmentCosts!$A$24</c:f>
+              <c:f>investmentCosts!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3004,7 +2966,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>investmentCosts!$B$24:$D$24</c:f>
+              <c:f>investmentCosts!$B$23:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>"€"\ #,##0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3856,16 +3818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>240702</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>132936</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47026</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3888,8 +3850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="438150"/>
-          <a:ext cx="4780952" cy="3314286"/>
+          <a:off x="7877175" y="0"/>
+          <a:ext cx="6203351" cy="4282560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,15 +3992,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>356490</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>175854</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>425918</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>311618</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>125903</xdr:rowOff>
+      <xdr:rowOff>113203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4061,8 +4023,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16543420" y="744012"/>
-          <a:ext cx="8653847" cy="3927154"/>
+          <a:off x="19259550" y="1597011"/>
+          <a:ext cx="6617168" cy="2935792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4118,15 +4080,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>107175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152109</xdr:rowOff>
+      <xdr:colOff>126225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4149,8 +4111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22812375" y="4886325"/>
-          <a:ext cx="6200000" cy="2323809"/>
+          <a:off x="24364950" y="4978400"/>
+          <a:ext cx="6203175" cy="2361909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4270,6 +4232,7 @@
       <sheetName val="TechnologyTrends"/>
       <sheetName val="weatherYears"/>
       <sheetName val="weatherYears40"/>
+      <sheetName val="weatherYearsOLD"/>
       <sheetName val="EnergyProducers"/>
       <sheetName val="ElectricitySpotMarkets"/>
       <sheetName val="LoadShifterCap"/>
@@ -4843,7 +4806,8 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4896,10 +4860,10 @@
             <v>0</v>
           </cell>
           <cell r="H3">
-            <v>0.1</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
           <cell r="I3">
-            <v>0.1</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
           <cell r="J3">
             <v>3</v>
@@ -4909,7 +4873,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="14">
+      <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4927,8 +4891,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16">
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -5011,7 +4975,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
@@ -5024,6 +4987,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5530,7 +5494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5972,8 +5936,8 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6000,7 +5964,7 @@
         <v>Realistic_capacity</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6824,11 +6788,11 @@
       </c>
       <c r="H41">
         <f>[1]EnergyProducers!H3</f>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I41">
         <f>[1]EnergyProducers!I3</f>
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J41">
         <f>[1]EnergyProducers!J3</f>
@@ -7127,39 +7091,63 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91ADA03-C099-48D6-AB3F-B988B7AFF0A3}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1">
         <v>2020</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1">
         <v>2030</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1">
         <v>2050</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -7172,20 +7160,8 @@
       <c r="D2">
         <v>82.5</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="24">
-        <v>82.5</v>
-      </c>
-      <c r="H2" s="24">
-        <v>82.5</v>
-      </c>
-      <c r="I2" s="24">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -7198,41 +7174,25 @@
       <c r="D3">
         <v>50.29</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="24">
-        <v>86.844999999999999</v>
-      </c>
-      <c r="H3" s="24">
-        <v>74.66</v>
-      </c>
-      <c r="I3" s="24">
-        <v>50.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>163</v>
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>123</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="24">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7245,478 +7205,283 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="24">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="C6">
+        <v>7.09</v>
+      </c>
+      <c r="D6">
+        <v>6.73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>21.175000000000001</v>
+      </c>
+      <c r="C7">
+        <v>40.68</v>
+      </c>
+      <c r="D7">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>46.33</v>
+      </c>
+      <c r="C8">
+        <v>36.32</v>
+      </c>
+      <c r="D8">
+        <v>32.83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>6.48</v>
+      </c>
+      <c r="C9">
+        <v>6.48</v>
+      </c>
+      <c r="D9">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>16.716999999999999</v>
+      </c>
+      <c r="C10">
+        <v>26.81</v>
+      </c>
+      <c r="D10">
+        <v>46.996000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>20.05</v>
+      </c>
+      <c r="C11">
+        <v>14.47</v>
+      </c>
+      <c r="D11">
+        <v>14.65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24">
-        <v>15</v>
-      </c>
-      <c r="I5" s="24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="C7">
-        <v>7.09</v>
-      </c>
-      <c r="D7">
-        <v>6.73</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="24">
-        <v>10.8</v>
-      </c>
-      <c r="H7" s="24">
-        <v>7.0919999999999996</v>
-      </c>
-      <c r="I7" s="24">
-        <v>6.7320000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>21.175000000000001</v>
-      </c>
-      <c r="C8">
-        <v>40.68</v>
-      </c>
-      <c r="D8">
-        <v>79.69</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="24">
-        <v>21.175000000000001</v>
-      </c>
-      <c r="H8" s="24">
-        <v>40.68</v>
-      </c>
-      <c r="I8" s="24">
-        <v>79.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B12">
+        <v>1.69</v>
+      </c>
+      <c r="C12">
+        <v>1.69</v>
+      </c>
+      <c r="D12">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4.5360000000000005</v>
+      </c>
+      <c r="C13">
+        <v>6.6960000000000006</v>
+      </c>
+      <c r="D13">
+        <v>14.148000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>68.58</v>
-      </c>
-      <c r="C9">
-        <v>61.6</v>
-      </c>
-      <c r="D9">
-        <v>64.48</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="24">
-        <v>74.965000000000003</v>
-      </c>
-      <c r="H9" s="24">
-        <v>65</v>
-      </c>
-      <c r="I9" s="24">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>46.33</v>
-      </c>
-      <c r="C10">
-        <v>36.32</v>
-      </c>
-      <c r="D10">
-        <v>32.83</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="24">
-        <v>46.44</v>
-      </c>
-      <c r="H10" s="24">
-        <v>36.323999999999998</v>
-      </c>
-      <c r="I10" s="24">
-        <v>32.832000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>6.48</v>
-      </c>
-      <c r="C11">
-        <v>6.48</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="24">
-        <v>6.48</v>
-      </c>
-      <c r="H11" s="24">
-        <v>6.48</v>
-      </c>
-      <c r="I11" s="24">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>16.716999999999999</v>
-      </c>
-      <c r="C12">
-        <v>26.81</v>
-      </c>
-      <c r="D12">
-        <v>46.996000000000002</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24">
-        <v>16.716999999999999</v>
-      </c>
-      <c r="H12" s="24">
-        <v>26.81</v>
-      </c>
-      <c r="I12" s="24">
-        <v>46.996000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>20.05</v>
-      </c>
-      <c r="C13">
-        <v>14.47</v>
-      </c>
-      <c r="D13">
-        <v>14.65</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="24">
-        <v>13.4</v>
-      </c>
-      <c r="H13" s="24">
-        <v>14.65</v>
-      </c>
-      <c r="I13" s="24">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
       <c r="B14">
-        <v>1.69</v>
+        <v>74.3</v>
       </c>
       <c r="C14">
-        <v>1.69</v>
+        <v>57.9</v>
       </c>
       <c r="D14">
-        <v>1.69</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1.69</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1.69</v>
-      </c>
-      <c r="I14" s="24">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>45.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>4.5360000000000005</v>
+        <v>7.5</v>
       </c>
       <c r="C15">
-        <v>6.6960000000000006</v>
+        <v>7.5</v>
       </c>
       <c r="D15">
-        <v>14.148000000000001</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="24">
-        <v>4.5360000000000005</v>
-      </c>
-      <c r="H15" s="24">
-        <v>6.6960000000000006</v>
-      </c>
-      <c r="I15" s="24">
-        <v>14.148000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>7.5</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>7.5</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="H16" s="24">
-        <v>7.5</v>
-      </c>
-      <c r="I16" s="24">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>45</v>
-      </c>
-      <c r="D17">
         <v>35</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="24">
-        <v>45</v>
-      </c>
-      <c r="H17" s="24">
-        <v>45</v>
-      </c>
-      <c r="I17" s="24">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="K23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="K24">
-        <v>17.91</v>
-      </c>
-      <c r="L24" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="K25">
-        <f>K24*3.6</f>
-        <v>64.475999999999999</v>
-      </c>
+    </row>
+    <row r="23" spans="3:15">
+      <c r="C23" s="26"/>
+    </row>
+    <row r="25" spans="3:15">
       <c r="L25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="J26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="M27">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="L26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15">
+      <c r="M28" s="20">
         <v>2030</v>
       </c>
-      <c r="N27">
+      <c r="N28" s="20">
         <v>2040</v>
       </c>
-      <c r="O27">
+      <c r="O28" s="20">
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="K28" t="s">
-        <v>199</v>
-      </c>
-      <c r="M28" s="31">
+    <row r="29" spans="3:15">
+      <c r="M29" s="20">
         <v>20.63</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N29" s="20">
         <v>16.079999999999998</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O29" s="20">
         <v>12.52</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="M29" s="33">
-        <f>M28*3.6</f>
+    <row r="30" spans="3:15">
+      <c r="M30" s="28">
+        <f>M29*3.6</f>
         <v>74.268000000000001</v>
       </c>
-      <c r="N29" s="33">
-        <f t="shared" ref="N29:O29" si="0">N28*3.6</f>
+      <c r="N30" s="28">
+        <f t="shared" ref="N30:O30" si="0">N29*3.6</f>
         <v>57.887999999999998</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O30" s="28">
         <f t="shared" si="0"/>
         <v>45.072000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="J30" s="32"/>
-      <c r="K30" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="31">
-        <v>17.11</v>
-      </c>
-      <c r="N30" s="31">
-        <v>17.55</v>
-      </c>
-      <c r="O30" s="31">
-        <v>17.91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="J31" s="32"/>
-      <c r="M31" s="31">
-        <f>M30*3.6</f>
-        <v>61.595999999999997</v>
-      </c>
-      <c r="N31" s="31">
-        <f t="shared" ref="N31:O31" si="1">N30*3.6</f>
-        <v>63.180000000000007</v>
-      </c>
-      <c r="O31" s="31">
-        <f t="shared" si="1"/>
-        <v>64.475999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="J32" s="32"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-    </row>
-    <row r="33" spans="10:16">
-      <c r="J33" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-    </row>
-    <row r="34" spans="10:16">
-      <c r="K34" t="s">
-        <v>202</v>
-      </c>
-      <c r="M34" s="31">
+    <row r="31" spans="3:15">
+      <c r="J31" s="27"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="3:15">
+      <c r="C32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="3:16">
+      <c r="J33" s="27"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="3:16">
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="3:16">
+      <c r="M35" s="26">
         <v>5</v>
       </c>
-      <c r="N34" s="31">
+      <c r="N35" s="26">
         <v>3.9</v>
       </c>
-      <c r="O34" s="31">
+      <c r="O35" s="26">
         <f>2.4</f>
         <v>2.4</v>
       </c>
-      <c r="P34" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="10:16">
-      <c r="M35" s="2">
-        <f t="shared" ref="M35:N35" si="2">M34/(33.6*0.6)*1000</f>
+      <c r="P35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="M36" s="2">
+        <f>M35/(33.6*0.6)*1000</f>
         <v>248.01587301587301</v>
       </c>
-      <c r="N35" s="2">
-        <f t="shared" si="2"/>
+      <c r="N36" s="2">
+        <f t="shared" ref="N36" si="1">N35/(33.6*0.6)*1000</f>
         <v>193.45238095238096</v>
       </c>
-      <c r="O35" s="2">
-        <f>O34/(33.6*0.6)*1000</f>
+      <c r="O36" s="2">
+        <f>O35/(33.6*0.6)*1000</f>
         <v>119.04761904761904</v>
       </c>
-      <c r="P35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="10:16">
-      <c r="K36" t="s">
-        <v>205</v>
-      </c>
+      <c r="P36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="C39" s="26"/>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="C47" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7727,23 +7492,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
   <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
+    <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG64" sqref="AG64"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="3" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
     <col min="4" max="4" width="19.08984375" customWidth="1"/>
-    <col min="5" max="7" width="11.90625" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.90625" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -7754,24 +7521,22 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="O1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="O1" t="s">
-        <v>57</v>
-      </c>
       <c r="X1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -7785,789 +7550,477 @@
       <c r="D2" s="6">
         <v>2050</v>
       </c>
-      <c r="E2" s="29">
-        <v>2020</v>
-      </c>
-      <c r="F2" s="29">
-        <v>2030</v>
-      </c>
-      <c r="G2" s="29">
-        <v>2050</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>185</v>
-      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="25">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23">
         <v>2040000</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>2040000</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="30">
-        <v>2040000</v>
-      </c>
-      <c r="F3" s="30">
-        <v>2040000</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30">
-        <f>B3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="30">
-        <f t="shared" ref="I3:J3" si="0">C3-F3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="Q3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25">
+        <v>26</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23">
         <v>2900000</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>2700000</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30">
-        <v>2900000</v>
-      </c>
-      <c r="G4" s="30">
-        <v>2700000</v>
-      </c>
-      <c r="H4" s="30">
-        <f t="shared" ref="H4:H21" si="1">B4-E4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <f t="shared" ref="I4:I21" si="2">C4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" ref="J4:J21" si="3">D4-G4</f>
-        <v>0</v>
-      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25">
+        <v>27</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23">
         <v>830000</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>800000</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30">
-        <v>830000</v>
-      </c>
-      <c r="G5" s="30">
-        <v>800000</v>
-      </c>
-      <c r="H5" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
+        <v>28</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23">
         <v>1200000</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="23">
         <v>1100000</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
-        <v>1200000</v>
-      </c>
-      <c r="G6" s="30">
-        <v>1100000</v>
-      </c>
-      <c r="H6" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25">
+        <v>29</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23">
         <v>1200000</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30">
-        <v>1200000</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25">
+        <v>182</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23">
         <v>2670000</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <f t="shared" si="2"/>
-        <v>2670000</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="25">
+        <v>30</v>
+      </c>
+      <c r="B9" s="23">
         <v>3845510</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="30">
-        <v>3845510</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25">
+        <v>31</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <v>350000</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30">
-        <v>350000</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="25">
+        <v>32</v>
+      </c>
+      <c r="B11" s="23">
         <v>343000</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="30">
-        <v>343000</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25">
+        <v>33</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
         <v>800000</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30">
-        <v>800000</v>
-      </c>
-      <c r="H12" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25">
+        <v>34</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23">
         <v>730000</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30">
-        <v>730000</v>
-      </c>
-      <c r="H13" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25">
+        <v>35</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23">
         <v>750000</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30">
-        <v>750000</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25">
+        <v>36</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23">
         <v>435000</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30">
-        <v>435000</v>
-      </c>
-      <c r="H15" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25">
+        <v>37</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23">
         <v>2690000</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="23">
         <v>2685000</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30">
-        <v>2690000</v>
-      </c>
-      <c r="G16" s="30">
-        <v>2685000</v>
-      </c>
-      <c r="H16" s="30">
-        <f>B16-E16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
+        <v>38</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23">
         <v>2990000</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>2970000</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30">
-        <v>2990000</v>
-      </c>
-      <c r="G17" s="30">
-        <v>2970000</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25">
+        <v>39</v>
+      </c>
+      <c r="B18" s="23">
         <v>3845510</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="30">
-        <v>3845510</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="25">
-        <v>534000</v>
-      </c>
-      <c r="C19" s="25">
-        <v>284000</v>
-      </c>
-      <c r="D19" s="25">
-        <v>270000</v>
-      </c>
-      <c r="E19" s="30">
-        <v>321000</v>
-      </c>
-      <c r="F19" s="30">
-        <v>160000</v>
-      </c>
-      <c r="G19" s="30">
-        <v>60000</v>
-      </c>
-      <c r="H19" s="30">
-        <f t="shared" si="1"/>
-        <v>213000</v>
-      </c>
-      <c r="I19" s="30">
-        <f t="shared" si="2"/>
-        <v>124000</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="3"/>
-        <v>210000</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B19" s="23">
+        <v>4168000</v>
+      </c>
+      <c r="C19" s="23">
+        <v>2488000</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1020000</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="25">
+        <v>41</v>
+      </c>
+      <c r="B20" s="23">
         <v>7940450</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="23">
         <v>6000000</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="30">
-        <v>7940450</v>
-      </c>
-      <c r="F20" s="30">
-        <v>4000000</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="30">
-        <f t="shared" si="2"/>
-        <v>2000000</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25">
+        <v>42</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23">
         <v>435000</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="23">
         <v>412000</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30">
-        <v>435000</v>
-      </c>
-      <c r="G21" s="30">
-        <v>412000</v>
-      </c>
-      <c r="H21" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="25">
+        <v>43</v>
+      </c>
+      <c r="B22" s="23">
         <v>2000000</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="30">
-        <v>2000000</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30">
-        <f t="shared" ref="H22" si="4">B22-E22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
-        <f t="shared" ref="I22" si="5">C22-F22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" ref="J22" si="6">D22-G22</f>
-        <v>0</v>
-      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="27">
-        <v>878000</v>
-      </c>
-      <c r="C23" s="27">
-        <v>730500</v>
-      </c>
-      <c r="D23" s="27">
-        <v>519000</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30">
-        <f>B23-E25</f>
-        <v>291000</v>
-      </c>
-      <c r="I23" s="30">
-        <f t="shared" ref="I23:J23" si="7">C23-F25</f>
-        <v>350500</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="7"/>
-        <v>219000</v>
-      </c>
+      <c r="A23" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="23">
+        <v>1169000</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1017000</v>
+      </c>
+      <c r="D23" s="23">
+        <v>688000</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="25">
-        <v>1169000</v>
-      </c>
-      <c r="C24" s="25">
-        <v>1017000</v>
-      </c>
-      <c r="D24" s="25">
-        <v>688000</v>
-      </c>
-      <c r="E24" s="30">
-        <v>2000000</v>
-      </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+        <v>44</v>
+      </c>
+      <c r="B24" s="23">
+        <v>587000</v>
+      </c>
+      <c r="C24" s="23">
+        <v>444000</v>
+      </c>
+      <c r="D24" s="23">
+        <v>350000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="25">
-        <v>587000</v>
-      </c>
-      <c r="C25" s="25">
-        <v>444000</v>
-      </c>
-      <c r="D25" s="25">
-        <v>350000</v>
-      </c>
-      <c r="E25" s="30">
-        <v>587000</v>
-      </c>
-      <c r="F25" s="30">
-        <v>380000</v>
-      </c>
-      <c r="G25" s="30">
-        <v>300000</v>
-      </c>
-      <c r="H25" s="30">
-        <f>B25-E25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="30">
-        <f t="shared" ref="I25:J27" si="8">C25-F25</f>
-        <v>64000</v>
-      </c>
-      <c r="J25" s="30">
-        <f t="shared" si="8"/>
-        <v>50000</v>
-      </c>
+      <c r="B25" s="23">
+        <v>2270000</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1620000</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1444000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="25">
-        <v>2270000</v>
-      </c>
-      <c r="C26" s="25">
-        <v>1620000</v>
-      </c>
-      <c r="D26" s="25">
-        <v>1444000</v>
-      </c>
-      <c r="E26" s="30">
-        <v>2270000</v>
-      </c>
-      <c r="F26" s="30">
-        <v>1930000</v>
-      </c>
-      <c r="G26" s="30">
-        <v>1780000</v>
-      </c>
-      <c r="H26" s="30">
-        <f t="shared" ref="H26:H27" si="9">B26-E26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="30">
-        <f t="shared" si="8"/>
-        <v>-310000</v>
-      </c>
-      <c r="J26" s="30">
-        <f t="shared" si="8"/>
-        <v>-336000</v>
-      </c>
+      <c r="B26" s="23">
+        <v>1150000</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1220000</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1127000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
       <c r="AH26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="25">
-        <v>1150000</v>
-      </c>
-      <c r="C27" s="25">
-        <v>1220000</v>
-      </c>
-      <c r="D27" s="25">
-        <v>1127000</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1150000</v>
-      </c>
-      <c r="F27" s="30">
-        <v>1040000</v>
-      </c>
-      <c r="G27" s="30">
-        <v>960000</v>
-      </c>
-      <c r="H27" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <f t="shared" si="8"/>
-        <v>180000</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="8"/>
-        <v>167000</v>
-      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="6">
         <v>1.9</v>
@@ -8582,7 +8035,7 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="6">
         <v>4.2</v>
@@ -8601,7 +8054,7 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="6">
         <v>4.2</v>
@@ -8614,15 +8067,15 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="6">
         <v>4.2</v>
@@ -8640,12 +8093,12 @@
       </c>
       <c r="K33">
         <f>G25/J33</f>
-        <v>201.45044319097502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6">
         <v>21</v>
@@ -8661,12 +8114,12 @@
       </c>
       <c r="K34">
         <f>G26/J34</f>
-        <v>406.39269406392697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -8684,12 +8137,12 @@
       </c>
       <c r="K35">
         <f>G27/J35</f>
-        <v>273.97260273972603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -8700,7 +8153,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -8715,7 +8168,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="6">
         <v>4</v>
@@ -8730,7 +8183,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="6">
         <v>4.5</v>
@@ -8745,7 +8198,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -8760,7 +8213,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="6">
         <v>3</v>
@@ -8775,7 +8228,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="6">
         <v>1.35</v>
@@ -8790,7 +8243,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6">
         <v>1.8</v>
@@ -8813,7 +8266,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -8822,7 +8275,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="6">
         <v>2.7</v>
@@ -8833,7 +8286,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="6">
         <f>B45</f>
@@ -8845,7 +8298,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="6">
         <v>1.5</v>
@@ -8856,7 +8309,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -8867,7 +8320,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B50" s="6">
         <v>2020</v>
@@ -8881,290 +8334,291 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6">
+        <v>26</v>
+      </c>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23">
         <v>108000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6">
+        <v>25</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23">
         <v>50000</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6">
+        <v>27</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23">
         <v>27800</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="23">
         <v>26000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6">
+        <v>28</v>
+      </c>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23">
         <v>27800</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="23">
         <v>26000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6">
+        <v>29</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23">
         <v>27800</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6">
+        <v>182</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23">
         <v>32000</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6">
+        <v>40</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23">
         <v>1000</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="23">
         <v>800</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6">
+        <v>37</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23">
         <v>13450</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="23">
         <v>13425</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6">
+        <v>38</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23">
         <v>14950</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="23">
         <v>14850</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6">
+        <v>41</v>
+      </c>
+      <c r="B60" s="23">
+        <v>111166.3</v>
+      </c>
+      <c r="C60" s="23">
         <v>100000</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6">
+        <v>42</v>
+      </c>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23">
         <v>7745</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="23">
         <v>7423</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6">
+        <v>33</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23">
         <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6">
+        <v>34</v>
+      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23">
         <v>30000</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6">
+        <v>35</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23">
         <v>11250</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6">
+        <v>36</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23">
         <v>8700</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6">
+        <v>31</v>
+      </c>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23">
         <v>7000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="28">
+        <v>30</v>
+      </c>
+      <c r="B67" s="23">
         <v>61528.160000000003</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="28">
+        <v>39</v>
+      </c>
+      <c r="B68" s="23">
         <v>61528.160000000003</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="28">
+        <v>32</v>
+      </c>
+      <c r="B69" s="23">
         <v>8575</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="28">
-        <v>111166.3</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B70" s="23">
+        <v>16000</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="6">
-        <v>16000</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23">
+        <f>(C73+C72)/2</f>
+        <v>10300</v>
+      </c>
+      <c r="D71" s="23">
+        <f>(D73+D72)/2</f>
+        <v>9300</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6">
-        <f>(C74+C73)/2</f>
-        <v>10300</v>
-      </c>
-      <c r="D72" s="6">
-        <f>(D74+D73)/2</f>
-        <v>9300</v>
+        <v>183</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23">
+        <v>12300</v>
+      </c>
+      <c r="D72" s="23">
+        <v>11000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6">
-        <v>12300</v>
-      </c>
-      <c r="D73" s="6">
-        <v>11000</v>
+        <v>44</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23">
+        <v>8300</v>
+      </c>
+      <c r="D73" s="23">
+        <v>7600</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6">
-        <v>8300</v>
-      </c>
-      <c r="D74" s="6">
-        <v>7600</v>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23">
+        <v>30500</v>
+      </c>
+      <c r="D74" s="23">
+        <v>24700</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6">
-        <v>30500</v>
-      </c>
-      <c r="D75" s="6">
-        <v>24700</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6">
+      <c r="B75" s="23"/>
+      <c r="C75" s="23">
         <v>14700</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D75" s="23">
         <v>12900</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <conditionalFormatting sqref="A30:A48">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A26">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:A75">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9172,13 +8626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9320,13 +8771,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9334,7 +8785,7 @@
         <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -9346,8 +8797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
   <dimension ref="A3:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9360,15 +8811,15 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2030</v>
@@ -9377,17 +8828,17 @@
         <v>2050</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6">
         <v>284000</v>
@@ -9401,7 +8852,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>2400000</v>
@@ -9415,12 +8866,12 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>350000</v>
@@ -9431,12 +8882,12 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>835000</v>
@@ -9447,7 +8898,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>1000000</v>
@@ -9458,7 +8909,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13">
         <v>435000</v>
@@ -9469,7 +8920,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>7940450</v>
@@ -9483,7 +8934,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>8600000</v>
@@ -9497,32 +8948,32 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>380000</v>
@@ -9536,7 +8987,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>840000</v>
@@ -9550,7 +9001,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>1800000</v>
@@ -9564,7 +9015,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24">
         <v>1040000</v>
@@ -9578,7 +9029,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25">
         <v>25904450</v>
@@ -9600,7 +9051,7 @@
   <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9618,27 +9069,27 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N1" s="21">
         <v>3.6</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>26.81</v>
@@ -9648,10 +9099,10 @@
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="H2" s="22">
         <v>2025</v>
@@ -9680,7 +9131,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>74.27</v>
@@ -9689,13 +9140,13 @@
         <v>45.07</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="22">
         <v>40</v>
@@ -9714,7 +9165,7 @@
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="22">
         <v>40</v>
@@ -9726,12 +9177,12 @@
         <v>90</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>8.93</v>
@@ -9740,13 +9191,13 @@
         <v>8.93</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>169</v>
-      </c>
       <c r="G4" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H4" s="22">
         <v>2.2999999999999998</v>
@@ -9777,7 +9228,7 @@
         <v>6.7320000000000002</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="22">
         <v>2.2999999999999998</v>
@@ -9789,7 +9240,7 @@
         <v>2.41</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U4">
         <f>Q4*traderes!$N$1</f>
@@ -9810,7 +9261,7 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>6.48</v>
@@ -9819,11 +9270,11 @@
         <v>6.48</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H5" s="22">
         <v>12.87</v>
@@ -9854,7 +9305,7 @@
         <v>32.832000000000001</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="22">
         <v>12.87</v>
@@ -9866,7 +9317,7 @@
         <v>15.41</v>
       </c>
       <c r="T5" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U5">
         <f>Q5*traderes!$N$1</f>
@@ -9887,7 +9338,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>1.69</v>
@@ -9896,11 +9347,11 @@
         <v>1.69</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="22">
         <v>5.57</v>
@@ -9931,7 +9382,7 @@
         <v>14.652000000000001</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="22">
         <v>5.57</v>
@@ -9943,7 +9394,7 @@
         <v>6.9</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U6">
         <f>Q6*traderes!$N$1</f>
@@ -9954,7 +9405,7 @@
         <v>22.428000000000001</v>
       </c>
       <c r="W6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="X6" t="e">
         <f>T6*traderes!$N$1</f>
@@ -9963,7 +9414,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>40.68</v>
@@ -9972,11 +9423,11 @@
         <v>40.68</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H7" s="22">
         <v>23.89</v>
@@ -10007,7 +9458,7 @@
         <v>50.292000000000002</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q7" s="22">
         <v>23.89</v>
@@ -10019,7 +9470,7 @@
         <v>16.940000000000001</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U7">
         <f>Q7*traderes!$N$1</f>
@@ -10040,7 +9491,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>74.66</v>
@@ -10049,11 +9500,11 @@
         <v>50.29</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H8" s="22">
         <v>26.97</v>
@@ -10084,7 +9535,7 @@
         <v>65.123999999999995</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q8" s="22">
         <v>26.97</v>
@@ -10096,7 +9547,7 @@
         <v>23.35</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U8">
         <f>Q8*traderes!$N$1</f>
@@ -10117,7 +9568,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -10126,14 +9577,14 @@
         <v>15</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="22">
         <v>20.63</v>
@@ -10161,10 +9612,10 @@
         <v>45.072000000000003</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R9" s="22">
         <v>20.25</v>
@@ -10173,7 +9624,7 @@
         <v>16.079999999999998</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U9" t="e">
         <f>Q9*traderes!$N$1</f>
@@ -10194,14 +9645,14 @@
     </row>
     <row r="10" spans="1:24">
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H10" s="22">
         <v>19.05</v>
@@ -10232,7 +9683,7 @@
         <v>64.475999999999999</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="22">
         <v>19.05</v>
@@ -10244,7 +9695,7 @@
         <v>16.079999999999998</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U10">
         <f>Q10*traderes!$N$1</f>
@@ -10265,7 +9716,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>0.9</v>
@@ -10273,7 +9724,7 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -10281,7 +9732,7 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>0.9</v>
@@ -10289,7 +9740,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -10297,7 +9748,7 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>0.309</v>
@@ -10305,7 +9756,7 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16">
         <v>0.309</v>
@@ -10313,7 +9764,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -10321,7 +9772,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>0.4</v>
@@ -10329,7 +9780,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -10337,7 +9788,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>0.4</v>
@@ -10345,7 +9796,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>0.35</v>
@@ -10353,7 +9804,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>0.33700000000000002</v>
@@ -10361,7 +9812,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>0.25</v>
@@ -10369,7 +9820,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10377,7 +9828,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -10385,7 +9836,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -10393,7 +9844,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -10401,7 +9852,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -10409,7 +9860,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -10417,7 +9868,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -10425,7 +9876,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -10433,7 +9884,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -10441,7 +9892,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33">
         <v>0.7</v>
@@ -10449,51 +9900,51 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
         <v>110</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>111</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
         <v>112</v>
       </c>
-      <c r="E35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>113</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>114</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>115</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>116</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>117</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>118</v>
-      </c>
-      <c r="M35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="str">
         <f>RIGHT(C36,LEN(C36)-3)</f>
@@ -10508,7 +9959,7 @@
         <v>2030</v>
       </c>
       <c r="G36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J36">
         <v>20000</v>
@@ -10522,13 +9973,13 @@
     </row>
     <row r="37" spans="1:13" ht="15">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" ref="D37:D74" si="0">RIGHT(C37,LEN(C37)-3)</f>
@@ -10543,7 +9994,7 @@
         <v>2030</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -10551,13 +10002,13 @@
     </row>
     <row r="38" spans="1:13" ht="15">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -10572,7 +10023,7 @@
         <v>2030</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J38">
         <v>7000</v>
@@ -10586,13 +10037,13 @@
     </row>
     <row r="39" spans="1:13" ht="15">
       <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
         <v>123</v>
       </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -10607,7 +10058,7 @@
         <v>2030</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39">
         <v>15430</v>
@@ -10618,13 +10069,13 @@
     </row>
     <row r="40" spans="1:13" ht="15">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D40" t="str">
         <f>RIGHT(C40,LEN(C40)-3)</f>
@@ -10639,7 +10090,7 @@
         <v>2050</v>
       </c>
       <c r="G40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -10647,13 +10098,13 @@
     </row>
     <row r="41" spans="1:13" ht="15">
       <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
-        <v>124</v>
-      </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -10668,7 +10119,7 @@
         <v>2030</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -10676,13 +10127,13 @@
     </row>
     <row r="42" spans="1:13" ht="15">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -10697,7 +10148,7 @@
         <v>2050</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -10705,13 +10156,13 @@
     </row>
     <row r="43" spans="1:13" ht="15">
       <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -10726,7 +10177,7 @@
         <v>2030</v>
       </c>
       <c r="G43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I43">
         <v>2294.0239999999999</v>
@@ -10737,13 +10188,13 @@
     </row>
     <row r="44" spans="1:13" ht="15">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
         <v>126</v>
       </c>
-      <c r="B44" t="s">
-        <v>127</v>
-      </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -10758,7 +10209,7 @@
         <v>2030</v>
       </c>
       <c r="G44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I44">
         <v>2294.0239999999999</v>
@@ -10769,13 +10220,13 @@
     </row>
     <row r="45" spans="1:13" ht="15">
       <c r="A45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
         <v>130</v>
-      </c>
-      <c r="C45" t="s">
-        <v>131</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -10790,7 +10241,7 @@
         <v>2030</v>
       </c>
       <c r="G45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I45">
         <v>22940.240000000002</v>
@@ -10801,13 +10252,13 @@
     </row>
     <row r="46" spans="1:13" ht="15">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -10822,7 +10273,7 @@
         <v>2030</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I46">
         <v>22940.240000000002</v>
@@ -10833,13 +10284,13 @@
     </row>
     <row r="47" spans="1:13" ht="15">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -10854,7 +10305,7 @@
         <v>2030</v>
       </c>
       <c r="G47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>6882.0720000000001</v>
@@ -10865,13 +10316,13 @@
     </row>
     <row r="48" spans="1:13" ht="15">
       <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
         <v>134</v>
       </c>
-      <c r="B48" t="s">
-        <v>135</v>
-      </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -10886,7 +10337,7 @@
         <v>2030</v>
       </c>
       <c r="G48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -10897,13 +10348,13 @@
     </row>
     <row r="49" spans="1:13" ht="15">
       <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
         <v>134</v>
       </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D49" t="str">
         <f>RIGHT(C49,LEN(C49)-3)</f>
@@ -10918,7 +10369,7 @@
         <v>2050</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -10929,13 +10380,13 @@
     </row>
     <row r="50" spans="1:13" ht="15">
       <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
         <v>134</v>
       </c>
-      <c r="B50" t="s">
-        <v>135</v>
-      </c>
       <c r="C50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -10950,7 +10401,7 @@
         <v>2030</v>
       </c>
       <c r="G50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H50">
         <v>8.5810999999999998E-2</v>
@@ -10973,13 +10424,13 @@
     </row>
     <row r="51" spans="1:13" ht="15">
       <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" t="s">
         <v>134</v>
       </c>
-      <c r="B51" t="s">
-        <v>135</v>
-      </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -10994,7 +10445,7 @@
         <v>2050</v>
       </c>
       <c r="G51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H51">
         <v>8.0586000000000005E-2</v>
@@ -11014,13 +10465,13 @@
     </row>
     <row r="52" spans="1:13" ht="15">
       <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
         <v>134</v>
       </c>
-      <c r="B52" t="s">
-        <v>135</v>
-      </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -11035,7 +10486,7 @@
         <v>2030</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H52">
         <v>8.5810999999999998E-2</v>
@@ -11058,13 +10509,13 @@
     </row>
     <row r="53" spans="1:13" ht="15">
       <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
         <v>134</v>
       </c>
-      <c r="B53" t="s">
-        <v>135</v>
-      </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -11079,7 +10530,7 @@
         <v>2050</v>
       </c>
       <c r="G53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H53">
         <v>8.5810999999999998E-2</v>
@@ -11099,13 +10550,13 @@
     </row>
     <row r="54" spans="1:13" ht="15">
       <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
         <v>134</v>
       </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -11120,7 +10571,7 @@
         <v>2030</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I54">
         <v>460</v>
@@ -11134,13 +10585,13 @@
     </row>
     <row r="55" spans="1:13" ht="15">
       <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
         <v>134</v>
       </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -11155,7 +10606,7 @@
         <v>2030</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J55">
         <v>8700</v>
@@ -11169,13 +10620,13 @@
     </row>
     <row r="56" spans="1:13" ht="15">
       <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
       </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -11190,7 +10641,7 @@
         <v>2030</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56">
         <v>8.5810999999999998E-2</v>
@@ -11213,13 +10664,13 @@
     </row>
     <row r="57" spans="1:13" ht="15">
       <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s">
         <v>134</v>
       </c>
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -11234,7 +10685,7 @@
         <v>2050</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H57">
         <v>7.3499999999999996E-2</v>
@@ -11254,13 +10705,13 @@
     </row>
     <row r="58" spans="1:13" ht="15">
       <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
         <v>134</v>
       </c>
-      <c r="B58" t="s">
-        <v>135</v>
-      </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -11275,7 +10726,7 @@
         <v>2030</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58">
         <v>8.5810999999999998E-2</v>
@@ -11298,13 +10749,13 @@
     </row>
     <row r="59" spans="1:13" ht="15">
       <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" t="s">
         <v>134</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>136</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -11319,7 +10770,7 @@
         <v>2050</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H59">
         <v>8.5810999999999998E-2</v>
@@ -11339,13 +10790,13 @@
     </row>
     <row r="60" spans="1:13" ht="15">
       <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
         <v>134</v>
       </c>
-      <c r="B60" t="s">
-        <v>135</v>
-      </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -11360,7 +10811,7 @@
         <v>2030</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H60">
         <v>7.5009000000000006E-2</v>
@@ -11383,13 +10834,13 @@
     </row>
     <row r="61" spans="1:13" ht="15">
       <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -11404,7 +10855,7 @@
         <v>2050</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H61">
         <v>7.5009000000000006E-2</v>
@@ -11424,13 +10875,13 @@
     </row>
     <row r="62" spans="1:13" ht="15">
       <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" t="s">
         <v>134</v>
       </c>
-      <c r="B62" t="s">
-        <v>135</v>
-      </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -11445,7 +10896,7 @@
         <v>2030</v>
       </c>
       <c r="G62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62">
         <v>7.5009000000000006E-2</v>
@@ -11465,13 +10916,13 @@
     </row>
     <row r="63" spans="1:13" ht="15">
       <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
         <v>134</v>
       </c>
-      <c r="B63" t="s">
-        <v>135</v>
-      </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -11486,7 +10937,7 @@
         <v>2050</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H63">
         <v>7.5009000000000006E-2</v>
@@ -11506,13 +10957,13 @@
     </row>
     <row r="64" spans="1:13" ht="15">
       <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
-        <v>135</v>
-      </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -11527,7 +10978,7 @@
         <v>2030</v>
       </c>
       <c r="G64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H64">
         <v>8.0586000000000005E-2</v>
@@ -11550,13 +11001,13 @@
     </row>
     <row r="65" spans="1:13" ht="15">
       <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
         <v>134</v>
       </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -11571,7 +11022,7 @@
         <v>2050</v>
       </c>
       <c r="G65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65">
         <v>8.0586000000000005E-2</v>
@@ -11591,13 +11042,13 @@
     </row>
     <row r="66" spans="1:13" ht="15">
       <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
         <v>134</v>
       </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -11612,7 +11063,7 @@
         <v>2030</v>
       </c>
       <c r="G66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H66">
         <v>8.0586000000000005E-2</v>
@@ -11635,13 +11086,13 @@
     </row>
     <row r="67" spans="1:13" ht="15">
       <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="0"/>
@@ -11656,7 +11107,7 @@
         <v>2050</v>
       </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H67">
         <v>8.0586000000000005E-2</v>
@@ -11676,13 +11127,13 @@
     </row>
     <row r="68" spans="1:13" ht="15">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
-        <v>135</v>
-      </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="0"/>
@@ -11697,7 +11148,7 @@
         <v>2030</v>
       </c>
       <c r="G68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -11705,13 +11156,13 @@
     </row>
     <row r="69" spans="1:13" ht="15">
       <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
         <v>134</v>
       </c>
-      <c r="B69" t="s">
-        <v>135</v>
-      </c>
       <c r="C69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="0"/>
@@ -11726,7 +11177,7 @@
         <v>2030</v>
       </c>
       <c r="G69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I69">
         <v>35174.368000000002</v>
@@ -11737,13 +11188,13 @@
     </row>
     <row r="70" spans="1:13" ht="15">
       <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
         <v>134</v>
       </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="0"/>
@@ -11758,7 +11209,7 @@
         <v>2030</v>
       </c>
       <c r="G70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I70">
         <v>1773.915272638189</v>
@@ -11769,13 +11220,13 @@
     </row>
     <row r="71" spans="1:13" ht="15">
       <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
         <v>134</v>
       </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
       <c r="C71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="0"/>
@@ -11790,7 +11241,7 @@
         <v>2030</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I71">
         <v>17739.15272638189</v>
@@ -11801,13 +11252,13 @@
     </row>
     <row r="72" spans="1:13" ht="15">
       <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="0"/>
@@ -11822,7 +11273,7 @@
         <v>2030</v>
       </c>
       <c r="G72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I72">
         <v>5321.745817914566</v>
@@ -11833,13 +11284,13 @@
     </row>
     <row r="73" spans="1:13" ht="15">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
-        <v>135</v>
-      </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="0"/>
@@ -11854,7 +11305,7 @@
         <v>2030</v>
       </c>
       <c r="G73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H73">
         <v>8.5810999999999998E-2</v>
@@ -11877,13 +11328,13 @@
     </row>
     <row r="74" spans="1:13" ht="15">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="0"/>
@@ -11898,7 +11349,7 @@
         <v>2030</v>
       </c>
       <c r="G74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -11906,7 +11357,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="7">
         <v>2030</v>
@@ -11917,12 +11368,12 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B79">
         <v>284000</v>
@@ -11933,7 +11384,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80">
         <v>2400000</v>
@@ -11944,12 +11395,12 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82">
         <v>350000</v>
@@ -11957,12 +11408,12 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B84">
         <v>835000</v>
@@ -11970,7 +11421,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85">
         <v>1000000</v>
@@ -11978,7 +11429,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <v>435000</v>
@@ -11986,7 +11437,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87">
         <v>7940450</v>
@@ -11997,7 +11448,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88">
         <v>8600000</v>
@@ -12008,32 +11459,32 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>380000</v>
@@ -12044,7 +11495,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B95">
         <v>840000</v>
@@ -12055,7 +11506,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <v>1800000</v>
@@ -12066,7 +11517,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B97">
         <v>1040000</v>
@@ -12094,7 +11545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12919C5-07FE-4AE2-AA9E-FE62D2303B6B}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
@@ -12113,13 +11564,13 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -12134,13 +11585,13 @@
         <v>2050</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>74</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -12235,7 +11686,7 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <f>IF(ISBLANK(E3),#N/A,E3/1000000)</f>
@@ -12263,7 +11714,7 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6" t="e">
         <f t="shared" ref="B4:D24" si="2">IF(ISBLANK(E4),#N/A,E4/1000000)</f>
@@ -12289,7 +11740,7 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12315,7 +11766,7 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12341,7 +11792,7 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12367,7 +11818,7 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" si="2"/>
@@ -12393,7 +11844,7 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12419,7 +11870,7 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6">
         <f t="shared" si="2"/>
@@ -12445,7 +11896,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12471,7 +11922,7 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12497,7 +11948,7 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12523,7 +11974,7 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12549,7 +12000,7 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6">
         <f t="shared" si="2"/>
@@ -12577,7 +12028,7 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6">
         <f t="shared" si="2"/>
@@ -12603,7 +12054,7 @@
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6">
         <f t="shared" si="2"/>
@@ -12629,7 +12080,7 @@
     </row>
     <row r="18" spans="1:40">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="6">
         <f t="shared" si="2"/>
@@ -12657,7 +12108,7 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6">
         <f t="shared" si="2"/>
@@ -12685,7 +12136,7 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6" t="e">
         <f t="shared" si="2"/>
@@ -12711,7 +12162,7 @@
     </row>
     <row r="21" spans="1:40">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="6">
         <f t="shared" si="2"/>
@@ -12737,7 +12188,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6">
         <f t="shared" si="2"/>
@@ -12894,7 +12345,7 @@
     </row>
     <row r="23" spans="1:40">
       <c r="A23" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6">
         <f t="shared" si="2"/>
@@ -13051,7 +12502,7 @@
     </row>
     <row r="24" spans="1:40">
       <c r="A24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6">
         <f t="shared" si="2"/>
@@ -13097,7 +12548,7 @@
         <v>2285.7142857142858</v>
       </c>
       <c r="L28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="11:11">
@@ -13129,21 +12580,21 @@
     <row r="1" spans="1:5">
       <c r="A1" s="9"/>
       <c r="B1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9">
         <v>16.7</v>
@@ -13152,12 +12603,12 @@
         <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="9">
         <v>45</v>
@@ -13166,12 +12617,12 @@
         <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="9">
         <v>53</v>
@@ -13180,7 +12631,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="15">
         <v>0.6</v>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F148502-7149-46F5-AB89-DE0022D15882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A2DE8-1553-4471-A555-8ADE7C9A208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="4510" windowWidth="9600" windowHeight="4910" tabRatio="738" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-360" yWindow="-20370" windowWidth="26130" windowHeight="16590" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="200">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -634,9 +634,6 @@
     <t>Fixed costs</t>
   </si>
   <si>
-    <t>Large capacity</t>
-  </si>
-  <si>
     <t>E/gj</t>
   </si>
   <si>
@@ -656,6 +653,21 @@
   </si>
   <si>
     <t>MW</t>
+  </si>
+  <si>
+    <t>lifetime</t>
+  </si>
+  <si>
+    <t>permit time</t>
+  </si>
+  <si>
+    <t>construction time</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ENTSOE GA</t>
   </si>
 </sst>
 </file>
@@ -4338,9 +4350,6 @@
           <cell r="F1" t="str">
             <v>lifetime_technical</v>
           </cell>
-          <cell r="H1" t="str">
-            <v>MaximumLifeExtension</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -4361,9 +4370,6 @@
           <cell r="F2">
             <v>30</v>
           </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -4384,9 +4390,6 @@
           <cell r="F3">
             <v>20</v>
           </cell>
-          <cell r="H3">
-            <v>0</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -4407,9 +4410,6 @@
           <cell r="F4">
             <v>30</v>
           </cell>
-          <cell r="H4">
-            <v>0</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -4430,9 +4430,6 @@
           <cell r="F5">
             <v>30</v>
           </cell>
-          <cell r="H5">
-            <v>0</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -4453,9 +4450,6 @@
           <cell r="F6">
             <v>20</v>
           </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -4476,9 +4470,6 @@
           <cell r="F7">
             <v>20</v>
           </cell>
-          <cell r="H7">
-            <v>0</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -4499,9 +4490,6 @@
           <cell r="F8">
             <v>45</v>
           </cell>
-          <cell r="H8">
-            <v>0</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -4522,9 +4510,6 @@
           <cell r="F9">
             <v>30</v>
           </cell>
-          <cell r="H9">
-            <v>0</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -4545,9 +4530,6 @@
           <cell r="F10">
             <v>40</v>
           </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -4568,9 +4550,6 @@
           <cell r="F11">
             <v>40</v>
           </cell>
-          <cell r="H11">
-            <v>0</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -4591,9 +4570,6 @@
           <cell r="F12">
             <v>25</v>
           </cell>
-          <cell r="H12">
-            <v>0</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -4614,9 +4590,6 @@
           <cell r="F13">
             <v>20</v>
           </cell>
-          <cell r="H13">
-            <v>0</v>
-          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -4637,9 +4610,6 @@
           <cell r="F14">
             <v>100</v>
           </cell>
-          <cell r="H14">
-            <v>0</v>
-          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -4660,9 +4630,6 @@
           <cell r="F15">
             <v>30</v>
           </cell>
-          <cell r="H15">
-            <v>0</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -4683,9 +4650,6 @@
           <cell r="F16">
             <v>25</v>
           </cell>
-          <cell r="H16">
-            <v>0</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -4706,9 +4670,6 @@
           <cell r="F17">
             <v>25</v>
           </cell>
-          <cell r="H17">
-            <v>0</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -4729,9 +4690,6 @@
           <cell r="F18">
             <v>60</v>
           </cell>
-          <cell r="H18">
-            <v>0</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -4752,9 +4710,6 @@
           <cell r="F19">
             <v>30</v>
           </cell>
-          <cell r="H19">
-            <v>0</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -4775,9 +4730,6 @@
           <cell r="F20">
             <v>30</v>
           </cell>
-          <cell r="H20">
-            <v>0</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -4797,9 +4749,6 @@
           </cell>
           <cell r="F21">
             <v>30</v>
-          </cell>
-          <cell r="H21">
-            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5494,7 +5443,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5937,14 +5886,16 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="24.90625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" customWidth="1"/>
     <col min="10" max="10" width="7.453125" customWidth="1"/>
   </cols>
@@ -5955,94 +5906,154 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" t="str">
+      <c r="B2" s="6" t="str">
         <f>[1]CandidatePowerPlants!B1</f>
         <v>Technology</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="6" t="str">
         <f>[1]CandidatePowerPlants!D1</f>
         <v>Realistic_capacity</v>
       </c>
-      <c r="D2" t="s">
-        <v>188</v>
+      <c r="D2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" t="str">
+      <c r="B3" s="6" t="str">
         <f>[1]CandidatePowerPlants!B2</f>
         <v>Lithium_ion_battery</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <f>[1]CandidatePowerPlants!D2</f>
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
+      <c r="D3" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),4)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" t="str">
+      <c r="B4" s="6" t="str">
         <f>[1]CandidatePowerPlants!B3</f>
         <v>WTG_offshore</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <f>[1]CandidatePowerPlants!D3</f>
         <v>500</v>
       </c>
-      <c r="D4">
-        <v>1000</v>
+      <c r="D4" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),4)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" t="str">
+      <c r="B5" s="6" t="str">
         <f>[1]CandidatePowerPlants!B4</f>
         <v>hydrogen_turbine</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <f>[1]CandidatePowerPlants!D4</f>
         <v>500</v>
       </c>
-      <c r="D5">
-        <v>1000</v>
+      <c r="D5" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),2)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),4)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" t="str">
+      <c r="B6" s="6" t="str">
         <f>[1]CandidatePowerPlants!B5</f>
         <v>PV_utility_systems</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <f>[1]CandidatePowerPlants!D5</f>
         <v>350</v>
       </c>
-      <c r="D6">
-        <v>1000</v>
+      <c r="D6" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),3)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),4)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" t="str">
+      <c r="B7" s="6" t="str">
         <f>[1]CandidatePowerPlants!B6</f>
         <v>WTG_onshore</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <f>[1]CandidatePowerPlants!D6</f>
         <v>250</v>
       </c>
-      <c r="D7">
-        <v>1000</v>
+      <c r="D7" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),3)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),4)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" t="str">
+      <c r="B8" s="6" t="str">
         <f>[1]CandidatePowerPlants!B7</f>
         <v>Biomass_CHP_wood_pellets_DH</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <f>[1]CandidatePowerPlants!D7</f>
         <v>300</v>
       </c>
-      <c r="D8">
-        <v>1000</v>
+      <c r="D8" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),2)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),3)</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
+        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),4)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6055,33 +6066,25 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" t="str">
-        <f>[1]TechnologiesEmlab!A1</f>
-        <v>traderes technology</v>
-      </c>
       <c r="C11" t="str">
+        <f>[1]TechnologiesEmlab!C1</f>
+        <v>expectedPermittime</v>
+      </c>
+      <c r="D11" t="str">
+        <f>[1]TechnologiesEmlab!D1</f>
+        <v>expectedLeadtime</v>
+      </c>
+      <c r="E11" t="str">
+        <f>[1]TechnologiesEmlab!E1</f>
+        <v>lifetime_economic</v>
+      </c>
+      <c r="F11" t="str">
+        <f>[1]TechnologiesEmlab!F1</f>
+        <v>lifetime_technical</v>
+      </c>
+      <c r="I11" t="str">
         <f>[1]TechnologiesEmlab!B1</f>
         <v>type</v>
-      </c>
-      <c r="D11" t="str">
-        <f>[1]TechnologiesEmlab!C1</f>
-        <v>expectedPermittime</v>
-      </c>
-      <c r="E11" t="str">
-        <f>[1]TechnologiesEmlab!D1</f>
-        <v>expectedLeadtime</v>
-      </c>
-      <c r="F11" t="str">
-        <f>[1]TechnologiesEmlab!E1</f>
-        <v>lifetime_economic</v>
-      </c>
-      <c r="G11" t="str">
-        <f>[1]TechnologiesEmlab!F1</f>
-        <v>lifetime_technical</v>
-      </c>
-      <c r="H11" t="str">
-        <f>[1]TechnologiesEmlab!H1</f>
-        <v>MaximumLifeExtension</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6089,29 +6092,25 @@
         <f>[1]TechnologiesEmlab!A2</f>
         <v>Biomass_CHP_wood_pellets_DH</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12">
+        <f>[1]TechnologiesEmlab!C2</f>
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>[1]TechnologiesEmlab!D2</f>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f>[1]TechnologiesEmlab!E2</f>
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <f>[1]TechnologiesEmlab!F2</f>
+        <v>30</v>
+      </c>
+      <c r="I12" t="str">
         <f>[1]TechnologiesEmlab!B2</f>
         <v>ConventionalPlantOperator</v>
-      </c>
-      <c r="D12">
-        <f>[1]TechnologiesEmlab!C2</f>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f>[1]TechnologiesEmlab!D2</f>
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <f>[1]TechnologiesEmlab!E2</f>
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <f>[1]TechnologiesEmlab!F2</f>
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <f>[1]TechnologiesEmlab!H2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6119,29 +6118,25 @@
         <f>[1]TechnologiesEmlab!A3</f>
         <v>Biomass_CHP_wood_pellets_PH</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13">
+        <f>[1]TechnologiesEmlab!C3</f>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>[1]TechnologiesEmlab!D3</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>[1]TechnologiesEmlab!E3</f>
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <f>[1]TechnologiesEmlab!F3</f>
+        <v>20</v>
+      </c>
+      <c r="I13" t="str">
         <f>[1]TechnologiesEmlab!B3</f>
         <v>ConventionalPlantOperator</v>
-      </c>
-      <c r="D13">
-        <f>[1]TechnologiesEmlab!C3</f>
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f>[1]TechnologiesEmlab!D3</f>
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <f>[1]TechnologiesEmlab!E3</f>
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <f>[1]TechnologiesEmlab!F3</f>
-        <v>20</v>
-      </c>
-      <c r="H13">
-        <f>[1]TechnologiesEmlab!H3</f>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6149,29 +6144,25 @@
         <f>[1]TechnologiesEmlab!A4</f>
         <v>CCGT</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14">
+        <f>[1]TechnologiesEmlab!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>[1]TechnologiesEmlab!D4</f>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>[1]TechnologiesEmlab!E4</f>
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <f>[1]TechnologiesEmlab!F4</f>
+        <v>30</v>
+      </c>
+      <c r="I14" t="str">
         <f>[1]TechnologiesEmlab!B4</f>
         <v>ConventionalPlantOperator</v>
-      </c>
-      <c r="D14">
-        <f>[1]TechnologiesEmlab!C4</f>
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f>[1]TechnologiesEmlab!D4</f>
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <f>[1]TechnologiesEmlab!E4</f>
-        <v>30</v>
-      </c>
-      <c r="G14">
-        <f>[1]TechnologiesEmlab!F4</f>
-        <v>30</v>
-      </c>
-      <c r="H14">
-        <f>[1]TechnologiesEmlab!H4</f>
-        <v>0</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -6180,29 +6171,25 @@
         <f>[1]TechnologiesEmlab!A5</f>
         <v>CCGT_CHP_backpressure_DH</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15">
+        <f>[1]TechnologiesEmlab!C5</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>[1]TechnologiesEmlab!D5</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>[1]TechnologiesEmlab!E5</f>
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <f>[1]TechnologiesEmlab!F5</f>
+        <v>30</v>
+      </c>
+      <c r="I15" t="str">
         <f>[1]TechnologiesEmlab!B5</f>
         <v>ConventionalPlantOperator</v>
-      </c>
-      <c r="D15">
-        <f>[1]TechnologiesEmlab!C5</f>
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f>[1]TechnologiesEmlab!D5</f>
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <f>[1]TechnologiesEmlab!E5</f>
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <f>[1]TechnologiesEmlab!F5</f>
-        <v>30</v>
-      </c>
-      <c r="H15">
-        <f>[1]TechnologiesEmlab!H5</f>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6210,479 +6197,415 @@
         <f>[1]TechnologiesEmlab!A6</f>
         <v>CCGT_CHP_backpressure_PH</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16">
+        <f>[1]TechnologiesEmlab!C6</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>[1]TechnologiesEmlab!D6</f>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>[1]TechnologiesEmlab!E6</f>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f>[1]TechnologiesEmlab!F6</f>
+        <v>20</v>
+      </c>
+      <c r="I16" t="str">
         <f>[1]TechnologiesEmlab!B6</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D16">
-        <f>[1]TechnologiesEmlab!C6</f>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f>[1]TechnologiesEmlab!D6</f>
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <f>[1]TechnologiesEmlab!E6</f>
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <f>[1]TechnologiesEmlab!F6</f>
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <f>[1]TechnologiesEmlab!H6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" t="str">
         <f>[1]TechnologiesEmlab!A7</f>
         <v>CCS</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17">
+        <f>[1]TechnologiesEmlab!C7</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>[1]TechnologiesEmlab!D7</f>
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f>[1]TechnologiesEmlab!E7</f>
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <f>[1]TechnologiesEmlab!F7</f>
+        <v>20</v>
+      </c>
+      <c r="I17" t="str">
         <f>[1]TechnologiesEmlab!B7</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D17">
-        <f>[1]TechnologiesEmlab!C7</f>
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f>[1]TechnologiesEmlab!D7</f>
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <f>[1]TechnologiesEmlab!E7</f>
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <f>[1]TechnologiesEmlab!F7</f>
-        <v>20</v>
-      </c>
-      <c r="H17">
-        <f>[1]TechnologiesEmlab!H7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" t="str">
         <f>[1]TechnologiesEmlab!A8</f>
         <v>Nuclear</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18">
+        <f>[1]TechnologiesEmlab!C8</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>[1]TechnologiesEmlab!D8</f>
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f>[1]TechnologiesEmlab!E8</f>
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <f>[1]TechnologiesEmlab!F8</f>
+        <v>45</v>
+      </c>
+      <c r="I18" t="str">
         <f>[1]TechnologiesEmlab!B8</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D18">
-        <f>[1]TechnologiesEmlab!C8</f>
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <f>[1]TechnologiesEmlab!D8</f>
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <f>[1]TechnologiesEmlab!E8</f>
-        <v>45</v>
-      </c>
-      <c r="G18">
-        <f>[1]TechnologiesEmlab!F8</f>
-        <v>45</v>
-      </c>
-      <c r="H18">
-        <f>[1]TechnologiesEmlab!H8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" t="str">
         <f>[1]TechnologiesEmlab!A9</f>
         <v>OCGT</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19">
+        <f>[1]TechnologiesEmlab!C9</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>[1]TechnologiesEmlab!D9</f>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f>[1]TechnologiesEmlab!E9</f>
+        <v>30</v>
+      </c>
+      <c r="F19">
+        <f>[1]TechnologiesEmlab!F9</f>
+        <v>30</v>
+      </c>
+      <c r="I19" t="str">
         <f>[1]TechnologiesEmlab!B9</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D19">
-        <f>[1]TechnologiesEmlab!C9</f>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f>[1]TechnologiesEmlab!D9</f>
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <f>[1]TechnologiesEmlab!E9</f>
-        <v>30</v>
-      </c>
-      <c r="G19">
-        <f>[1]TechnologiesEmlab!F9</f>
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <f>[1]TechnologiesEmlab!H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" t="str">
         <f>[1]TechnologiesEmlab!A10</f>
         <v>Coal PSC</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20">
+        <f>[1]TechnologiesEmlab!C10</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>[1]TechnologiesEmlab!D10</f>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>[1]TechnologiesEmlab!E10</f>
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <f>[1]TechnologiesEmlab!F10</f>
+        <v>40</v>
+      </c>
+      <c r="I20" t="str">
         <f>[1]TechnologiesEmlab!B10</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D20">
-        <f>[1]TechnologiesEmlab!C10</f>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f>[1]TechnologiesEmlab!D10</f>
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <f>[1]TechnologiesEmlab!E10</f>
-        <v>40</v>
-      </c>
-      <c r="G20">
-        <f>[1]TechnologiesEmlab!F10</f>
-        <v>40</v>
-      </c>
-      <c r="H20">
-        <f>[1]TechnologiesEmlab!H10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" t="str">
         <f>[1]TechnologiesEmlab!A11</f>
         <v>Lignite PSC</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21">
+        <f>[1]TechnologiesEmlab!C11</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>[1]TechnologiesEmlab!D11</f>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f>[1]TechnologiesEmlab!E11</f>
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <f>[1]TechnologiesEmlab!F11</f>
+        <v>40</v>
+      </c>
+      <c r="I21" t="str">
         <f>[1]TechnologiesEmlab!B11</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D21">
-        <f>[1]TechnologiesEmlab!C11</f>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f>[1]TechnologiesEmlab!D11</f>
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <f>[1]TechnologiesEmlab!E11</f>
-        <v>40</v>
-      </c>
-      <c r="G21">
-        <f>[1]TechnologiesEmlab!F11</f>
-        <v>40</v>
-      </c>
-      <c r="H21">
-        <f>[1]TechnologiesEmlab!H11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" t="str">
         <f>[1]TechnologiesEmlab!A12</f>
         <v>Fuel oil PGT</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22">
+        <f>[1]TechnologiesEmlab!C12</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>[1]TechnologiesEmlab!D12</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>[1]TechnologiesEmlab!E12</f>
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <f>[1]TechnologiesEmlab!F12</f>
+        <v>25</v>
+      </c>
+      <c r="I22" t="str">
         <f>[1]TechnologiesEmlab!B12</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D22">
-        <f>[1]TechnologiesEmlab!C12</f>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f>[1]TechnologiesEmlab!D12</f>
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <f>[1]TechnologiesEmlab!E12</f>
-        <v>25</v>
-      </c>
-      <c r="G22">
-        <f>[1]TechnologiesEmlab!F12</f>
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <f>[1]TechnologiesEmlab!H12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" t="str">
         <f>[1]TechnologiesEmlab!A13</f>
         <v>Lithium_ion_battery</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23">
+        <f>[1]TechnologiesEmlab!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>[1]TechnologiesEmlab!D13</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>[1]TechnologiesEmlab!E13</f>
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>[1]TechnologiesEmlab!F13</f>
+        <v>20</v>
+      </c>
+      <c r="I23" t="str">
         <f>[1]TechnologiesEmlab!B13</f>
         <v>StorageTrader</v>
       </c>
-      <c r="D23">
-        <f>[1]TechnologiesEmlab!C13</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>[1]TechnologiesEmlab!D13</f>
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <f>[1]TechnologiesEmlab!E13</f>
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <f>[1]TechnologiesEmlab!F13</f>
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <f>[1]TechnologiesEmlab!H13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" t="str">
         <f>[1]TechnologiesEmlab!A14</f>
         <v>Pumped_hydro</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24">
+        <f>[1]TechnologiesEmlab!C14</f>
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <f>[1]TechnologiesEmlab!D14</f>
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f>[1]TechnologiesEmlab!E14</f>
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <f>[1]TechnologiesEmlab!F14</f>
+        <v>100</v>
+      </c>
+      <c r="I24" t="str">
         <f>[1]TechnologiesEmlab!B14</f>
         <v>StorageTrader</v>
       </c>
-      <c r="D24">
-        <f>[1]TechnologiesEmlab!C14</f>
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f>[1]TechnologiesEmlab!D14</f>
-        <v>4</v>
-      </c>
-      <c r="F24">
-        <f>[1]TechnologiesEmlab!E14</f>
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <f>[1]TechnologiesEmlab!F14</f>
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <f>[1]TechnologiesEmlab!H14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" t="str">
         <f>[1]TechnologiesEmlab!A15</f>
         <v>WTG_offshore</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25">
+        <f>[1]TechnologiesEmlab!C15</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>[1]TechnologiesEmlab!D15</f>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f>[1]TechnologiesEmlab!E15</f>
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <f>[1]TechnologiesEmlab!F15</f>
+        <v>30</v>
+      </c>
+      <c r="I25" t="str">
         <f>[1]TechnologiesEmlab!B15</f>
         <v>VariableRenewableOperator</v>
       </c>
-      <c r="D25">
-        <f>[1]TechnologiesEmlab!C15</f>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f>[1]TechnologiesEmlab!D15</f>
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <f>[1]TechnologiesEmlab!E15</f>
-        <v>30</v>
-      </c>
-      <c r="G25">
-        <f>[1]TechnologiesEmlab!F15</f>
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <f>[1]TechnologiesEmlab!H15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" t="str">
         <f>[1]TechnologiesEmlab!A16</f>
         <v>WTG_onshore</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26">
+        <f>[1]TechnologiesEmlab!C16</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>[1]TechnologiesEmlab!D16</f>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f>[1]TechnologiesEmlab!E16</f>
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <f>[1]TechnologiesEmlab!F16</f>
+        <v>25</v>
+      </c>
+      <c r="I26" t="str">
         <f>[1]TechnologiesEmlab!B16</f>
         <v>VariableRenewableOperator</v>
       </c>
-      <c r="D26">
-        <f>[1]TechnologiesEmlab!C16</f>
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <f>[1]TechnologiesEmlab!D16</f>
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <f>[1]TechnologiesEmlab!E16</f>
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <f>[1]TechnologiesEmlab!F16</f>
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <f>[1]TechnologiesEmlab!H16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" t="str">
         <f>[1]TechnologiesEmlab!A17</f>
         <v>PV_utility_systems</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27">
+        <f>[1]TechnologiesEmlab!C17</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>[1]TechnologiesEmlab!D17</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>[1]TechnologiesEmlab!E17</f>
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <f>[1]TechnologiesEmlab!F17</f>
+        <v>25</v>
+      </c>
+      <c r="I27" t="str">
         <f>[1]TechnologiesEmlab!B17</f>
         <v>VariableRenewableOperator</v>
       </c>
-      <c r="D27">
-        <f>[1]TechnologiesEmlab!C17</f>
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f>[1]TechnologiesEmlab!D17</f>
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <f>[1]TechnologiesEmlab!E17</f>
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <f>[1]TechnologiesEmlab!F17</f>
-        <v>25</v>
-      </c>
-      <c r="H27">
-        <f>[1]TechnologiesEmlab!H17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" t="str">
         <f>[1]TechnologiesEmlab!A18</f>
         <v>Hydropower_reservoir_medium</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28">
+        <f>[1]TechnologiesEmlab!C18</f>
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <f>[1]TechnologiesEmlab!D18</f>
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <f>[1]TechnologiesEmlab!E18</f>
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <f>[1]TechnologiesEmlab!F18</f>
+        <v>60</v>
+      </c>
+      <c r="I28" t="str">
         <f>[1]TechnologiesEmlab!B18</f>
         <v>VariableRenewableOperator</v>
       </c>
-      <c r="D28">
-        <f>[1]TechnologiesEmlab!C18</f>
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f>[1]TechnologiesEmlab!D18</f>
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <f>[1]TechnologiesEmlab!E18</f>
-        <v>60</v>
-      </c>
-      <c r="G28">
-        <f>[1]TechnologiesEmlab!F18</f>
-        <v>60</v>
-      </c>
-      <c r="H28">
-        <f>[1]TechnologiesEmlab!H18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" t="str">
         <f>[1]TechnologiesEmlab!A19</f>
         <v>hydrogen_turbine</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29">
+        <f>[1]TechnologiesEmlab!C19</f>
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <f>[1]TechnologiesEmlab!D19</f>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f>[1]TechnologiesEmlab!E19</f>
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <f>[1]TechnologiesEmlab!F19</f>
+        <v>30</v>
+      </c>
+      <c r="I29" t="str">
         <f>[1]TechnologiesEmlab!B19</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D29">
-        <f>[1]TechnologiesEmlab!C19</f>
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f>[1]TechnologiesEmlab!D19</f>
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>[1]TechnologiesEmlab!E19</f>
-        <v>30</v>
-      </c>
-      <c r="G29">
-        <f>[1]TechnologiesEmlab!F19</f>
-        <v>30</v>
-      </c>
-      <c r="H29">
-        <f>[1]TechnologiesEmlab!H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" t="str">
         <f>[1]TechnologiesEmlab!A20</f>
         <v>hydrogen_CHP</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30">
+        <f>[1]TechnologiesEmlab!C20</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>[1]TechnologiesEmlab!D20</f>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f>[1]TechnologiesEmlab!E20</f>
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f>[1]TechnologiesEmlab!F20</f>
+        <v>30</v>
+      </c>
+      <c r="I30" t="str">
         <f>[1]TechnologiesEmlab!B20</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="D30">
-        <f>[1]TechnologiesEmlab!C20</f>
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <f>[1]TechnologiesEmlab!D20</f>
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <f>[1]TechnologiesEmlab!E20</f>
-        <v>30</v>
-      </c>
-      <c r="G30">
-        <f>[1]TechnologiesEmlab!F20</f>
-        <v>30</v>
-      </c>
-      <c r="H30">
-        <f>[1]TechnologiesEmlab!H20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31" t="str">
         <f>[1]TechnologiesEmlab!A21</f>
         <v>hydrogen_combined_cycle</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31">
+        <f>[1]TechnologiesEmlab!C21</f>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f>[1]TechnologiesEmlab!D21</f>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f>[1]TechnologiesEmlab!E21</f>
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f>[1]TechnologiesEmlab!F21</f>
+        <v>30</v>
+      </c>
+      <c r="I31" t="str">
         <f>[1]TechnologiesEmlab!B21</f>
         <v>ConventionalPlantOperator</v>
-      </c>
-      <c r="D31">
-        <f>[1]TechnologiesEmlab!C21</f>
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f>[1]TechnologiesEmlab!D21</f>
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <f>[1]TechnologiesEmlab!E21</f>
-        <v>30</v>
-      </c>
-      <c r="G31">
-        <f>[1]TechnologiesEmlab!F21</f>
-        <v>30</v>
-      </c>
-      <c r="H31">
-        <f>[1]TechnologiesEmlab!H21</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -7095,8 +7018,8 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7146,6 +7069,9 @@
       <c r="D1">
         <v>2050</v>
       </c>
+      <c r="E1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -7189,7 +7115,7 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7220,7 +7146,7 @@
         <v>6.73</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7251,7 +7177,7 @@
         <v>32.83</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7296,7 +7222,7 @@
         <v>14.65</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7341,7 +7267,7 @@
         <v>45.1</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7377,12 +7303,12 @@
     </row>
     <row r="25" spans="3:15">
       <c r="L25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="3:15">
       <c r="L26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="3:15">
@@ -7457,7 +7383,7 @@
         <v>2.4</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="3:16">
@@ -7474,7 +7400,7 @@
         <v>119.04761904761904</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="3:16">
@@ -7496,9 +7422,9 @@
   </sheetPr>
   <dimension ref="A1:AH75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7524,7 +7450,7 @@
         <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -7934,7 +7860,7 @@
         <v>350000</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -7956,7 +7882,7 @@
         <v>1444000</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -7978,7 +7904,7 @@
         <v>1127000</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447A2DE8-1553-4471-A555-8ADE7C9A208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE893D1-76EE-4D54-90F7-2A91E9250872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="-20370" windowWidth="26130" windowHeight="16590" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="216">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -655,19 +655,67 @@
     <t>MW</t>
   </si>
   <si>
-    <t>lifetime</t>
-  </si>
-  <si>
-    <t>permit time</t>
-  </si>
-  <si>
-    <t>construction time</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
     <t>ENTSOE GA</t>
+  </si>
+  <si>
+    <t>Realistic capacity [MW]</t>
+  </si>
+  <si>
+    <t>permit time [y]</t>
+  </si>
+  <si>
+    <t>construction time [y]</t>
+  </si>
+  <si>
+    <t>lifetime [y]</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Investment costs [Eur/MW]</t>
+  </si>
+  <si>
+    <t>Efficiency [%]</t>
+  </si>
+  <si>
+    <t>Fixed costs [Eur/Mwh/year]</t>
+  </si>
+  <si>
+    <t>Variable costs [Eur/MWh]</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>VOLL [Eur/MWh]</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrogen </t>
+  </si>
+  <si>
+    <t>Percentage demand</t>
   </si>
 </sst>
 </file>
@@ -883,7 +931,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -941,6 +989,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -995,7 +1056,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1039,6 +1100,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="31"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -4137,13 +4201,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>153707</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>54402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>578437</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>120798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4277,9 +4341,6 @@
           <cell r="B1" t="str">
             <v>Technology</v>
           </cell>
-          <cell r="D1" t="str">
-            <v>Realistic_capacity</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="B2" t="str">
@@ -4329,12 +4390,25 @@
             <v>300</v>
           </cell>
         </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>PV_residential</v>
+          </cell>
+          <cell r="D8">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Nuclear</v>
+          </cell>
+          <cell r="D9">
+            <v>1000</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="9">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>traderes technology</v>
-          </cell>
           <cell r="B1" t="str">
             <v>type</v>
           </cell>
@@ -4673,47 +4747,47 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Hydropower_reservoir_medium</v>
+            <v>PV_residential</v>
           </cell>
           <cell r="B18" t="str">
             <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C18">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="D18">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E18">
-            <v>60</v>
+            <v>25</v>
           </cell>
           <cell r="F18">
-            <v>60</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>hydrogen_turbine</v>
+            <v>Hydropower_reservoir_medium</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C19">
             <v>2</v>
           </cell>
           <cell r="D19">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E19">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="F19">
-            <v>30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>hydrogen_CHP</v>
+            <v>hydrogen_turbine</v>
           </cell>
           <cell r="B20" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4728,26 +4802,6 @@
             <v>30</v>
           </cell>
           <cell r="F20">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>hydrogen_combined_cycle</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>ConventionalPlantOperator</v>
-          </cell>
-          <cell r="C21">
-            <v>2</v>
-          </cell>
-          <cell r="D21">
-            <v>2</v>
-          </cell>
-          <cell r="E21">
-            <v>30</v>
-          </cell>
-          <cell r="F21">
             <v>30</v>
           </cell>
         </row>
@@ -4833,7 +4887,7 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>DutchElectricitySpotMarket</v>
+            <v>ElectricitySpotMarketNL</v>
           </cell>
           <cell r="B3">
             <v>4000</v>
@@ -4846,15 +4900,6 @@
           <cell r="A1" t="str">
             <v>Name</v>
           </cell>
-          <cell r="B1" t="str">
-            <v>VOLL</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>TimeSeriesFile</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>TimeSeriesFileFuture</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -4863,9 +4908,6 @@
           <cell r="B2">
             <v>4000</v>
           </cell>
-          <cell r="C2" t="str">
-            <v>amiris-config/data/load.csv</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -4874,9 +4916,6 @@
           <cell r="B3">
             <v>1500</v>
           </cell>
-          <cell r="C3" t="str">
-            <v>amiris-config/data/LS_high.csv</v>
-          </cell>
           <cell r="F3">
             <v>0.1</v>
           </cell>
@@ -4888,9 +4927,6 @@
           <cell r="B4">
             <v>500</v>
           </cell>
-          <cell r="C4" t="str">
-            <v>amiris-config/data/LS_mid.csv</v>
-          </cell>
           <cell r="F4">
             <v>0.05</v>
           </cell>
@@ -4902,9 +4938,6 @@
           <cell r="B5">
             <v>250</v>
           </cell>
-          <cell r="C5" t="str">
-            <v>amiris-config/data/LS_low.csv</v>
-          </cell>
           <cell r="F5">
             <v>0.05</v>
           </cell>
@@ -4915,12 +4948,6 @@
           </cell>
           <cell r="B6">
             <v>33.374000000000002</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>amiris-config/data/LS_hydrogen_high.csv</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>amiris-config/data/LS_hydrogen.csv</v>
           </cell>
         </row>
       </sheetData>
@@ -5883,21 +5910,21 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5910,18 +5937,17 @@
         <f>[1]CandidatePowerPlants!B1</f>
         <v>Technology</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f>[1]CandidatePowerPlants!D1</f>
-        <v>Realistic_capacity</v>
+      <c r="C2" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5934,15 +5960,15 @@
         <v>100</v>
       </c>
       <c r="D3" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),2)</f>
+        <f t="shared" ref="D3:D4" si="0">INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),2)</f>
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),3)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),3)</f>
         <v>1</v>
       </c>
       <c r="F3" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B3,$B$12:$B$31,0),4)</f>
+        <f t="shared" ref="F3:F4" si="1">INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),4)</f>
         <v>20</v>
       </c>
     </row>
@@ -5956,59 +5982,59 @@
         <v>500</v>
       </c>
       <c r="D4" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),3)</f>
+        <f t="shared" ref="E4" si="2">INDEX($B$14:$F$33,MATCH(B4,$B$14:$B$33,0),3)</f>
         <v>2</v>
       </c>
       <c r="F4" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B4,$B$12:$B$31,0),4)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="6" t="str">
-        <f>[1]CandidatePowerPlants!B4</f>
-        <v>hydrogen_turbine</v>
+        <f>[1]CandidatePowerPlants!B5</f>
+        <v>PV_utility_systems</v>
       </c>
       <c r="C5" s="6">
-        <f>[1]CandidatePowerPlants!D4</f>
-        <v>500</v>
+        <f>[1]CandidatePowerPlants!D5</f>
+        <v>350</v>
       </c>
       <c r="D5" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),2)</f>
-        <v>2</v>
+        <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),2)</f>
+        <v>1</v>
       </c>
       <c r="E5" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),3)</f>
-        <v>2</v>
+        <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),3)</f>
+        <v>1</v>
       </c>
       <c r="F5" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B5,$B$12:$B$31,0),4)</f>
-        <v>30</v>
+        <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),4)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="6" t="str">
-        <f>[1]CandidatePowerPlants!B5</f>
-        <v>PV_utility_systems</v>
+        <f>[1]CandidatePowerPlants!B8</f>
+        <v>PV_residential</v>
       </c>
       <c r="C6" s="6">
-        <f>[1]CandidatePowerPlants!D5</f>
-        <v>350</v>
+        <f>[1]CandidatePowerPlants!D8</f>
+        <v>300</v>
       </c>
       <c r="D6" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),2)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),2)</f>
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),3)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),3)</f>
         <v>1</v>
       </c>
       <c r="F6" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B6,$B$12:$B$31,0),4)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),4)</f>
         <v>25</v>
       </c>
     </row>
@@ -6022,15 +6048,15 @@
         <v>250</v>
       </c>
       <c r="D7" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),2)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),2)</f>
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),3)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),3)</f>
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B7,$B$12:$B$31,0),4)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),4)</f>
         <v>25</v>
       </c>
     </row>
@@ -6044,767 +6070,741 @@
         <v>300</v>
       </c>
       <c r="D8" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),2)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),2)</f>
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),3)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),3)</f>
         <v>3</v>
       </c>
       <c r="F8" s="6">
-        <f>INDEX($B$12:$F$31,MATCH(B8,$B$12:$B$31,0),4)</f>
+        <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),4)</f>
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="J9" s="5"/>
+      <c r="B9" s="6" t="str">
+        <f>[1]CandidatePowerPlants!B4</f>
+        <v>hydrogen_turbine</v>
+      </c>
+      <c r="C9" s="6">
+        <f>[1]CandidatePowerPlants!D4</f>
+        <v>500</v>
+      </c>
+      <c r="D9" s="6">
+        <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),2)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),4)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="B10" s="6" t="str">
+        <f>[1]CandidatePowerPlants!B9</f>
+        <v>Nuclear</v>
+      </c>
+      <c r="C10" s="6">
+        <f>[1]CandidatePowerPlants!D9</f>
+        <v>1000</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10" si="3">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),2)</f>
         <v>2</v>
       </c>
+      <c r="E10" s="6">
+        <f t="shared" ref="E10" si="4">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),3)</f>
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10" si="5">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),4)</f>
+        <v>45</v>
+      </c>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" t="str">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" t="str">
         <f>[1]TechnologiesEmlab!C1</f>
         <v>expectedPermittime</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D13" t="str">
         <f>[1]TechnologiesEmlab!D1</f>
         <v>expectedLeadtime</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E13" t="str">
         <f>[1]TechnologiesEmlab!E1</f>
         <v>lifetime_economic</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F13" t="str">
         <f>[1]TechnologiesEmlab!F1</f>
         <v>lifetime_technical</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I13" t="str">
         <f>[1]TechnologiesEmlab!B1</f>
         <v>type</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="str">
+    <row r="14" spans="1:10">
+      <c r="B14" t="str">
         <f>[1]TechnologiesEmlab!A2</f>
         <v>Biomass_CHP_wood_pellets_DH</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <f>[1]TechnologiesEmlab!C2</f>
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <f>[1]TechnologiesEmlab!D2</f>
         <v>3</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <f>[1]TechnologiesEmlab!E2</f>
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <f>[1]TechnologiesEmlab!F2</f>
         <v>30</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I14" t="str">
         <f>[1]TechnologiesEmlab!B2</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="str">
+    <row r="15" spans="1:10">
+      <c r="B15" t="str">
         <f>[1]TechnologiesEmlab!A3</f>
         <v>Biomass_CHP_wood_pellets_PH</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <f>[1]TechnologiesEmlab!C3</f>
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f>[1]TechnologiesEmlab!D3</f>
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f>[1]TechnologiesEmlab!E3</f>
         <v>20</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f>[1]TechnologiesEmlab!F3</f>
         <v>20</v>
       </c>
-      <c r="I13" t="str">
+      <c r="I15" t="str">
         <f>[1]TechnologiesEmlab!B3</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="str">
+    <row r="16" spans="1:10">
+      <c r="B16" t="str">
         <f>[1]TechnologiesEmlab!A4</f>
         <v>CCGT</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <f>[1]TechnologiesEmlab!C4</f>
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <f>[1]TechnologiesEmlab!D4</f>
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <f>[1]TechnologiesEmlab!E4</f>
         <v>30</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <f>[1]TechnologiesEmlab!F4</f>
         <v>30</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I16" t="str">
         <f>[1]TechnologiesEmlab!B4</f>
         <v>ConventionalPlantOperator</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="str">
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="str">
         <f>[1]TechnologiesEmlab!A5</f>
         <v>CCGT_CHP_backpressure_DH</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <f>[1]TechnologiesEmlab!C5</f>
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <f>[1]TechnologiesEmlab!D5</f>
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <f>[1]TechnologiesEmlab!E5</f>
         <v>30</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f>[1]TechnologiesEmlab!F5</f>
         <v>30</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I17" t="str">
         <f>[1]TechnologiesEmlab!B5</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="str">
+    <row r="18" spans="2:9">
+      <c r="B18" t="str">
         <f>[1]TechnologiesEmlab!A6</f>
         <v>CCGT_CHP_backpressure_PH</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <f>[1]TechnologiesEmlab!C6</f>
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <f>[1]TechnologiesEmlab!D6</f>
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <f>[1]TechnologiesEmlab!E6</f>
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f>[1]TechnologiesEmlab!F6</f>
         <v>20</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I18" t="str">
         <f>[1]TechnologiesEmlab!B6</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="str">
+    <row r="19" spans="2:9">
+      <c r="B19" t="str">
         <f>[1]TechnologiesEmlab!A7</f>
         <v>CCS</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <f>[1]TechnologiesEmlab!C7</f>
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <f>[1]TechnologiesEmlab!D7</f>
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <f>[1]TechnologiesEmlab!E7</f>
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f>[1]TechnologiesEmlab!F7</f>
         <v>20</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I19" t="str">
         <f>[1]TechnologiesEmlab!B7</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="str">
+    <row r="20" spans="2:9">
+      <c r="B20" t="str">
         <f>[1]TechnologiesEmlab!A8</f>
         <v>Nuclear</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <f>[1]TechnologiesEmlab!C8</f>
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <f>[1]TechnologiesEmlab!D8</f>
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <f>[1]TechnologiesEmlab!E8</f>
         <v>45</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f>[1]TechnologiesEmlab!F8</f>
         <v>45</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I20" t="str">
         <f>[1]TechnologiesEmlab!B8</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="str">
+    <row r="21" spans="2:9">
+      <c r="B21" t="str">
         <f>[1]TechnologiesEmlab!A9</f>
         <v>OCGT</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <f>[1]TechnologiesEmlab!C9</f>
         <v>1</v>
       </c>
-      <c r="D19">
+      <c r="D21">
         <f>[1]TechnologiesEmlab!D9</f>
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <f>[1]TechnologiesEmlab!E9</f>
         <v>30</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f>[1]TechnologiesEmlab!F9</f>
         <v>30</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I21" t="str">
         <f>[1]TechnologiesEmlab!B9</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="str">
+    <row r="22" spans="2:9">
+      <c r="B22" t="str">
         <f>[1]TechnologiesEmlab!A10</f>
         <v>Coal PSC</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <f>[1]TechnologiesEmlab!C10</f>
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <f>[1]TechnologiesEmlab!D10</f>
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <f>[1]TechnologiesEmlab!E10</f>
         <v>40</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <f>[1]TechnologiesEmlab!F10</f>
         <v>40</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I22" t="str">
         <f>[1]TechnologiesEmlab!B10</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="str">
+    <row r="23" spans="2:9">
+      <c r="B23" t="str">
         <f>[1]TechnologiesEmlab!A11</f>
         <v>Lignite PSC</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <f>[1]TechnologiesEmlab!C11</f>
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <f>[1]TechnologiesEmlab!D11</f>
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <f>[1]TechnologiesEmlab!E11</f>
         <v>40</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f>[1]TechnologiesEmlab!F11</f>
         <v>40</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I23" t="str">
         <f>[1]TechnologiesEmlab!B11</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="str">
+    <row r="24" spans="2:9">
+      <c r="B24" t="str">
         <f>[1]TechnologiesEmlab!A12</f>
         <v>Fuel oil PGT</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <f>[1]TechnologiesEmlab!C12</f>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <f>[1]TechnologiesEmlab!D12</f>
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <f>[1]TechnologiesEmlab!E12</f>
         <v>25</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <f>[1]TechnologiesEmlab!F12</f>
         <v>25</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I24" t="str">
         <f>[1]TechnologiesEmlab!B12</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="str">
+    <row r="25" spans="2:9">
+      <c r="B25" t="str">
         <f>[1]TechnologiesEmlab!A13</f>
         <v>Lithium_ion_battery</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <f>[1]TechnologiesEmlab!C13</f>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D25">
         <f>[1]TechnologiesEmlab!D13</f>
         <v>1</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f>[1]TechnologiesEmlab!E13</f>
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <f>[1]TechnologiesEmlab!F13</f>
         <v>20</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I25" t="str">
         <f>[1]TechnologiesEmlab!B13</f>
         <v>StorageTrader</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="str">
+    <row r="26" spans="2:9">
+      <c r="B26" t="str">
         <f>[1]TechnologiesEmlab!A14</f>
         <v>Pumped_hydro</v>
       </c>
-      <c r="C24">
+      <c r="C26">
         <f>[1]TechnologiesEmlab!C14</f>
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <f>[1]TechnologiesEmlab!D14</f>
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <f>[1]TechnologiesEmlab!E14</f>
         <v>100</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <f>[1]TechnologiesEmlab!F14</f>
         <v>100</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I26" t="str">
         <f>[1]TechnologiesEmlab!B14</f>
         <v>StorageTrader</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="str">
+    <row r="27" spans="2:9">
+      <c r="B27" t="str">
         <f>[1]TechnologiesEmlab!A15</f>
         <v>WTG_offshore</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <f>[1]TechnologiesEmlab!C15</f>
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <f>[1]TechnologiesEmlab!D15</f>
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <f>[1]TechnologiesEmlab!E15</f>
         <v>30</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <f>[1]TechnologiesEmlab!F15</f>
         <v>30</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I27" t="str">
         <f>[1]TechnologiesEmlab!B15</f>
         <v>VariableRenewableOperator</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="str">
+    <row r="28" spans="2:9">
+      <c r="B28" t="str">
         <f>[1]TechnologiesEmlab!A16</f>
         <v>WTG_onshore</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <f>[1]TechnologiesEmlab!C16</f>
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <f>[1]TechnologiesEmlab!D16</f>
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <f>[1]TechnologiesEmlab!E16</f>
         <v>25</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <f>[1]TechnologiesEmlab!F16</f>
         <v>25</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I28" t="str">
         <f>[1]TechnologiesEmlab!B16</f>
         <v>VariableRenewableOperator</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="str">
+    <row r="29" spans="2:9">
+      <c r="B29" t="str">
         <f>[1]TechnologiesEmlab!A17</f>
         <v>PV_utility_systems</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <f>[1]TechnologiesEmlab!C17</f>
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <f>[1]TechnologiesEmlab!D17</f>
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <f>[1]TechnologiesEmlab!E17</f>
         <v>25</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <f>[1]TechnologiesEmlab!F17</f>
         <v>25</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I29" t="str">
         <f>[1]TechnologiesEmlab!B17</f>
         <v>VariableRenewableOperator</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="str">
+    <row r="30" spans="2:9">
+      <c r="B30" t="str">
         <f>[1]TechnologiesEmlab!A18</f>
-        <v>Hydropower_reservoir_medium</v>
-      </c>
-      <c r="C28">
+        <v>PV_residential</v>
+      </c>
+      <c r="C30">
         <f>[1]TechnologiesEmlab!C18</f>
-        <v>2</v>
-      </c>
-      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <f>[1]TechnologiesEmlab!D18</f>
-        <v>5</v>
-      </c>
-      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <f>[1]TechnologiesEmlab!E18</f>
-        <v>60</v>
-      </c>
-      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="F30">
         <f>[1]TechnologiesEmlab!F18</f>
-        <v>60</v>
-      </c>
-      <c r="I28" t="str">
+        <v>25</v>
+      </c>
+      <c r="I30" t="str">
         <f>[1]TechnologiesEmlab!B18</f>
         <v>VariableRenewableOperator</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" t="str">
+    <row r="31" spans="2:9">
+      <c r="B31" t="str">
         <f>[1]TechnologiesEmlab!A19</f>
-        <v>hydrogen_turbine</v>
-      </c>
-      <c r="C29">
+        <v>Hydropower_reservoir_medium</v>
+      </c>
+      <c r="C31">
         <f>[1]TechnologiesEmlab!C19</f>
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <f>[1]TechnologiesEmlab!D19</f>
-        <v>2</v>
-      </c>
-      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <f>[1]TechnologiesEmlab!E19</f>
-        <v>30</v>
-      </c>
-      <c r="F29">
+        <v>60</v>
+      </c>
+      <c r="F31">
         <f>[1]TechnologiesEmlab!F19</f>
-        <v>30</v>
-      </c>
-      <c r="I29" t="str">
+        <v>60</v>
+      </c>
+      <c r="I31" t="str">
         <f>[1]TechnologiesEmlab!B19</f>
-        <v>ConventionalPlantOperator</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" t="str">
+        <v>VariableRenewableOperator</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" t="str">
         <f>[1]TechnologiesEmlab!A20</f>
-        <v>hydrogen_CHP</v>
-      </c>
-      <c r="C30">
+        <v>hydrogen_turbine</v>
+      </c>
+      <c r="C32">
         <f>[1]TechnologiesEmlab!C20</f>
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <f>[1]TechnologiesEmlab!D20</f>
         <v>2</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <f>[1]TechnologiesEmlab!E20</f>
         <v>30</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <f>[1]TechnologiesEmlab!F20</f>
         <v>30</v>
       </c>
-      <c r="I30" t="str">
+      <c r="I32" t="str">
         <f>[1]TechnologiesEmlab!B20</f>
         <v>ConventionalPlantOperator</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" t="str">
-        <f>[1]TechnologiesEmlab!A21</f>
-        <v>hydrogen_combined_cycle</v>
-      </c>
-      <c r="C31">
-        <f>[1]TechnologiesEmlab!C21</f>
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f>[1]TechnologiesEmlab!D21</f>
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f>[1]TechnologiesEmlab!E21</f>
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <f>[1]TechnologiesEmlab!F21</f>
-        <v>30</v>
-      </c>
-      <c r="I31" t="str">
-        <f>[1]TechnologiesEmlab!B21</f>
-        <v>ConventionalPlantOperator</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="3" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="B35" t="s">
+    <row r="40" spans="1:11">
+      <c r="B40" t="s">
         <v>6</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D40">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="C36" t="s">
+    <row r="41" spans="1:11">
+      <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D36">
+      <c r="D41">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="B40" t="str">
+    <row r="45" spans="1:11">
+      <c r="B45" t="str">
         <f>[1]EnergyProducers!A1</f>
         <v>Name</v>
       </c>
-      <c r="C40" t="str">
+      <c r="C45" t="str">
         <f>[1]EnergyProducers!B1</f>
         <v>investorMarket</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D45" t="str">
         <f>[1]EnergyProducers!C1</f>
         <v>priceMarkUp</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E45" t="str">
         <f>[1]EnergyProducers!D1</f>
         <v>willingToInvest</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F45" t="str">
         <f>[1]EnergyProducers!E1</f>
         <v>downpaymentFractionOfCash</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G45" t="str">
         <f>[1]EnergyProducers!F1</f>
         <v>dismantlingRequiredOperatingProfit</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H45" t="str">
         <f>[1]EnergyProducers!H1</f>
         <v>loanInterestRate</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I45" t="str">
         <f>[1]EnergyProducers!I1</f>
         <v>equityInterestRate</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J45" t="str">
         <f>[1]EnergyProducers!J1</f>
         <v>longTermContractPastTimeHorizon</v>
       </c>
-      <c r="K40" t="str">
+      <c r="K45" t="str">
         <f>[1]EnergyProducers!K1</f>
         <v>longTermContractMargin</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="B41" t="str">
+    <row r="46" spans="1:11">
+      <c r="B46" t="str">
         <f>[1]EnergyProducers!A3</f>
         <v>ProducerNL</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C46" t="str">
         <f>[1]EnergyProducers!B3</f>
         <v>DutchElectricitySpotMarket</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <f>[1]EnergyProducers!C3</f>
         <v>0</v>
       </c>
-      <c r="E41" t="b">
+      <c r="E46" t="b">
         <f>[1]EnergyProducers!D3</f>
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <f>[1]EnergyProducers!E3</f>
         <v>0.5</v>
       </c>
-      <c r="G41">
+      <c r="G46">
         <f>[1]EnergyProducers!F3</f>
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H46">
         <f>[1]EnergyProducers!H3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I41">
+      <c r="I46">
         <f>[1]EnergyProducers!I3</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J41">
+      <c r="J46">
         <f>[1]EnergyProducers!J3</f>
         <v>3</v>
       </c>
-      <c r="K41">
+      <c r="K46">
         <f>[1]EnergyProducers!K3</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="B45" t="str">
+    <row r="50" spans="1:8">
+      <c r="B50" t="str">
         <f>[1]ElectricitySpotMarkets!A1</f>
         <v>Name</v>
       </c>
-      <c r="C45" t="str">
+      <c r="C50" t="str">
         <f>[1]ElectricitySpotMarkets!B1</f>
         <v>valueOfLostLoad</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="B46" t="str">
+    <row r="51" spans="1:8">
+      <c r="B51" t="str">
         <f>[1]ElectricitySpotMarkets!A3</f>
-        <v>DutchElectricitySpotMarket</v>
-      </c>
-      <c r="C46">
+        <v>ElectricitySpotMarketNL</v>
+      </c>
+      <c r="C51">
         <f>[1]ElectricitySpotMarkets!B3</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8">
+    <row r="55" spans="1:8">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6813,7 +6813,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="1:8">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6822,7 +6822,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="1:8">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6831,7 +6831,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="1:8">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6840,7 +6840,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="1:8">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6849,7 +6849,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="1:8">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6908,30 +6908,45 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="1"/>
@@ -7004,6 +7019,36 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7018,42 +7063,42 @@
   </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7070,7 +7115,7 @@
         <v>2050</v>
       </c>
       <c r="E1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7115,7 +7160,7 @@
         <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7146,7 +7191,7 @@
         <v>6.73</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7177,7 +7222,7 @@
         <v>32.83</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7222,7 +7267,7 @@
         <v>14.65</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7298,20 +7343,55 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
-      <c r="C23" s="26"/>
-    </row>
-    <row r="25" spans="3:15">
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25">
+        <v>35</v>
+      </c>
       <c r="L25" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="1:15">
       <c r="L26" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="1:15">
       <c r="M28" s="20">
         <v>2030</v>
       </c>
@@ -7322,7 +7402,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="1:15">
       <c r="M29" s="20">
         <v>20.63</v>
       </c>
@@ -7333,7 +7413,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="1:15">
       <c r="M30" s="28">
         <f>M29*3.6</f>
         <v>74.268000000000001</v>
@@ -7347,13 +7427,13 @@
         <v>45.072000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="1:15">
       <c r="J31" s="27"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="1:15">
       <c r="C32" s="26"/>
       <c r="J32" s="27"/>
       <c r="M32" s="20"/>
@@ -7420,29 +7500,29 @@
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J49" sqref="J49"/>
+      <selection pane="topRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.6328125" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" customWidth="1"/>
-    <col min="19" max="19" width="21.36328125" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -8244,55 +8324,54 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C50" s="6">
-        <v>2030</v>
-      </c>
-      <c r="D50" s="6">
-        <v>2050</v>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23">
-        <v>108000</v>
+        <v>187</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2030</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2050</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" s="23"/>
-      <c r="C52" s="23">
-        <v>50000</v>
-      </c>
-      <c r="D52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23">
+        <v>108000</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23">
-        <v>27800</v>
-      </c>
-      <c r="D53" s="23">
-        <v>26000</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23">
@@ -8304,147 +8383,149 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="23">
         <v>27800</v>
       </c>
-      <c r="D55" s="23"/>
+      <c r="D55" s="23">
+        <v>26000</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23">
-        <v>32000</v>
+        <v>27800</v>
       </c>
       <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23">
-        <v>1000</v>
-      </c>
-      <c r="D57" s="23">
-        <v>800</v>
-      </c>
+        <v>32000</v>
+      </c>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B58" s="23"/>
       <c r="C58" s="23">
-        <v>13450</v>
+        <v>1000</v>
       </c>
       <c r="D58" s="23">
-        <v>13425</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23">
-        <v>14950</v>
+        <v>13450</v>
       </c>
       <c r="D59" s="23">
-        <v>14850</v>
+        <v>13425</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="23">
-        <v>111166.3</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B60" s="23"/>
       <c r="C60" s="23">
-        <v>100000</v>
-      </c>
-      <c r="D60" s="23"/>
+        <v>14950</v>
+      </c>
+      <c r="D60" s="23">
+        <v>14850</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="B61" s="23">
+        <v>111166.3</v>
+      </c>
       <c r="C61" s="23">
-        <v>7745</v>
-      </c>
-      <c r="D61" s="23">
-        <v>7423</v>
-      </c>
+        <v>100000</v>
+      </c>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="C62" s="23">
+        <v>7745</v>
+      </c>
       <c r="D62" s="23">
-        <v>40000</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
       <c r="D63" s="23">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23">
-        <v>11250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23">
-        <v>8700</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23">
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B67" s="23">
-        <v>61528.160000000003</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="B68" s="23">
         <v>61528.160000000003</v>
@@ -8452,97 +8533,285 @@
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B69" s="23">
-        <v>8575</v>
+        <v>61528.160000000003</v>
       </c>
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="6" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B70" s="23">
-        <v>16000</v>
+        <v>8575</v>
       </c>
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="23">
+        <v>16000</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23">
-        <f>(C73+C72)/2</f>
-        <v>10300</v>
-      </c>
-      <c r="D71" s="23">
-        <f>(D73+D72)/2</f>
-        <v>9300</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="23">
-        <v>12300</v>
+        <f>(C74+C73)/2</f>
+        <v>10300</v>
       </c>
       <c r="D72" s="23">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <f>(D74+D73)/2</f>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="6" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="23">
-        <v>8300</v>
+        <v>12300</v>
       </c>
       <c r="D73" s="23">
-        <v>7600</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23">
-        <v>30500</v>
+        <v>8300</v>
       </c>
       <c r="D74" s="23">
-        <v>24700</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="23">
+        <v>30500</v>
+      </c>
+      <c r="D75" s="23">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23">
         <v>14700</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D76" s="23">
         <v>12900</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="30">
+        <f>INDEX($B$3:$D$26,MATCH(A81,$A$3:$A$26,0),3)</f>
+        <v>1020000</v>
+      </c>
+      <c r="C81" s="6">
+        <f t="shared" ref="C81:C88" si="0">INDEX($B$30:$D$49,MATCH(A81,$A$30:$A$49,0),1)</f>
+        <v>1.8</v>
+      </c>
+      <c r="D81" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A81,$A$52:$A$76,0),3)</f>
+        <v>800</v>
+      </c>
+      <c r="E81" s="31">
+        <f t="shared" ref="E81:E88" si="1">INDEX($B$30:$D$49,MATCH(A81,$A$30:$A$49,0),2)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="30">
+        <f t="shared" ref="B82:B87" si="2">INDEX($B$3:$D$26,MATCH(A82,$A$3:$A$26,0),3)</f>
+        <v>1444000</v>
+      </c>
+      <c r="C82" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A82,$A$52:$A$76,0),3)</f>
+        <v>24700</v>
+      </c>
+      <c r="E82" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="30">
+        <f t="shared" si="2"/>
+        <v>350000</v>
+      </c>
+      <c r="C83" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A83,$A$52:$A$76,0),3)</f>
+        <v>7600</v>
+      </c>
+      <c r="E83" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="30">
+        <f t="shared" si="2"/>
+        <v>688000</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A84,$A$52:$A$76,0),3)</f>
+        <v>11000</v>
+      </c>
+      <c r="E84" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="30">
+        <f t="shared" si="2"/>
+        <v>1127000</v>
+      </c>
+      <c r="C85" s="6">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="D85" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A85,$A$52:$A$76,0),3)</f>
+        <v>12900</v>
+      </c>
+      <c r="E85" s="31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="30">
+        <v>2040000</v>
+      </c>
+      <c r="C86" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="D86" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E86" s="31">
+        <f t="shared" si="1"/>
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="30">
+        <f t="shared" si="2"/>
+        <v>435000</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="D87" s="6">
+        <f>INDEX($B$52:$D$76,MATCH(A87,$A$52:$A$76,0),3)</f>
+        <v>8700</v>
+      </c>
+      <c r="E87" s="31">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="30">
+        <v>6000000</v>
+      </c>
+      <c r="C88" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D88" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E88" s="31">
+        <f t="shared" si="1"/>
+        <v>0.28499999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A26">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A30:A48">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A26">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:A75">
+  <conditionalFormatting sqref="A52:A76">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8552,150 +8821,123 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" customWidth="1"/>
-    <col min="3" max="3" width="53.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="str">
         <f>[1]LoadShedders!A1</f>
         <v>Name</v>
       </c>
-      <c r="B1" t="str">
-        <f>[1]LoadShedders!B1</f>
-        <v>VOLL</v>
-      </c>
-      <c r="C1" t="str">
-        <f>[1]LoadShedders!C1</f>
-        <v>TimeSeriesFile</v>
-      </c>
-      <c r="D1" t="str">
-        <f>[1]LoadShedders!D1</f>
-        <v>TimeSeriesFileFuture</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>[1]LoadShedders!A2</f>
         <v>base</v>
       </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2">
         <f>[1]LoadShedders!B2</f>
         <v>4000</v>
       </c>
-      <c r="C2" t="str">
-        <f>[1]LoadShedders!C2</f>
-        <v>amiris-config/data/load.csv</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="str">
         <f>[1]LoadShedders!A3</f>
         <v>high</v>
       </c>
-      <c r="B3">
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3">
         <f>[1]LoadShedders!B3</f>
         <v>1500</v>
       </c>
-      <c r="C3" t="str">
-        <f>[1]LoadShedders!C3</f>
-        <v>amiris-config/data/LS_high.csv</v>
+      <c r="E3" s="15">
+        <v>0.1</v>
       </c>
       <c r="F3">
         <f>[1]LoadShedders!F3</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="str">
         <f>[1]LoadShedders!A4</f>
         <v>mid</v>
       </c>
-      <c r="B4">
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4">
         <f>[1]LoadShedders!B4</f>
         <v>500</v>
       </c>
-      <c r="C4" t="str">
-        <f>[1]LoadShedders!C4</f>
-        <v>amiris-config/data/LS_mid.csv</v>
+      <c r="E4" s="15">
+        <v>0.05</v>
       </c>
       <c r="F4">
         <f>[1]LoadShedders!F4</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="str">
         <f>[1]LoadShedders!A5</f>
         <v>low</v>
       </c>
-      <c r="B5">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5">
         <f>[1]LoadShedders!B5</f>
         <v>250</v>
       </c>
-      <c r="C5" t="str">
-        <f>[1]LoadShedders!C5</f>
-        <v>amiris-config/data/LS_low.csv</v>
+      <c r="E5" s="15">
+        <v>0.05</v>
       </c>
       <c r="F5">
         <f>[1]LoadShedders!F5</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="str">
         <f>[1]LoadShedders!A6</f>
         <v>hydrogen</v>
       </c>
-      <c r="B6">
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="26">
         <f>[1]LoadShedders!B6</f>
         <v>33.374000000000002</v>
       </c>
-      <c r="C6" t="str">
-        <f>[1]LoadShedders!C6</f>
-        <v>amiris-config/data/LS_hydrogen_high.csv</v>
-      </c>
-      <c r="D6" t="str">
-        <f>[1]LoadShedders!D6</f>
-        <v>amiris-config/data/LS_hydrogen.csv</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <f>[1]LoadShedders!A7</f>
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <f>[1]LoadShedders!B7</f>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>[1]LoadShedders!C7</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>[1]LoadShedders!D7</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>184</v>
       </c>
@@ -8705,13 +8947,19 @@
       <c r="C8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>186</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -8727,12 +8975,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -8980,17 +9228,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.81640625" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9862,7 +10110,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -9897,7 +10145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15">
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -9926,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15">
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -9961,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15">
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -9993,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15">
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -10022,7 +10270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15">
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -10051,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -10080,7 +10328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -10112,7 +10360,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15">
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -10144,7 +10392,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15">
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -10176,7 +10424,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -10208,7 +10456,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15">
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -10240,7 +10488,7 @@
         <v>6882.0720000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15">
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -10272,7 +10520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -10304,7 +10552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15">
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -10348,7 +10596,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15">
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -10389,7 +10637,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15">
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -10433,7 +10681,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15">
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -10474,7 +10722,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15">
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -10509,7 +10757,7 @@
         <v>344.82641033966041</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15">
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -10544,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15">
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -10588,7 +10836,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15">
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -10629,7 +10877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15">
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -10673,7 +10921,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15">
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -10714,7 +10962,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15">
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -10758,7 +11006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15">
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -10799,7 +11047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15">
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -10840,7 +11088,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -10881,7 +11129,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15">
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -10925,7 +11173,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -10966,7 +11214,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15">
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -11010,7 +11258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15">
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -11051,7 +11299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15">
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -11080,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15">
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -11112,7 +11360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -11144,7 +11392,7 @@
         <v>1773.915272638189</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15">
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -11176,7 +11424,7 @@
         <v>17739.15272638189</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15">
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -11208,7 +11456,7 @@
         <v>5321.745817914566</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15">
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -11252,7 +11500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15">
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -11475,17 +11723,17 @@
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="9" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" customWidth="1"/>
-    <col min="12" max="34" width="2.453125" customWidth="1"/>
-    <col min="35" max="35" width="4.08984375" customWidth="1"/>
-    <col min="36" max="39" width="2.453125" customWidth="1"/>
-    <col min="40" max="40" width="7.6328125" customWidth="1"/>
-    <col min="41" max="44" width="1.7265625" customWidth="1"/>
-    <col min="45" max="45" width="6.26953125" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="34" width="2.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" customWidth="1"/>
+    <col min="36" max="39" width="2.42578125" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" customWidth="1"/>
+    <col min="41" max="44" width="1.7109375" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -12495,12 +12743,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE893D1-76EE-4D54-90F7-2A91E9250872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952579B-BA45-438F-84CD-652A5E12AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="738" activeTab="3" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="29760" yWindow="-15285" windowWidth="21600" windowHeight="11325" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
-    <sheet name="fuelprices" sheetId="1" r:id="rId2"/>
-    <sheet name="investmentCosts" sheetId="3" r:id="rId3"/>
-    <sheet name="loadshedders" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
-    <sheet name="traderes" sheetId="6" r:id="rId6"/>
-    <sheet name="minimum NPV" sheetId="5" r:id="rId7"/>
-    <sheet name="capacityFactors" sheetId="4" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="fuelprices" sheetId="1" r:id="rId3"/>
+    <sheet name="investmentCosts" sheetId="3" r:id="rId4"/>
+    <sheet name="loadshedders" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
+    <sheet name="traderes" sheetId="6" r:id="rId7"/>
+    <sheet name="minimum NPV" sheetId="5" r:id="rId8"/>
+    <sheet name="capacityFactors" sheetId="4" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">traderes!$E$2:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">traderes!$E$2:$O$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="231">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -716,6 +717,51 @@
   </si>
   <si>
     <t>Percentage demand</t>
+  </si>
+  <si>
+    <t>Demand increase</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Increasing-demand</t>
+  </si>
+  <si>
+    <t>stochastic</t>
+  </si>
+  <si>
+    <t>Stochastic-profiles</t>
+  </si>
+  <si>
+    <t>Fix-profiles</t>
+  </si>
+  <si>
+    <t>Investments based on extreme weather</t>
+  </si>
+  <si>
+    <t>Number of simulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low vRES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median vRES </t>
+  </si>
+  <si>
+    <t>High vRES</t>
+  </si>
+  <si>
+    <t>Scenario name</t>
+  </si>
+  <si>
+    <t>Energy and demand profile years realized</t>
+  </si>
+  <si>
+    <t>Energy and demand profile year for investment</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1102,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1103,6 +1149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -4301,6 +4353,7 @@
       <sheetName val="dictvariables"/>
       <sheetName val="CapacityMarkets"/>
       <sheetName val="StrategicReserveOperator"/>
+      <sheetName val="peakLoad"/>
       <sheetName val="Fuels"/>
       <sheetName val="FuelPriceTrends"/>
       <sheetName val="CandidatePowerPlants"/>
@@ -4336,7 +4389,8 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="B1" t="str">
             <v>Technology</v>
@@ -4407,7 +4461,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
+      <sheetData sheetId="10">
         <row r="1">
           <cell r="B1" t="str">
             <v>type</v>
@@ -4806,11 +4860,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4819,27 +4873,21 @@
             <v>investorMarket</v>
           </cell>
           <cell r="C1" t="str">
-            <v>priceMarkUp</v>
+            <v>willingToInvest</v>
           </cell>
           <cell r="D1" t="str">
-            <v>willingToInvest</v>
+            <v>dismantlingRequiredOperatingProfit</v>
           </cell>
           <cell r="E1" t="str">
-            <v>downpaymentFractionOfCash</v>
+            <v>debtRatioOfInvestments</v>
           </cell>
           <cell r="F1" t="str">
-            <v>dismantlingRequiredOperatingProfit</v>
+            <v>loanInterestRate</v>
           </cell>
           <cell r="H1" t="str">
-            <v>loanInterestRate</v>
+            <v>longTermContractPastTimeHorizon</v>
           </cell>
           <cell r="I1" t="str">
-            <v>equityInterestRate</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>longTermContractPastTimeHorizon</v>
-          </cell>
-          <cell r="K1" t="str">
             <v>longTermContractMargin</v>
           </cell>
         </row>
@@ -4848,35 +4896,29 @@
             <v>ProducerNL</v>
           </cell>
           <cell r="B3" t="str">
-            <v>DutchElectricitySpotMarket</v>
-          </cell>
-          <cell r="C3">
+            <v>ElectricitySpotMarketNL</v>
+          </cell>
+          <cell r="C3" t="b">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
             <v>0</v>
           </cell>
-          <cell r="D3" t="b">
-            <v>1</v>
-          </cell>
           <cell r="E3">
-            <v>0.5</v>
+            <v>0.7</v>
           </cell>
           <cell r="F3">
-            <v>0</v>
+            <v>7.0000000000000007E-2</v>
           </cell>
           <cell r="H3">
-            <v>7.0000000000000007E-2</v>
+            <v>3</v>
           </cell>
           <cell r="I3">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="J3">
-            <v>3</v>
-          </cell>
-          <cell r="K3">
             <v>0.1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15">
+      <sheetData sheetId="16">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4894,8 +4936,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17">
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
             <v>Name</v>
@@ -4951,7 +4993,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
@@ -4964,6 +5005,7 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5916,15 +5958,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6698,35 +6740,35 @@
       </c>
       <c r="D45" t="str">
         <f>[1]EnergyProducers!C1</f>
-        <v>priceMarkUp</v>
+        <v>willingToInvest</v>
       </c>
       <c r="E45" t="str">
         <f>[1]EnergyProducers!D1</f>
-        <v>willingToInvest</v>
+        <v>dismantlingRequiredOperatingProfit</v>
       </c>
       <c r="F45" t="str">
         <f>[1]EnergyProducers!E1</f>
-        <v>downpaymentFractionOfCash</v>
+        <v>debtRatioOfInvestments</v>
       </c>
       <c r="G45" t="str">
         <f>[1]EnergyProducers!F1</f>
-        <v>dismantlingRequiredOperatingProfit</v>
+        <v>loanInterestRate</v>
       </c>
       <c r="H45" t="str">
         <f>[1]EnergyProducers!H1</f>
-        <v>loanInterestRate</v>
+        <v>longTermContractPastTimeHorizon</v>
       </c>
       <c r="I45" t="str">
         <f>[1]EnergyProducers!I1</f>
-        <v>equityInterestRate</v>
-      </c>
-      <c r="J45" t="str">
+        <v>longTermContractMargin</v>
+      </c>
+      <c r="J45">
         <f>[1]EnergyProducers!J1</f>
-        <v>longTermContractPastTimeHorizon</v>
-      </c>
-      <c r="K45" t="str">
+        <v>0</v>
+      </c>
+      <c r="K45">
         <f>[1]EnergyProducers!K1</f>
-        <v>longTermContractMargin</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -6736,39 +6778,39 @@
       </c>
       <c r="C46" t="str">
         <f>[1]EnergyProducers!B3</f>
-        <v>DutchElectricitySpotMarket</v>
-      </c>
-      <c r="D46">
+        <v>ElectricitySpotMarketNL</v>
+      </c>
+      <c r="D46" t="b">
         <f>[1]EnergyProducers!C3</f>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>[1]EnergyProducers!D3</f>
         <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <f>[1]EnergyProducers!D3</f>
-        <v>1</v>
       </c>
       <c r="F46">
         <f>[1]EnergyProducers!E3</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G46">
         <f>[1]EnergyProducers!F3</f>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H46">
         <f>[1]EnergyProducers!H3</f>
-        <v>7.0000000000000007E-2</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <f>[1]EnergyProducers!I3</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J46">
         <f>[1]EnergyProducers!J3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <f>[1]EnergyProducers!K3</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7057,6 +7099,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3632514B-ABC6-4169-8B9E-B369CFE6C343}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91ADA03-C099-48D6-AB3F-B988B7AFF0A3}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
@@ -7067,38 +7249,38 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7495,7 +7677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
@@ -7507,22 +7689,22 @@
       <selection pane="topRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5703125" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
-    <col min="19" max="19" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="1.5546875" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -8819,21 +9001,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8967,7 +9149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
   <dimension ref="A3:D25"/>
   <sheetViews>
@@ -8975,12 +9157,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -9220,7 +9402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EFBB4-B33A-4767-8E25-52F1EB2A92EE}">
   <dimension ref="A1:X100"/>
   <sheetViews>
@@ -9228,17 +9410,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.88671875" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -11715,7 +11897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12919C5-07FE-4AE2-AA9E-FE62D2303B6B}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
@@ -11723,17 +11905,17 @@
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="34" width="2.42578125" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" customWidth="1"/>
-    <col min="36" max="39" width="2.42578125" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" customWidth="1"/>
-    <col min="41" max="44" width="1.7109375" customWidth="1"/>
-    <col min="45" max="45" width="6.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
+    <col min="12" max="34" width="2.44140625" customWidth="1"/>
+    <col min="35" max="35" width="4.109375" customWidth="1"/>
+    <col min="36" max="39" width="2.44140625" customWidth="1"/>
+    <col min="40" max="40" width="7.5546875" customWidth="1"/>
+    <col min="41" max="44" width="1.6640625" customWidth="1"/>
+    <col min="45" max="45" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -12735,7 +12917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -12743,12 +12925,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952579B-BA45-438F-84CD-652A5E12AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7210BC-9508-40C9-A5D9-DAF40C660788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-15285" windowWidth="21600" windowHeight="11325" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="Papertables" sheetId="9" r:id="rId2"/>
     <sheet name="fuelprices" sheetId="1" r:id="rId3"/>
     <sheet name="investmentCosts" sheetId="3" r:id="rId4"/>
     <sheet name="loadshedders" sheetId="8" r:id="rId5"/>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="15" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="267">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -728,18 +728,9 @@
     <t>no</t>
   </si>
   <si>
-    <t>Increasing-demand</t>
-  </si>
-  <si>
     <t>stochastic</t>
   </si>
   <si>
-    <t>Stochastic-profiles</t>
-  </si>
-  <si>
-    <t>Fix-profiles</t>
-  </si>
-  <si>
     <t>Investments based on extreme weather</t>
   </si>
   <si>
@@ -758,10 +749,159 @@
     <t>Scenario name</t>
   </si>
   <si>
-    <t>Energy and demand profile years realized</t>
-  </si>
-  <si>
-    <t>Energy and demand profile year for investment</t>
+    <t>Weather profile year for investment</t>
+  </si>
+  <si>
+    <t>Weather profile years for dispatch</t>
+  </si>
+  <si>
+    <t>Number of weather years for dispatch</t>
+  </si>
+  <si>
+    <t>Impact of weather variability</t>
+  </si>
+  <si>
+    <t>Simulation name</t>
+  </si>
+  <si>
+    <t>High hydrogen price</t>
+  </si>
+  <si>
+    <t>Hydrogen price</t>
+  </si>
+  <si>
+    <t>45 €/MWh</t>
+  </si>
+  <si>
+    <t>90 €/MWh</t>
+  </si>
+  <si>
+    <t>Low vRES (EL)</t>
+  </si>
+  <si>
+    <t>High vRES (EH)</t>
+  </si>
+  <si>
+    <t>High hydrogen price (HH)</t>
+  </si>
+  <si>
+    <t>Median vRES (EM)</t>
+  </si>
+  <si>
+    <t>Baseline (B)</t>
+  </si>
+  <si>
+    <t>Increasing-demand (ID)</t>
+  </si>
+  <si>
+    <t>Stochastic-profiles (SP)</t>
+  </si>
+  <si>
+    <t>Load shedding​</t>
+  </si>
+  <si>
+    <t>Hydrogen​</t>
+  </si>
+  <si>
+    <t>Industrial heat load​</t>
+  </si>
+  <si>
+    <t>Load shifting​</t>
+  </si>
+  <si>
+    <t>Heat pump load​</t>
+  </si>
+  <si>
+    <t>Yearly demand as a function of temperature and hour of the day​</t>
+  </si>
+  <si>
+    <t>EV load​</t>
+  </si>
+  <si>
+    <t>According to projected EV shares​</t>
+  </si>
+  <si>
+    <t>Characteristics</t>
+  </si>
+  <si>
+    <t>Constant demand, limited by electrolyzer capacity as well as prices</t>
+  </si>
+  <si>
+    <t>load-shifting unit with an opportunity cost-based price cap</t>
+  </si>
+  <si>
+    <r>
+      <t>Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of flexibility</t>
+    </r>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Type of flexibility</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>Sheddable</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Industrial heat</t>
+  </si>
+  <si>
+    <t>Shiftable</t>
+  </si>
+  <si>
+    <t>Inflexible</t>
+  </si>
+  <si>
+    <t>Household and others</t>
+  </si>
+  <si>
+    <t>Partly sheddable</t>
+  </si>
+  <si>
+    <t>EV + heat pump + household + commercial + industrial</t>
   </si>
 </sst>
 </file>
@@ -777,7 +917,7 @@
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +1065,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5D6879"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1102,7 +1274,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1152,9 +1324,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -4989,7 +5172,7 @@
             <v>hydrogen</v>
           </cell>
           <cell r="B6">
-            <v>33.374000000000002</v>
+            <v>66.748000000000005</v>
           </cell>
         </row>
       </sheetData>
@@ -5512,7 +5695,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5955,7 +6138,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7100,137 +7283,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3632514B-ABC6-4169-8B9E-B369CFE6C343}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.21875" customWidth="1"/>
+    <col min="11" max="11" width="67.77734375" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:13" ht="23.4">
+      <c r="A2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3">
+        <v>0.45635560706442235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4">
+        <v>0.1322461625216583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A5" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>40</v>
+      </c>
+      <c r="E5" s="6">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>40</v>
+      </c>
+      <c r="H5" s="6">
+        <v>40</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M5">
+        <v>4.307958095190436E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6">
+        <v>6.1060639474064503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A7" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="M7">
+        <f>SUM(M3:M6)</f>
+        <v>0.6927419900120495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D8" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F8" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>218</v>
       </c>
+      <c r="H8" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.2" customHeight="1">
+      <c r="A9" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>B9</f>
+        <v>45 €/MWh</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" ref="D9:G9" si="0">C9</f>
+        <v>45 €/MWh</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>45 €/MWh</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>45 €/MWh</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>45 €/MWh</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="J10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10">
+        <v>6.1709734562087906E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="K11" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11">
+        <v>0.34968849585183148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="J13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="36"/>
+      <c r="D18" s="38"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="36"/>
+      <c r="D19" s="38"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="D20" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7684,7 +8103,7 @@
   </sheetPr>
   <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="R69" sqref="R69"/>
     </sheetView>
@@ -9006,7 +9425,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9116,7 +9535,7 @@
       </c>
       <c r="D6" s="26">
         <f>[1]LoadShedders!B6</f>
-        <v>33.374000000000002</v>
+        <v>66.748000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9406,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EFBB4-B33A-4767-8E25-52F1EB2A92EE}">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7210BC-9508-40C9-A5D9-DAF40C660788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BCB6DA-0C67-4FAB-BD8B-3E3411CABFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="738" activeTab="2" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
     <sheet name="Papertables" sheetId="9" r:id="rId2"/>
-    <sheet name="fuelprices" sheetId="1" r:id="rId3"/>
-    <sheet name="investmentCosts" sheetId="3" r:id="rId4"/>
-    <sheet name="loadshedders" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
-    <sheet name="traderes" sheetId="6" r:id="rId7"/>
-    <sheet name="minimum NPV" sheetId="5" r:id="rId8"/>
-    <sheet name="capacityFactors" sheetId="4" r:id="rId9"/>
+    <sheet name="Papertables2" sheetId="10" r:id="rId3"/>
+    <sheet name="fuelprices" sheetId="1" r:id="rId4"/>
+    <sheet name="investmentCosts" sheetId="3" r:id="rId5"/>
+    <sheet name="loadshedders" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="traderes" sheetId="6" r:id="rId8"/>
+    <sheet name="minimum NPV" sheetId="5" r:id="rId9"/>
+    <sheet name="capacityFactors" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">traderes!$E$2:$O$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">traderes!$E$2:$O$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="283">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -903,6 +904,54 @@
   <si>
     <t>EV + heat pump + household + commercial + industrial</t>
   </si>
+  <si>
+    <t xml:space="preserve">technical potential </t>
+  </si>
+  <si>
+    <t>debt ratio</t>
+  </si>
+  <si>
+    <t>loan interest rate</t>
+  </si>
+  <si>
+    <t>equity rate</t>
+  </si>
+  <si>
+    <t>peak consumption industrial load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average monthly consumption </t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t>WTG onshore</t>
+  </si>
+  <si>
+    <t>PV residential</t>
+  </si>
+  <si>
+    <t>PV utility systems</t>
+  </si>
+  <si>
+    <t>WTG offshore</t>
+  </si>
+  <si>
+    <t>Technology potential</t>
+  </si>
+  <si>
+    <t>[GW]</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>Min capacity factor</t>
+  </si>
+  <si>
+    <t>Max capacity factor</t>
+  </si>
 </sst>
 </file>
 
@@ -917,7 +966,7 @@
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,8 +1147,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1148,8 +1211,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1220,8 +1289,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
@@ -1273,8 +1360,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1330,16 +1418,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="48">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
     <cellStyle name="Comma 2 2" xfId="2" xr:uid="{2D36A77B-84A6-4F23-B407-DDCE657F2D5A}"/>
     <cellStyle name="Comma 2 2 2" xfId="3" xr:uid="{6BFF97E2-3164-4486-BE09-C1F8C1247DFA}"/>
@@ -1365,6 +1464,7 @@
     <cellStyle name="Erklärender Text 2" xfId="22" xr:uid="{16B5E726-F32D-49C2-B3E2-A59856C18188}"/>
     <cellStyle name="Erklärender Text 3" xfId="23" xr:uid="{95C43FCD-A35A-44CA-8512-7D5ECDA1BA7D}"/>
     <cellStyle name="Hyperlink 2" xfId="24" xr:uid="{C262B46D-33D0-4604-BC12-986AB5F2C802}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="47" xr:uid="{177DDA59-A178-415D-BF4E-177FF6B0C247}"/>
     <cellStyle name="Hyperlink 3" xfId="25" xr:uid="{9FAE3638-CF4C-4A4B-97D8-8195168313E7}"/>
     <cellStyle name="Hyperlink 4" xfId="45" xr:uid="{A1EAD505-80F4-47B9-8A67-8287E0ED2D12}"/>
     <cellStyle name="Komma 2" xfId="26" xr:uid="{7E5E5C32-B386-425D-8F84-1D32D657BCAA}"/>
@@ -1490,7 +1590,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3369,7 +3469,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3407,7 +3507,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402286687"/>
@@ -3469,7 +3569,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="749431311"/>
@@ -3521,7 +3621,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3558,7 +3658,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4564,15 +4664,15 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="1">
           <cell r="B1" t="str">
@@ -4581,7 +4681,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>Lithium_ion_battery</v>
+            <v>Lithium ion battery</v>
           </cell>
           <cell r="D2">
             <v>100</v>
@@ -4589,7 +4689,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>WTG_offshore</v>
+            <v>Wind Offshore</v>
           </cell>
           <cell r="D3">
             <v>500</v>
@@ -4597,7 +4697,7 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>hydrogen_turbine</v>
+            <v>hydrogen turbine</v>
           </cell>
           <cell r="D4">
             <v>500</v>
@@ -4605,7 +4705,7 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>PV_utility_systems</v>
+            <v>Solar PV large</v>
           </cell>
           <cell r="D5">
             <v>350</v>
@@ -4613,7 +4713,7 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>WTG_onshore</v>
+            <v>Wind Onshore</v>
           </cell>
           <cell r="D6">
             <v>250</v>
@@ -4621,7 +4721,7 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>Biomass_CHP_wood_pellets_DH</v>
+            <v>Biofuel</v>
           </cell>
           <cell r="D7">
             <v>300</v>
@@ -4629,7 +4729,7 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>PV_residential</v>
+            <v>Solar PV rooftop</v>
           </cell>
           <cell r="D8">
             <v>300</v>
@@ -4664,7 +4764,7 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>Biomass_CHP_wood_pellets_DH</v>
+            <v>Biofuel</v>
           </cell>
           <cell r="B2" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4684,7 +4784,7 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Biomass_CHP_wood_pellets_PH</v>
+            <v>CCGT</v>
           </cell>
           <cell r="B3" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4693,38 +4793,38 @@
             <v>1</v>
           </cell>
           <cell r="D3">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="E3">
-            <v>20</v>
+            <v>30</v>
           </cell>
           <cell r="F3">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>CCGT</v>
+            <v>Nuclear</v>
           </cell>
           <cell r="B4" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D4">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E4">
-            <v>30</v>
+            <v>45</v>
           </cell>
           <cell r="F4">
-            <v>30</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>CCGT_CHP_backpressure_DH</v>
+            <v>OCGT</v>
           </cell>
           <cell r="B5" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4744,7 +4844,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CCGT_CHP_backpressure_PH</v>
+            <v>Coal PSC</v>
           </cell>
           <cell r="B6" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4753,18 +4853,18 @@
             <v>1</v>
           </cell>
           <cell r="D6">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="E6">
-            <v>20</v>
+            <v>40</v>
           </cell>
           <cell r="F6">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>CCS</v>
+            <v>Lignite PSC</v>
           </cell>
           <cell r="B7" t="str">
             <v>ConventionalPlantOperator</v>
@@ -4773,101 +4873,101 @@
             <v>1</v>
           </cell>
           <cell r="D7">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E7">
-            <v>20</v>
+            <v>40</v>
           </cell>
           <cell r="F7">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Nuclear</v>
+            <v>Fuel oil PGT</v>
           </cell>
           <cell r="B8" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C8">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="D8">
-            <v>5</v>
+            <v>1</v>
           </cell>
           <cell r="E8">
-            <v>45</v>
+            <v>25</v>
           </cell>
           <cell r="F8">
-            <v>45</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>OCGT</v>
+            <v>Lithium ion battery</v>
           </cell>
           <cell r="B9" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>StorageTrader</v>
           </cell>
           <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
             <v>1</v>
           </cell>
-          <cell r="D9">
-            <v>2</v>
-          </cell>
           <cell r="E9">
-            <v>30</v>
+            <v>20</v>
           </cell>
           <cell r="F9">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Coal PSC</v>
+            <v>Pumped hydro</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>StorageTrader</v>
           </cell>
           <cell r="C10">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="D10">
             <v>4</v>
           </cell>
           <cell r="E10">
-            <v>40</v>
+            <v>100</v>
           </cell>
           <cell r="F10">
-            <v>40</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Lignite PSC</v>
+            <v>Wind Offshore</v>
           </cell>
           <cell r="B11" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C11">
             <v>1</v>
           </cell>
           <cell r="D11">
-            <v>5</v>
+            <v>2</v>
           </cell>
           <cell r="E11">
-            <v>40</v>
+            <v>30</v>
           </cell>
           <cell r="F11">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Fuel oil PGT</v>
+            <v>Wind Onshore</v>
           </cell>
           <cell r="B12" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C12">
             <v>1</v>
@@ -4884,169 +4984,169 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Lithium_ion_battery</v>
+            <v>Solar PV large</v>
           </cell>
           <cell r="B13" t="str">
-            <v>StorageTrader</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="D13">
             <v>1</v>
           </cell>
           <cell r="E13">
-            <v>20</v>
+            <v>25</v>
           </cell>
           <cell r="F13">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Pumped_hydro</v>
+            <v>Solar PV rooftop</v>
           </cell>
           <cell r="B14" t="str">
-            <v>StorageTrader</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C14">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="D14">
-            <v>4</v>
+            <v>1</v>
           </cell>
           <cell r="E14">
-            <v>100</v>
+            <v>25</v>
           </cell>
           <cell r="F14">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>WTG_offshore</v>
+            <v>Hydropower</v>
           </cell>
           <cell r="B15" t="str">
             <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D15">
-            <v>2</v>
+            <v>5</v>
           </cell>
           <cell r="E15">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="F15">
-            <v>30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>WTG_onshore</v>
+            <v>hydrogen turbine</v>
           </cell>
           <cell r="B16" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C16">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D16">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E16">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F16">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>PV_utility_systems</v>
+            <v>hydrogen CHP</v>
           </cell>
           <cell r="B17" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C17">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D17">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E17">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F17">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>PV_residential</v>
+            <v>hydrogen combined cycle</v>
           </cell>
           <cell r="B18" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C18">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="D18">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="E18">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F18">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Hydropower_reservoir_medium</v>
+            <v>CCGT_CHP_backpressure_DH</v>
           </cell>
           <cell r="B19" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C19">
+            <v>1</v>
+          </cell>
+          <cell r="D19">
             <v>2</v>
           </cell>
-          <cell r="D19">
-            <v>5</v>
-          </cell>
           <cell r="E19">
-            <v>60</v>
+            <v>30</v>
           </cell>
           <cell r="F19">
-            <v>60</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>hydrogen_turbine</v>
+            <v>CCGT_CHP_backpressure_PH</v>
           </cell>
           <cell r="B20" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C20">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="D20">
             <v>2</v>
           </cell>
           <cell r="E20">
-            <v>30</v>
+            <v>20</v>
           </cell>
           <cell r="F20">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
@@ -5119,7 +5219,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
@@ -5171,24 +5271,24 @@
           <cell r="A6" t="str">
             <v>hydrogen</v>
           </cell>
-          <cell r="B6">
-            <v>66.748000000000005</v>
+          <cell r="B6" t="str">
+            <v>-</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5695,7 +5795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -6137,19 +6237,19 @@
   </sheetPr>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -6178,7 +6278,7 @@
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="str">
         <f>[1]CandidatePowerPlants!B2</f>
-        <v>Lithium_ion_battery</v>
+        <v>Lithium ion battery</v>
       </c>
       <c r="C3" s="6">
         <f>[1]CandidatePowerPlants!D2</f>
@@ -6200,7 +6300,7 @@
     <row r="4" spans="1:10">
       <c r="B4" s="6" t="str">
         <f>[1]CandidatePowerPlants!B3</f>
-        <v>WTG_offshore</v>
+        <v>Wind Offshore</v>
       </c>
       <c r="C4" s="6">
         <f>[1]CandidatePowerPlants!D3</f>
@@ -6222,7 +6322,7 @@
     <row r="5" spans="1:10">
       <c r="B5" s="6" t="str">
         <f>[1]CandidatePowerPlants!B5</f>
-        <v>PV_utility_systems</v>
+        <v>Solar PV large</v>
       </c>
       <c r="C5" s="6">
         <f>[1]CandidatePowerPlants!D5</f>
@@ -6244,7 +6344,7 @@
     <row r="6" spans="1:10">
       <c r="B6" s="6" t="str">
         <f>[1]CandidatePowerPlants!B8</f>
-        <v>PV_residential</v>
+        <v>Solar PV rooftop</v>
       </c>
       <c r="C6" s="6">
         <f>[1]CandidatePowerPlants!D8</f>
@@ -6266,7 +6366,7 @@
     <row r="7" spans="1:10">
       <c r="B7" s="6" t="str">
         <f>[1]CandidatePowerPlants!B6</f>
-        <v>WTG_onshore</v>
+        <v>Wind Onshore</v>
       </c>
       <c r="C7" s="6">
         <f>[1]CandidatePowerPlants!D6</f>
@@ -6288,7 +6388,7 @@
     <row r="8" spans="1:10">
       <c r="B8" s="6" t="str">
         <f>[1]CandidatePowerPlants!B7</f>
-        <v>Biomass_CHP_wood_pellets_DH</v>
+        <v>Biofuel</v>
       </c>
       <c r="C8" s="6">
         <f>[1]CandidatePowerPlants!D7</f>
@@ -6310,7 +6410,7 @@
     <row r="9" spans="1:10">
       <c r="B9" s="6" t="str">
         <f>[1]CandidatePowerPlants!B4</f>
-        <v>hydrogen_turbine</v>
+        <v>hydrogen turbine</v>
       </c>
       <c r="C9" s="6">
         <f>[1]CandidatePowerPlants!D4</f>
@@ -6386,7 +6486,7 @@
     <row r="14" spans="1:10">
       <c r="B14" t="str">
         <f>[1]TechnologiesEmlab!A2</f>
-        <v>Biomass_CHP_wood_pellets_DH</v>
+        <v>Biofuel</v>
       </c>
       <c r="C14">
         <f>[1]TechnologiesEmlab!C2</f>
@@ -6412,7 +6512,7 @@
     <row r="15" spans="1:10">
       <c r="B15" t="str">
         <f>[1]TechnologiesEmlab!A3</f>
-        <v>Biomass_CHP_wood_pellets_PH</v>
+        <v>CCGT</v>
       </c>
       <c r="C15">
         <f>[1]TechnologiesEmlab!C3</f>
@@ -6420,15 +6520,15 @@
       </c>
       <c r="D15">
         <f>[1]TechnologiesEmlab!D3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <f>[1]TechnologiesEmlab!E3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <f>[1]TechnologiesEmlab!F3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I15" t="str">
         <f>[1]TechnologiesEmlab!B3</f>
@@ -6438,23 +6538,23 @@
     <row r="16" spans="1:10">
       <c r="B16" t="str">
         <f>[1]TechnologiesEmlab!A4</f>
-        <v>CCGT</v>
+        <v>Nuclear</v>
       </c>
       <c r="C16">
         <f>[1]TechnologiesEmlab!C4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f>[1]TechnologiesEmlab!D4</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f>[1]TechnologiesEmlab!E4</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <f>[1]TechnologiesEmlab!F4</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I16" t="str">
         <f>[1]TechnologiesEmlab!B4</f>
@@ -6465,7 +6565,7 @@
     <row r="17" spans="2:9">
       <c r="B17" t="str">
         <f>[1]TechnologiesEmlab!A5</f>
-        <v>CCGT_CHP_backpressure_DH</v>
+        <v>OCGT</v>
       </c>
       <c r="C17">
         <f>[1]TechnologiesEmlab!C5</f>
@@ -6491,7 +6591,7 @@
     <row r="18" spans="2:9">
       <c r="B18" t="str">
         <f>[1]TechnologiesEmlab!A6</f>
-        <v>CCGT_CHP_backpressure_PH</v>
+        <v>Coal PSC</v>
       </c>
       <c r="C18">
         <f>[1]TechnologiesEmlab!C6</f>
@@ -6499,15 +6599,15 @@
       </c>
       <c r="D18">
         <f>[1]TechnologiesEmlab!D6</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <f>[1]TechnologiesEmlab!E6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <f>[1]TechnologiesEmlab!F6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I18" t="str">
         <f>[1]TechnologiesEmlab!B6</f>
@@ -6517,7 +6617,7 @@
     <row r="19" spans="2:9">
       <c r="B19" t="str">
         <f>[1]TechnologiesEmlab!A7</f>
-        <v>CCS</v>
+        <v>Lignite PSC</v>
       </c>
       <c r="C19">
         <f>[1]TechnologiesEmlab!C7</f>
@@ -6525,15 +6625,15 @@
       </c>
       <c r="D19">
         <f>[1]TechnologiesEmlab!D7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <f>[1]TechnologiesEmlab!E7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <f>[1]TechnologiesEmlab!F7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I19" t="str">
         <f>[1]TechnologiesEmlab!B7</f>
@@ -6543,23 +6643,23 @@
     <row r="20" spans="2:9">
       <c r="B20" t="str">
         <f>[1]TechnologiesEmlab!A8</f>
-        <v>Nuclear</v>
+        <v>Fuel oil PGT</v>
       </c>
       <c r="C20">
         <f>[1]TechnologiesEmlab!C8</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f>[1]TechnologiesEmlab!D8</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <f>[1]TechnologiesEmlab!E8</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <f>[1]TechnologiesEmlab!F8</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I20" t="str">
         <f>[1]TechnologiesEmlab!B8</f>
@@ -6569,37 +6669,37 @@
     <row r="21" spans="2:9">
       <c r="B21" t="str">
         <f>[1]TechnologiesEmlab!A9</f>
-        <v>OCGT</v>
+        <v>Lithium ion battery</v>
       </c>
       <c r="C21">
         <f>[1]TechnologiesEmlab!C9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f>[1]TechnologiesEmlab!D9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <f>[1]TechnologiesEmlab!E9</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <f>[1]TechnologiesEmlab!F9</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I21" t="str">
         <f>[1]TechnologiesEmlab!B9</f>
-        <v>ConventionalPlantOperator</v>
+        <v>StorageTrader</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="str">
         <f>[1]TechnologiesEmlab!A10</f>
-        <v>Coal PSC</v>
+        <v>Pumped hydro</v>
       </c>
       <c r="C22">
         <f>[1]TechnologiesEmlab!C10</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f>[1]TechnologiesEmlab!D10</f>
@@ -6607,21 +6707,21 @@
       </c>
       <c r="E22">
         <f>[1]TechnologiesEmlab!E10</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <f>[1]TechnologiesEmlab!F10</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I22" t="str">
         <f>[1]TechnologiesEmlab!B10</f>
-        <v>ConventionalPlantOperator</v>
+        <v>StorageTrader</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="str">
         <f>[1]TechnologiesEmlab!A11</f>
-        <v>Lignite PSC</v>
+        <v>Wind Offshore</v>
       </c>
       <c r="C23">
         <f>[1]TechnologiesEmlab!C11</f>
@@ -6629,25 +6729,25 @@
       </c>
       <c r="D23">
         <f>[1]TechnologiesEmlab!D11</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <f>[1]TechnologiesEmlab!E11</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <f>[1]TechnologiesEmlab!F11</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I23" t="str">
         <f>[1]TechnologiesEmlab!B11</f>
-        <v>ConventionalPlantOperator</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="str">
         <f>[1]TechnologiesEmlab!A12</f>
-        <v>Fuel oil PGT</v>
+        <v>Wind Onshore</v>
       </c>
       <c r="C24">
         <f>[1]TechnologiesEmlab!C12</f>
@@ -6667,17 +6767,17 @@
       </c>
       <c r="I24" t="str">
         <f>[1]TechnologiesEmlab!B12</f>
-        <v>ConventionalPlantOperator</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="str">
         <f>[1]TechnologiesEmlab!A13</f>
-        <v>Lithium_ion_battery</v>
+        <v>Solar PV large</v>
       </c>
       <c r="C25">
         <f>[1]TechnologiesEmlab!C13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f>[1]TechnologiesEmlab!D13</f>
@@ -6685,63 +6785,63 @@
       </c>
       <c r="E25">
         <f>[1]TechnologiesEmlab!E13</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <f>[1]TechnologiesEmlab!F13</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25" t="str">
         <f>[1]TechnologiesEmlab!B13</f>
-        <v>StorageTrader</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="str">
         <f>[1]TechnologiesEmlab!A14</f>
-        <v>Pumped_hydro</v>
+        <v>Solar PV rooftop</v>
       </c>
       <c r="C26">
         <f>[1]TechnologiesEmlab!C14</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f>[1]TechnologiesEmlab!D14</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <f>[1]TechnologiesEmlab!E14</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <f>[1]TechnologiesEmlab!F14</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I26" t="str">
         <f>[1]TechnologiesEmlab!B14</f>
-        <v>StorageTrader</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="str">
         <f>[1]TechnologiesEmlab!A15</f>
-        <v>WTG_offshore</v>
+        <v>Hydropower</v>
       </c>
       <c r="C27">
         <f>[1]TechnologiesEmlab!C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <f>[1]TechnologiesEmlab!D15</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <f>[1]TechnologiesEmlab!E15</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <f>[1]TechnologiesEmlab!F15</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I27" t="str">
         <f>[1]TechnologiesEmlab!B15</f>
@@ -6751,115 +6851,115 @@
     <row r="28" spans="2:9">
       <c r="B28" t="str">
         <f>[1]TechnologiesEmlab!A16</f>
-        <v>WTG_onshore</v>
+        <v>hydrogen turbine</v>
       </c>
       <c r="C28">
         <f>[1]TechnologiesEmlab!C16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f>[1]TechnologiesEmlab!D16</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f>[1]TechnologiesEmlab!E16</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F28">
         <f>[1]TechnologiesEmlab!F16</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I28" t="str">
         <f>[1]TechnologiesEmlab!B16</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="str">
         <f>[1]TechnologiesEmlab!A17</f>
-        <v>PV_utility_systems</v>
+        <v>hydrogen CHP</v>
       </c>
       <c r="C29">
         <f>[1]TechnologiesEmlab!C17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>[1]TechnologiesEmlab!D17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <f>[1]TechnologiesEmlab!E17</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <f>[1]TechnologiesEmlab!F17</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I29" t="str">
         <f>[1]TechnologiesEmlab!B17</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="str">
         <f>[1]TechnologiesEmlab!A18</f>
-        <v>PV_residential</v>
+        <v>hydrogen combined cycle</v>
       </c>
       <c r="C30">
         <f>[1]TechnologiesEmlab!C18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <f>[1]TechnologiesEmlab!D18</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <f>[1]TechnologiesEmlab!E18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <f>[1]TechnologiesEmlab!F18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I30" t="str">
         <f>[1]TechnologiesEmlab!B18</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="str">
         <f>[1]TechnologiesEmlab!A19</f>
-        <v>Hydropower_reservoir_medium</v>
+        <v>CCGT_CHP_backpressure_DH</v>
       </c>
       <c r="C31">
         <f>[1]TechnologiesEmlab!C19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f>[1]TechnologiesEmlab!D19</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <f>[1]TechnologiesEmlab!E19</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <f>[1]TechnologiesEmlab!F19</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I31" t="str">
         <f>[1]TechnologiesEmlab!B19</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="str">
         <f>[1]TechnologiesEmlab!A20</f>
-        <v>hydrogen_turbine</v>
+        <v>CCGT_CHP_backpressure_PH</v>
       </c>
       <c r="C32">
         <f>[1]TechnologiesEmlab!C20</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <f>[1]TechnologiesEmlab!D20</f>
@@ -6867,11 +6967,11 @@
       </c>
       <c r="E32">
         <f>[1]TechnologiesEmlab!E20</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <f>[1]TechnologiesEmlab!F20</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I32" t="str">
         <f>[1]TechnologiesEmlab!B20</f>
@@ -7281,60 +7381,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="C2" s="9">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3632514B-ABC6-4169-8B9E-B369CFE6C343}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="29.21875" customWidth="1"/>
-    <col min="11" max="11" width="67.77734375" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="67.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="31.2" customHeight="1">
+    <row r="3" spans="1:13" ht="31.15" customHeight="1">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -7359,20 +7550,20 @@
       <c r="H3" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>242</v>
       </c>
       <c r="M3">
         <v>0.45635560706442235</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="31.2" customHeight="1">
+    <row r="4" spans="1:13" ht="31.15" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -7397,20 +7588,20 @@
       <c r="H4" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>245</v>
       </c>
       <c r="M4">
         <v>0.1322461625216583</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.2" customHeight="1">
+    <row r="5" spans="1:13" ht="31.15" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>228</v>
       </c>
@@ -7435,20 +7626,20 @@
       <c r="H5" s="6">
         <v>40</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M5">
         <v>4.307958095190436E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.2" customHeight="1">
+    <row r="6" spans="1:13" ht="31.15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>227</v>
       </c>
@@ -7473,20 +7664,20 @@
       <c r="H6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M6">
         <v>6.1060639474064503E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.2" customHeight="1">
+    <row r="7" spans="1:13" ht="31.15" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>221</v>
       </c>
@@ -7511,13 +7702,13 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M7">
@@ -7525,7 +7716,7 @@
         <v>0.6927419900120495</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.2" customHeight="1">
+    <row r="8" spans="1:13" ht="31.15" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>216</v>
       </c>
@@ -7551,7 +7742,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.2" customHeight="1">
+    <row r="9" spans="1:13" ht="31.15" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>232</v>
       </c>
@@ -7627,24 +7818,24 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="38"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="38"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="36"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="36"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="D20" s="38"/>
+      <c r="D20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7658,6 +7849,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56446ECA-AD79-4315-B7C1-2CF8E546B2B9}">
+  <dimension ref="A5:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="40">
+        <v>26964</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="40">
+        <v>82099</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="C19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22">
+        <v>11775</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4297995</v>
+      </c>
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="D29" s="9">
+        <v>14</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="9">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9">
+        <v>31</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9">
+        <v>53</v>
+      </c>
+      <c r="D31" s="9">
+        <v>59</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="45">
+        <v>32</v>
+      </c>
+      <c r="C35" s="45">
+        <v>58</v>
+      </c>
+      <c r="D35" s="45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" s="43">
+        <v>43</v>
+      </c>
+      <c r="C36" s="43">
+        <v>60</v>
+      </c>
+      <c r="D36" s="43">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="43">
+        <v>15</v>
+      </c>
+      <c r="C37" s="43">
+        <v>18</v>
+      </c>
+      <c r="D37" s="43">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="44">
+        <v>15</v>
+      </c>
+      <c r="C38" s="44">
+        <v>18</v>
+      </c>
+      <c r="D38" s="44">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75">
+      <c r="H41" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91ADA03-C099-48D6-AB3F-B988B7AFF0A3}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
@@ -7665,41 +8094,41 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8096,34 +8525,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C323B3FD-895D-4F9C-9835-1CFAFC0647EC}">
   <sheetPr>
     <tabColor rgb="FFFF0066"/>
   </sheetPr>
   <dimension ref="A1:AH88"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R69" sqref="R69"/>
+      <selection pane="topRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5546875" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9420,7 +9849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -9428,13 +9857,13 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9533,9 +9962,9 @@
       <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="26" t="str">
         <f>[1]LoadShedders!B6</f>
-        <v>66.748000000000005</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9568,7 +9997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0748432-32D0-48E1-AA1B-35CFCAE0ACE0}">
   <dimension ref="A3:D25"/>
   <sheetViews>
@@ -9576,12 +10005,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -9821,7 +10250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58EFBB4-B33A-4767-8E25-52F1EB2A92EE}">
   <dimension ref="A1:X100"/>
   <sheetViews>
@@ -9829,17 +10258,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.88671875" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -10711,7 +11140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -10746,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -10775,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10810,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -10842,7 +11271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -10871,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -10900,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -10929,7 +11358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -10961,7 +11390,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -10993,7 +11422,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -11025,7 +11454,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -11057,7 +11486,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -11089,7 +11518,7 @@
         <v>6882.0720000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -11121,7 +11550,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -11153,7 +11582,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -11197,7 +11626,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -11238,7 +11667,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -11282,7 +11711,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -11323,7 +11752,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -11358,7 +11787,7 @@
         <v>344.82641033966041</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -11393,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -11437,7 +11866,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -11478,7 +11907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -11522,7 +11951,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -11563,7 +11992,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -11607,7 +12036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -11648,7 +12077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -11689,7 +12118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -11730,7 +12159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -11774,7 +12203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -11815,7 +12244,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -11859,7 +12288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -11900,7 +12329,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -11929,7 +12358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -11961,7 +12390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -11993,7 +12422,7 @@
         <v>1773.915272638189</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -12025,7 +12454,7 @@
         <v>17739.15272638189</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -12057,7 +12486,7 @@
         <v>5321.745817914566</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -12101,7 +12530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -12316,7 +12745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12919C5-07FE-4AE2-AA9E-FE62D2303B6B}">
   <dimension ref="A1:AN42"/>
   <sheetViews>
@@ -12324,17 +12753,17 @@
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="34" width="2.44140625" customWidth="1"/>
-    <col min="35" max="35" width="4.109375" customWidth="1"/>
-    <col min="36" max="39" width="2.44140625" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" customWidth="1"/>
-    <col min="41" max="44" width="1.6640625" customWidth="1"/>
-    <col min="45" max="45" width="6.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="34" width="2.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" customWidth="1"/>
+    <col min="36" max="39" width="2.42578125" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" customWidth="1"/>
+    <col min="41" max="44" width="1.7109375" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -13334,95 +13763,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017CECFC-4612-4C4E-B0A2-4ADEBC6DC152}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="9">
-        <v>16.7</v>
-      </c>
-      <c r="C2" s="9">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="9">
-        <v>45</v>
-      </c>
-      <c r="C3" s="9">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="9">
-        <v>53</v>
-      </c>
-      <c r="C4" s="9">
-        <v>59</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7210BC-9508-40C9-A5D9-DAF40C660788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A9691-E051-4CCE-B932-68C42803761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="738" activeTab="1" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="738" activeTab="4" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="285">
   <si>
     <t>ElectricitySportMarket</t>
   </si>
@@ -903,6 +903,105 @@
   <si>
     <t>EV + heat pump + household + commercial + industrial</t>
   </si>
+  <si>
+    <r>
+      <t>Load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Type of flexibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EV, heat pump, household, commercial, industrial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FFD13438"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Sheddable </t>
+  </si>
+  <si>
+    <t>35.0% </t>
+  </si>
+  <si>
+    <t>Hydrogen </t>
+  </si>
+  <si>
+    <t>45.6% </t>
+  </si>
+  <si>
+    <t>Industrial heat </t>
+  </si>
+  <si>
+    <t>Shiftable </t>
+  </si>
+  <si>
+    <t>13.2% </t>
+  </si>
+  <si>
+    <t>High LS</t>
+  </si>
+  <si>
+    <t>Medium LS</t>
+  </si>
+  <si>
+    <t>Low LS</t>
+  </si>
+  <si>
+    <t>1.55%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>VOLL (€/MWh)</t>
+  </si>
+  <si>
+    <r>
+      <t>Load share</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Type of load shedder</t>
+  </si>
 </sst>
 </file>
 
@@ -917,7 +1016,7 @@
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1197,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FFD13438"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1149,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1220,6 +1345,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1274,7 +1559,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1330,14 +1615,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{660B22D1-3511-451A-B770-8E4B2498B7FA}"/>
@@ -1490,7 +1820,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3369,7 +3699,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="nl-NL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3407,7 +3737,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="402286687"/>
@@ -3469,7 +3799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="749431311"/>
@@ -3521,7 +3851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3558,7 +3888,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5695,7 +6025,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6715E7F-A3EB-4473-8DA3-E3314F1ABE21}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -6141,15 +6471,15 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -7285,56 +7615,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3632514B-ABC6-4169-8B9E-B369CFE6C343}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="29.21875" customWidth="1"/>
-    <col min="11" max="11" width="67.77734375" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.28515625" customWidth="1"/>
+    <col min="11" max="11" width="67.7109375" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="23.4">
+    <row r="2" spans="1:13" ht="23.25">
       <c r="A2" s="6" t="s">
         <v>225</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="31.2" customHeight="1">
+    <row r="3" spans="1:13" ht="31.15" customHeight="1">
       <c r="A3" t="s">
         <v>230</v>
       </c>
@@ -7359,20 +7689,20 @@
       <c r="H3" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>242</v>
       </c>
       <c r="M3">
         <v>0.45635560706442235</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="31.2" customHeight="1">
+    <row r="4" spans="1:13" ht="31.15" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>226</v>
       </c>
@@ -7397,20 +7727,20 @@
       <c r="H4" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>245</v>
       </c>
       <c r="M4">
         <v>0.1322461625216583</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="31.2" customHeight="1">
+    <row r="5" spans="1:13" ht="31.15" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>228</v>
       </c>
@@ -7435,20 +7765,20 @@
       <c r="H5" s="6">
         <v>40</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M5">
         <v>4.307958095190436E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.2" customHeight="1">
+    <row r="6" spans="1:13" ht="31.15" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>227</v>
       </c>
@@ -7473,20 +7803,20 @@
       <c r="H6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M6">
         <v>6.1060639474064503E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.2" customHeight="1">
+    <row r="7" spans="1:13" ht="31.15" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>221</v>
       </c>
@@ -7511,13 +7841,13 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="38" t="s">
         <v>265</v>
       </c>
       <c r="M7">
@@ -7525,7 +7855,7 @@
         <v>0.6927419900120495</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="31.2" customHeight="1">
+    <row r="8" spans="1:13" ht="31.15" customHeight="1">
       <c r="A8" s="32" t="s">
         <v>216</v>
       </c>
@@ -7551,7 +7881,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="31.2" customHeight="1">
+    <row r="9" spans="1:13" ht="31.15" customHeight="1">
       <c r="A9" s="32" t="s">
         <v>232</v>
       </c>
@@ -7627,24 +7957,24 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="D15" s="38"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="38"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="D17" s="38"/>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="36"/>
-      <c r="D18" s="38"/>
+      <c r="D18" s="37"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="36"/>
-      <c r="D19" s="38"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="D20" s="38"/>
+      <c r="D20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7668,38 +7998,38 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8108,22 +8438,22 @@
       <selection pane="topRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5546875" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="19" max="19" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -9422,19 +9752,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0BDE63-C164-44DB-BCC1-F1906C1F98B7}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -9563,8 +9893,116 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="26.25" thickBot="1">
+      <c r="C14" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="C15" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" s="45">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="C16" s="50"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="35.25" customHeight="1" thickBot="1">
+      <c r="C17" s="50"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" s="45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C18" s="51"/>
+      <c r="D18" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" s="45">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C19" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="45">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="55">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9576,12 +10014,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -9829,17 +10267,17 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.88671875" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -10711,7 +11149,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -10746,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="15.75">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -10775,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="15.75">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10810,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="15.75">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -10842,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="15.75">
       <c r="A40" t="s">
         <v>122</v>
       </c>
@@ -10871,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -10900,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" ht="15.75">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -10929,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -10961,7 +11399,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -10993,7 +11431,7 @@
         <v>2294.0239999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -11025,7 +11463,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -11057,7 +11495,7 @@
         <v>22940.240000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" t="s">
         <v>125</v>
       </c>
@@ -11089,7 +11527,7 @@
         <v>6882.0720000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -11121,7 +11559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -11153,7 +11591,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -11197,7 +11635,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" t="s">
         <v>133</v>
       </c>
@@ -11238,7 +11676,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -11282,7 +11720,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -11323,7 +11761,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" t="s">
         <v>133</v>
       </c>
@@ -11358,7 +11796,7 @@
         <v>344.82641033966041</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -11393,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -11437,7 +11875,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" ht="15.75">
       <c r="A57" t="s">
         <v>133</v>
       </c>
@@ -11478,7 +11916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -11522,7 +11960,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" ht="15.75">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -11563,7 +12001,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" t="s">
         <v>133</v>
       </c>
@@ -11607,7 +12045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -11648,7 +12086,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -11689,7 +12127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" t="s">
         <v>133</v>
       </c>
@@ -11730,7 +12168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -11774,7 +12212,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -11815,7 +12253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" t="s">
         <v>133</v>
       </c>
@@ -11859,7 +12297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" ht="15.75">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -11900,7 +12338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" ht="15.75">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -11929,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -11961,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" ht="15.75">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -11993,7 +12431,7 @@
         <v>1773.915272638189</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -12025,7 +12463,7 @@
         <v>17739.15272638189</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -12057,7 +12495,7 @@
         <v>5321.745817914566</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="15.75">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -12101,7 +12539,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" ht="15.75">
       <c r="A74" t="s">
         <v>138</v>
       </c>
@@ -12324,17 +12762,17 @@
       <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" customWidth="1"/>
-    <col min="12" max="34" width="2.44140625" customWidth="1"/>
-    <col min="35" max="35" width="4.109375" customWidth="1"/>
-    <col min="36" max="39" width="2.44140625" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" customWidth="1"/>
-    <col min="41" max="44" width="1.6640625" customWidth="1"/>
-    <col min="45" max="45" width="6.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="34" width="2.42578125" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" customWidth="1"/>
+    <col min="36" max="39" width="2.42578125" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" customWidth="1"/>
+    <col min="41" max="44" width="1.7109375" customWidth="1"/>
+    <col min="45" max="45" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -13344,12 +13782,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A9691-E051-4CCE-B932-68C42803761B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF74FF-27EB-4BF1-BE39-F1412AEBF1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="738" activeTab="4" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
@@ -932,27 +932,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>EV, heat pump, household, commercial, industrial</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.5"/>
-        <color rgb="FFD13438"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>Sheddable </t>
   </si>
   <si>
     <t>35.0% </t>
-  </si>
-  <si>
-    <t>Hydrogen </t>
   </si>
   <si>
     <t>45.6% </t>
@@ -1001,6 +984,14 @@
   </si>
   <si>
     <t>Type of load shedder</t>
+  </si>
+  <si>
+    <t>Electrolyzers</t>
+  </si>
+  <si>
+    <t>EV, heat pump,
+household, commercial,
+industria residential, tertiary, transport, electrical appliances from industry, agriculture</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1007,7 @@
     <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1207,12 +1198,6 @@
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FFD13438"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1620,20 +1605,8 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1647,15 +1620,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1667,6 +1631,27 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -7639,15 +7624,15 @@
         <v>225</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="6" t="s">
         <v>231</v>
       </c>
@@ -9755,7 +9740,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9894,105 +9879,105 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" thickBot="1">
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="43" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
+      <c r="C15" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="D15" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="C16" s="51"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="35.25" customHeight="1" thickBot="1">
+      <c r="C17" s="51"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="41">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C18" s="52"/>
+      <c r="D18" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" thickBot="1">
+      <c r="C19" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="48" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="C15" s="49" t="s">
+      <c r="D19" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="45">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
-      <c r="C16" s="50"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="45">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="35.25" customHeight="1" thickBot="1">
-      <c r="C17" s="50"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G17" s="45">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C18" s="51"/>
-      <c r="D18" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G19" s="41">
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C19" s="52" t="s">
+    <row r="20" spans="3:7">
+      <c r="C20" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41" t="s">
+      <c r="D20" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="G19" s="45">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="53" t="s">
+      <c r="E20" s="47"/>
+      <c r="F20" s="47" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="55">
+      <c r="G20" s="48">
         <v>4000</v>
       </c>
     </row>

--- a/data/MostImportantData.xlsx
+++ b/data/MostImportantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF74FF-27EB-4BF1-BE39-F1412AEBF1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0B2AB-AA8B-4DA6-AF9B-7CFE95EDEB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="738" activeTab="4" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
+    <workbookView xWindow="-9920" yWindow="-21710" windowWidth="38620" windowHeight="21220" tabRatio="738" activeTab="4" xr2:uid="{B8782AFC-8070-4987-A54E-8F4783B58729}"/>
   </bookViews>
   <sheets>
     <sheet name="Technology" sheetId="2" r:id="rId1"/>
@@ -4864,6 +4864,8 @@
       <sheetName val="ElectricitySpotMarkets"/>
       <sheetName val="LoadShifterCap"/>
       <sheetName val="LoadShedders"/>
+      <sheetName val="LoadShedders2"/>
+      <sheetName val="VOLL"/>
       <sheetName val="TechnologyTargets"/>
       <sheetName val="YearlyTargets"/>
       <sheetName val="yearlyCO2"/>
@@ -4879,15 +4881,15 @@
       <sheetName val="NewTechnologies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="1">
           <cell r="B1" t="str">
@@ -4896,15 +4898,15 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>Lithium_ion_battery</v>
+            <v>Lithium ion battery</v>
           </cell>
           <cell r="D2">
-            <v>100</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>WTG_offshore</v>
+            <v>Wind Offshore</v>
           </cell>
           <cell r="D3">
             <v>500</v>
@@ -4912,7 +4914,7 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>hydrogen_turbine</v>
+            <v>hydrogen turbine</v>
           </cell>
           <cell r="D4">
             <v>500</v>
@@ -4920,7 +4922,7 @@
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>PV_utility_systems</v>
+            <v>Solar PV large</v>
           </cell>
           <cell r="D5">
             <v>350</v>
@@ -4928,7 +4930,7 @@
         </row>
         <row r="6">
           <cell r="B6" t="str">
-            <v>WTG_onshore</v>
+            <v>Wind Onshore</v>
           </cell>
           <cell r="D6">
             <v>250</v>
@@ -4936,7 +4938,7 @@
         </row>
         <row r="7">
           <cell r="B7" t="str">
-            <v>Biomass_CHP_wood_pellets_DH</v>
+            <v>Biofuel</v>
           </cell>
           <cell r="D7">
             <v>300</v>
@@ -4944,18 +4946,10 @@
         </row>
         <row r="8">
           <cell r="B8" t="str">
-            <v>PV_residential</v>
+            <v>Solar PV rooftop</v>
           </cell>
           <cell r="D8">
             <v>300</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Nuclear</v>
-          </cell>
-          <cell r="D9">
-            <v>1000</v>
           </cell>
         </row>
       </sheetData>
@@ -4979,16 +4973,16 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>Biomass_CHP_wood_pellets_DH</v>
+            <v>Biofuel</v>
           </cell>
           <cell r="B2" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D2">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="E2">
             <v>30</v>
@@ -4999,56 +4993,56 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Biomass_CHP_wood_pellets_PH</v>
+            <v>CCGT</v>
           </cell>
           <cell r="B3" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C3">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D3">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="E3">
-            <v>20</v>
+            <v>30</v>
           </cell>
           <cell r="F3">
-            <v>20</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>CCGT</v>
+            <v>Nuclear</v>
           </cell>
           <cell r="B4" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C4">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D4">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E4">
-            <v>30</v>
+            <v>45</v>
           </cell>
           <cell r="F4">
-            <v>30</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>CCGT_CHP_backpressure_DH</v>
+            <v>OCGT</v>
           </cell>
           <cell r="B5" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D5">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E5">
             <v>30</v>
@@ -5059,136 +5053,136 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>CCGT_CHP_backpressure_PH</v>
+            <v>Coal PSC</v>
           </cell>
           <cell r="B6" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C6">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D6">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E6">
-            <v>20</v>
+            <v>40</v>
           </cell>
           <cell r="F6">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>CCS</v>
+            <v>Lignite PSC</v>
           </cell>
           <cell r="B7" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C7">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D7">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E7">
-            <v>20</v>
+            <v>40</v>
           </cell>
           <cell r="F7">
-            <v>20</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Nuclear</v>
+            <v>Fuel oil PGT</v>
           </cell>
           <cell r="B8" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C8">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="D8">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="E8">
-            <v>45</v>
+            <v>25</v>
           </cell>
           <cell r="F8">
-            <v>45</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>OCGT</v>
+            <v>Lithium ion battery</v>
           </cell>
           <cell r="B9" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>StorageTrader</v>
           </cell>
           <cell r="C9">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D9">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E9">
-            <v>30</v>
+            <v>20</v>
           </cell>
           <cell r="F9">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Coal PSC</v>
+            <v>Pumped hydro</v>
           </cell>
           <cell r="B10" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>StorageTrader</v>
           </cell>
           <cell r="C10">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D10">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="E10">
-            <v>40</v>
+            <v>100</v>
           </cell>
           <cell r="F10">
-            <v>40</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>Lignite PSC</v>
+            <v>Wind Offshore</v>
           </cell>
           <cell r="B11" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C11">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D11">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="E11">
-            <v>40</v>
+            <v>30</v>
           </cell>
           <cell r="F11">
-            <v>40</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>Fuel oil PGT</v>
+            <v>Wind Onshore</v>
           </cell>
           <cell r="B12" t="str">
-            <v>ConventionalPlantOperator</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C12">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D12">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E12">
             <v>25</v>
@@ -5199,169 +5193,169 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Lithium_ion_battery</v>
+            <v>Solar PV large</v>
           </cell>
           <cell r="B13" t="str">
-            <v>StorageTrader</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C13">
             <v>0</v>
           </cell>
           <cell r="D13">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E13">
-            <v>20</v>
+            <v>25</v>
           </cell>
           <cell r="F13">
-            <v>20</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Pumped_hydro</v>
+            <v>Solar PV rooftop</v>
           </cell>
           <cell r="B14" t="str">
-            <v>StorageTrader</v>
+            <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C14">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="D14">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="E14">
-            <v>100</v>
+            <v>25</v>
           </cell>
           <cell r="F14">
-            <v>100</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>WTG_offshore</v>
+            <v>Hydropower</v>
           </cell>
           <cell r="B15" t="str">
             <v>VariableRenewableOperator</v>
           </cell>
           <cell r="C15">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D15">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E15">
-            <v>30</v>
+            <v>60</v>
           </cell>
           <cell r="F15">
-            <v>30</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>WTG_onshore</v>
+            <v>hydrogen turbine</v>
           </cell>
           <cell r="B16" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C16">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D16">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E16">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F16">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>PV_utility_systems</v>
+            <v>hydrogen CHP</v>
           </cell>
           <cell r="B17" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C17">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D17">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E17">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F17">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>PV_residential</v>
+            <v>hydrogen combined cycle</v>
           </cell>
           <cell r="B18" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C18">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D18">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E18">
-            <v>25</v>
+            <v>30</v>
           </cell>
           <cell r="F18">
-            <v>25</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Hydropower_reservoir_medium</v>
+            <v>CCGT_CHP_backpressure_DH</v>
           </cell>
           <cell r="B19" t="str">
-            <v>VariableRenewableOperator</v>
+            <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C19">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="D19">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="E19">
-            <v>60</v>
+            <v>30</v>
           </cell>
           <cell r="F19">
-            <v>60</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>hydrogen_turbine</v>
+            <v>CCGT_CHP_backpressure_PH</v>
           </cell>
           <cell r="B20" t="str">
             <v>ConventionalPlantOperator</v>
           </cell>
           <cell r="C20">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="D20">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E20">
-            <v>30</v>
+            <v>20</v>
           </cell>
           <cell r="F20">
-            <v>30</v>
+            <v>20</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
       <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
@@ -5403,7 +5397,7 @@
             <v>0</v>
           </cell>
           <cell r="E3">
-            <v>0.7</v>
+            <v>1</v>
           </cell>
           <cell r="F3">
             <v>7.0000000000000007E-2</v>
@@ -5434,7 +5428,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
@@ -5486,24 +5480,26 @@
           <cell r="A6" t="str">
             <v>hydrogen</v>
           </cell>
-          <cell r="B6">
-            <v>66.748000000000005</v>
+          <cell r="B6" t="str">
+            <v>-</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6493,11 +6489,11 @@
     <row r="3" spans="1:10">
       <c r="B3" s="6" t="str">
         <f>[1]CandidatePowerPlants!B2</f>
-        <v>Lithium_ion_battery</v>
+        <v>Lithium ion battery</v>
       </c>
       <c r="C3" s="6">
         <f>[1]CandidatePowerPlants!D2</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D4" si="0">INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),2)</f>
@@ -6505,7 +6501,7 @@
       </c>
       <c r="E3" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F4" si="1">INDEX($B$14:$F$33,MATCH(B3,$B$14:$B$33,0),4)</f>
@@ -6515,7 +6511,7 @@
     <row r="4" spans="1:10">
       <c r="B4" s="6" t="str">
         <f>[1]CandidatePowerPlants!B3</f>
-        <v>WTG_offshore</v>
+        <v>Wind Offshore</v>
       </c>
       <c r="C4" s="6">
         <f>[1]CandidatePowerPlants!D3</f>
@@ -6523,11 +6519,11 @@
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4" si="2">INDEX($B$14:$F$33,MATCH(B4,$B$14:$B$33,0),3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="1"/>
@@ -6537,7 +6533,7 @@
     <row r="5" spans="1:10">
       <c r="B5" s="6" t="str">
         <f>[1]CandidatePowerPlants!B5</f>
-        <v>PV_utility_systems</v>
+        <v>Solar PV large</v>
       </c>
       <c r="C5" s="6">
         <f>[1]CandidatePowerPlants!D5</f>
@@ -6545,11 +6541,11 @@
       </c>
       <c r="D5" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B5,$B$14:$B$33,0),4)</f>
@@ -6559,7 +6555,7 @@
     <row r="6" spans="1:10">
       <c r="B6" s="6" t="str">
         <f>[1]CandidatePowerPlants!B8</f>
-        <v>PV_residential</v>
+        <v>Solar PV rooftop</v>
       </c>
       <c r="C6" s="6">
         <f>[1]CandidatePowerPlants!D8</f>
@@ -6567,11 +6563,11 @@
       </c>
       <c r="D6" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B6,$B$14:$B$33,0),4)</f>
@@ -6581,7 +6577,7 @@
     <row r="7" spans="1:10">
       <c r="B7" s="6" t="str">
         <f>[1]CandidatePowerPlants!B6</f>
-        <v>WTG_onshore</v>
+        <v>Wind Onshore</v>
       </c>
       <c r="C7" s="6">
         <f>[1]CandidatePowerPlants!D6</f>
@@ -6589,11 +6585,11 @@
       </c>
       <c r="D7" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B7,$B$14:$B$33,0),4)</f>
@@ -6603,7 +6599,7 @@
     <row r="8" spans="1:10">
       <c r="B8" s="6" t="str">
         <f>[1]CandidatePowerPlants!B7</f>
-        <v>Biomass_CHP_wood_pellets_DH</v>
+        <v>Biofuel</v>
       </c>
       <c r="C8" s="6">
         <f>[1]CandidatePowerPlants!D7</f>
@@ -6611,11 +6607,11 @@
       </c>
       <c r="D8" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B8,$B$14:$B$33,0),4)</f>
@@ -6625,7 +6621,7 @@
     <row r="9" spans="1:10">
       <c r="B9" s="6" t="str">
         <f>[1]CandidatePowerPlants!B4</f>
-        <v>hydrogen_turbine</v>
+        <v>hydrogen turbine</v>
       </c>
       <c r="C9" s="6">
         <f>[1]CandidatePowerPlants!D4</f>
@@ -6633,11 +6629,11 @@
       </c>
       <c r="D9" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),3)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6">
         <f>INDEX($B$14:$F$33,MATCH(B9,$B$14:$B$33,0),4)</f>
@@ -6645,25 +6641,25 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="6">
         <f>[1]CandidatePowerPlants!B9</f>
-        <v>Nuclear</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
         <f>[1]CandidatePowerPlants!D9</f>
-        <v>1000</v>
-      </c>
-      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="e">
         <f t="shared" ref="D10" si="3">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),2)</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="6" t="e">
         <f t="shared" ref="E10" si="4">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),3)</f>
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="6" t="e">
         <f t="shared" ref="F10" si="5">INDEX($B$14:$F$33,MATCH(B10,$B$14:$B$33,0),4)</f>
-        <v>45</v>
+        <v>#N/A</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -6701,15 +6697,15 @@
     <row r="14" spans="1:10">
       <c r="B14" t="str">
         <f>[1]TechnologiesEmlab!A2</f>
-        <v>Biomass_CHP_wood_pellets_DH</v>
+        <v>Biofuel</v>
       </c>
       <c r="C14">
         <f>[1]TechnologiesEmlab!C2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f>[1]TechnologiesEmlab!D2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>[1]TechnologiesEmlab!E2</f>
@@ -6727,23 +6723,23 @@
     <row r="15" spans="1:10">
       <c r="B15" t="str">
         <f>[1]TechnologiesEmlab!A3</f>
-        <v>Biomass_CHP_wood_pellets_PH</v>
+        <v>CCGT</v>
       </c>
       <c r="C15">
         <f>[1]TechnologiesEmlab!C3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f>[1]TechnologiesEmlab!D3</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>[1]TechnologiesEmlab!E3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <f>[1]TechnologiesEmlab!F3</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I15" t="str">
         <f>[1]TechnologiesEmlab!B3</f>
@@ -6753,23 +6749,23 @@
     <row r="16" spans="1:10">
       <c r="B16" t="str">
         <f>[1]TechnologiesEmlab!A4</f>
-        <v>CCGT</v>
+        <v>Nuclear</v>
       </c>
       <c r="C16">
         <f>[1]TechnologiesEmlab!C4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f>[1]TechnologiesEmlab!D4</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <f>[1]TechnologiesEmlab!E4</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F16">
         <f>[1]TechnologiesEmlab!F4</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I16" t="str">
         <f>[1]TechnologiesEmlab!B4</f>
@@ -6780,15 +6776,15 @@
     <row r="17" spans="2:9">
       <c r="B17" t="str">
         <f>[1]TechnologiesEmlab!A5</f>
-        <v>CCGT_CHP_backpressure_DH</v>
+        <v>OCGT</v>
       </c>
       <c r="C17">
         <f>[1]TechnologiesEmlab!C5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f>[1]TechnologiesEmlab!D5</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <f>[1]TechnologiesEmlab!E5</f>
@@ -6806,23 +6802,23 @@
     <row r="18" spans="2:9">
       <c r="B18" t="str">
         <f>[1]TechnologiesEmlab!A6</f>
-        <v>CCGT_CHP_backpressure_PH</v>
+        <v>Coal PSC</v>
       </c>
       <c r="C18">
         <f>[1]TechnologiesEmlab!C6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f>[1]TechnologiesEmlab!D6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <f>[1]TechnologiesEmlab!E6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <f>[1]TechnologiesEmlab!F6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I18" t="str">
         <f>[1]TechnologiesEmlab!B6</f>
@@ -6832,23 +6828,23 @@
     <row r="19" spans="2:9">
       <c r="B19" t="str">
         <f>[1]TechnologiesEmlab!A7</f>
-        <v>CCS</v>
+        <v>Lignite PSC</v>
       </c>
       <c r="C19">
         <f>[1]TechnologiesEmlab!C7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f>[1]TechnologiesEmlab!D7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <f>[1]TechnologiesEmlab!E7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <f>[1]TechnologiesEmlab!F7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I19" t="str">
         <f>[1]TechnologiesEmlab!B7</f>
@@ -6858,23 +6854,23 @@
     <row r="20" spans="2:9">
       <c r="B20" t="str">
         <f>[1]TechnologiesEmlab!A8</f>
-        <v>Nuclear</v>
+        <v>Fuel oil PGT</v>
       </c>
       <c r="C20">
         <f>[1]TechnologiesEmlab!C8</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <f>[1]TechnologiesEmlab!D8</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>[1]TechnologiesEmlab!E8</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <f>[1]TechnologiesEmlab!F8</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I20" t="str">
         <f>[1]TechnologiesEmlab!B8</f>
@@ -6884,93 +6880,93 @@
     <row r="21" spans="2:9">
       <c r="B21" t="str">
         <f>[1]TechnologiesEmlab!A9</f>
-        <v>OCGT</v>
+        <v>Lithium ion battery</v>
       </c>
       <c r="C21">
         <f>[1]TechnologiesEmlab!C9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <f>[1]TechnologiesEmlab!D9</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <f>[1]TechnologiesEmlab!E9</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <f>[1]TechnologiesEmlab!F9</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I21" t="str">
         <f>[1]TechnologiesEmlab!B9</f>
-        <v>ConventionalPlantOperator</v>
+        <v>StorageTrader</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="str">
         <f>[1]TechnologiesEmlab!A10</f>
-        <v>Coal PSC</v>
+        <v>Pumped hydro</v>
       </c>
       <c r="C22">
         <f>[1]TechnologiesEmlab!C10</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f>[1]TechnologiesEmlab!D10</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f>[1]TechnologiesEmlab!E10</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <f>[1]TechnologiesEmlab!F10</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I22" t="str">
         <f>[1]TechnologiesEmlab!B10</f>
-        <v>ConventionalPlantOperator</v>
+        <v>StorageTrader</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="str">
         <f>[1]TechnologiesEmlab!A11</f>
-        <v>Lignite PSC</v>
+        <v>Wind Offshore</v>
       </c>
       <c r="C23">
         <f>[1]TechnologiesEmlab!C11</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <f>[1]TechnologiesEmlab!D11</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f>[1]TechnologiesEmlab!E11</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <f>[1]TechnologiesEmlab!F11</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I23" t="str">
         <f>[1]TechnologiesEmlab!B11</f>
-        <v>ConventionalPlantOperator</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="str">
         <f>[1]TechnologiesEmlab!A12</f>
-        <v>Fuel oil PGT</v>
+        <v>Wind Onshore</v>
       </c>
       <c r="C24">
         <f>[1]TechnologiesEmlab!C12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f>[1]TechnologiesEmlab!D12</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>[1]TechnologiesEmlab!E12</f>
@@ -6982,13 +6978,13 @@
       </c>
       <c r="I24" t="str">
         <f>[1]TechnologiesEmlab!B12</f>
-        <v>ConventionalPlantOperator</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="str">
         <f>[1]TechnologiesEmlab!A13</f>
-        <v>Lithium_ion_battery</v>
+        <v>Solar PV large</v>
       </c>
       <c r="C25">
         <f>[1]TechnologiesEmlab!C13</f>
@@ -6996,67 +6992,67 @@
       </c>
       <c r="D25">
         <f>[1]TechnologiesEmlab!D13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f>[1]TechnologiesEmlab!E13</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <f>[1]TechnologiesEmlab!F13</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I25" t="str">
         <f>[1]TechnologiesEmlab!B13</f>
-        <v>StorageTrader</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="str">
         <f>[1]TechnologiesEmlab!A14</f>
-        <v>Pumped_hydro</v>
+        <v>Solar PV rooftop</v>
       </c>
       <c r="C26">
         <f>[1]TechnologiesEmlab!C14</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f>[1]TechnologiesEmlab!D14</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f>[1]TechnologiesEmlab!E14</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <f>[1]TechnologiesEmlab!F14</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I26" t="str">
         <f>[1]TechnologiesEmlab!B14</f>
-        <v>StorageTrader</v>
+        <v>VariableRenewableOperator</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="str">
         <f>[1]TechnologiesEmlab!A15</f>
-        <v>WTG_offshore</v>
+        <v>Hydropower</v>
       </c>
       <c r="C27">
         <f>[1]TechnologiesEmlab!C15</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <f>[1]TechnologiesEmlab!D15</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f>[1]TechnologiesEmlab!E15</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <f>[1]TechnologiesEmlab!F15</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I27" t="str">
         <f>[1]TechnologiesEmlab!B15</f>
@@ -7066,127 +7062,127 @@
     <row r="28" spans="2:9">
       <c r="B28" t="str">
         <f>[1]TechnologiesEmlab!A16</f>
-        <v>WTG_onshore</v>
+        <v>hydrogen turbine</v>
       </c>
       <c r="C28">
         <f>[1]TechnologiesEmlab!C16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <f>[1]TechnologiesEmlab!D16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <f>[1]TechnologiesEmlab!E16</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F28">
         <f>[1]TechnologiesEmlab!F16</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I28" t="str">
         <f>[1]TechnologiesEmlab!B16</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="str">
         <f>[1]TechnologiesEmlab!A17</f>
-        <v>PV_utility_systems</v>
+        <v>hydrogen CHP</v>
       </c>
       <c r="C29">
         <f>[1]TechnologiesEmlab!C17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f>[1]TechnologiesEmlab!D17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f>[1]TechnologiesEmlab!E17</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29">
         <f>[1]TechnologiesEmlab!F17</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I29" t="str">
         <f>[1]TechnologiesEmlab!B17</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="str">
         <f>[1]TechnologiesEmlab!A18</f>
-        <v>PV_residential</v>
+        <v>hydrogen combined cycle</v>
       </c>
       <c r="C30">
         <f>[1]TechnologiesEmlab!C18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <f>[1]TechnologiesEmlab!D18</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <f>[1]TechnologiesEmlab!E18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F30">
         <f>[1]TechnologiesEmlab!F18</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I30" t="str">
         <f>[1]TechnologiesEmlab!B18</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="str">
         <f>[1]TechnologiesEmlab!A19</f>
-        <v>Hydropower_reservoir_medium</v>
+        <v>CCGT_CHP_backpressure_DH</v>
       </c>
       <c r="C31">
         <f>[1]TechnologiesEmlab!C19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <f>[1]TechnologiesEmlab!D19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <f>[1]TechnologiesEmlab!E19</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F31">
         <f>[1]TechnologiesEmlab!F19</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I31" t="str">
         <f>[1]TechnologiesEmlab!B19</f>
-        <v>VariableRenewableOperator</v>
+        <v>ConventionalPlantOperator</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="str">
         <f>[1]TechnologiesEmlab!A20</f>
-        <v>hydrogen_turbine</v>
+        <v>CCGT_CHP_backpressure_PH</v>
       </c>
       <c r="C32">
         <f>[1]TechnologiesEmlab!C20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <f>[1]TechnologiesEmlab!D20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <f>[1]TechnologiesEmlab!E20</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F32">
         <f>[1]TechnologiesEmlab!F20</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I32" t="str">
         <f>[1]TechnologiesEmlab!B20</f>
@@ -7288,7 +7284,7 @@
       </c>
       <c r="F46">
         <f>[1]EnergyProducers!E3</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f>[1]EnergyProducers!F3</f>
@@ -9740,7 +9736,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9848,9 +9844,9 @@
       <c r="C6" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="26" t="str">
         <f>[1]LoadShedders!B6</f>
-        <v>66.748000000000005</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:7">
